--- a/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0682466826554915</v>
+        <v>0.06824668265540623</v>
       </c>
       <c r="D2">
-        <v>0.04976262579201318</v>
+        <v>0.04976262579201673</v>
       </c>
       <c r="E2">
-        <v>0.2675693846652223</v>
+        <v>0.2675693846652436</v>
       </c>
       <c r="F2">
-        <v>1.454795101447559</v>
+        <v>1.454795101447544</v>
       </c>
       <c r="G2">
         <v>1.020003977142537</v>
       </c>
       <c r="H2">
-        <v>1.074205792433077</v>
+        <v>1.074205792433062</v>
       </c>
       <c r="I2">
-        <v>0.1591990051810548</v>
+        <v>0.1591990051810726</v>
       </c>
       <c r="J2">
-        <v>22.35284201423929</v>
+        <v>22.35284201423923</v>
       </c>
       <c r="K2">
-        <v>0.1535949688209541</v>
+        <v>0.1535949688209435</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05775230649873464</v>
+        <v>0.05775230649876306</v>
       </c>
       <c r="D3">
-        <v>0.03854782015314839</v>
+        <v>0.0385478201532905</v>
       </c>
       <c r="E3">
-        <v>0.2286708861504323</v>
+        <v>0.2286708861504252</v>
       </c>
       <c r="F3">
-        <v>1.170758153067823</v>
+        <v>1.170758153067851</v>
       </c>
       <c r="G3">
-        <v>0.8055186243705919</v>
+        <v>0.805518624370599</v>
       </c>
       <c r="H3">
-        <v>0.8603805558073816</v>
+        <v>0.8603805558074029</v>
       </c>
       <c r="I3">
-        <v>0.1339490779876336</v>
+        <v>0.1339490779876229</v>
       </c>
       <c r="J3">
-        <v>19.1808061003332</v>
+        <v>19.18080610033337</v>
       </c>
       <c r="K3">
-        <v>0.1303132123753272</v>
+        <v>0.1303132123753379</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05162336814706947</v>
+        <v>0.05162336814694157</v>
       </c>
       <c r="D4">
-        <v>0.03255768626189948</v>
+        <v>0.03255768626200961</v>
       </c>
       <c r="E4">
         <v>0.2057473871217042</v>
       </c>
       <c r="F4">
-        <v>1.01972071171906</v>
+        <v>1.019720711719074</v>
       </c>
       <c r="G4">
-        <v>0.6934444436459302</v>
+        <v>0.6934444436459444</v>
       </c>
       <c r="H4">
-        <v>0.747111189782359</v>
+        <v>0.7471111897823661</v>
       </c>
       <c r="I4">
-        <v>0.1194551156776846</v>
+        <v>0.1194551156776917</v>
       </c>
       <c r="J4">
-        <v>17.28667011250747</v>
+        <v>17.28667011250764</v>
       </c>
       <c r="K4">
-        <v>0.1167712584839045</v>
+        <v>0.1167712584839187</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>0.04918757802886375</v>
       </c>
       <c r="D5">
-        <v>0.03029618874851181</v>
+        <v>0.0302961887484372</v>
       </c>
       <c r="E5">
-        <v>0.1966000813706259</v>
+        <v>0.1966000813706117</v>
       </c>
       <c r="F5">
         <v>0.9629896460695022</v>
       </c>
       <c r="G5">
-        <v>0.6518158782741139</v>
+        <v>0.6518158782740997</v>
       </c>
       <c r="H5">
         <v>0.7046674517730764</v>
       </c>
       <c r="I5">
-        <v>0.1137544725681394</v>
+        <v>0.1137544725681501</v>
       </c>
       <c r="J5">
         <v>16.52525970409954</v>
       </c>
       <c r="K5">
-        <v>0.1114059379524228</v>
+        <v>0.1114059379524015</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04878641184119914</v>
+        <v>0.04878641184085097</v>
       </c>
       <c r="D6">
-        <v>0.02993036105317159</v>
+        <v>0.0299303610531183</v>
       </c>
       <c r="E6">
         <v>0.1950916996594287</v>
       </c>
       <c r="F6">
-        <v>0.9538336663748623</v>
+        <v>0.9538336663748481</v>
       </c>
       <c r="G6">
-        <v>0.6451250494004412</v>
+        <v>0.6451250494004341</v>
       </c>
       <c r="H6">
-        <v>0.6978233191694585</v>
+        <v>0.6978233191694656</v>
       </c>
       <c r="I6">
-        <v>0.112819089484347</v>
+        <v>0.1128190894843257</v>
       </c>
       <c r="J6">
         <v>16.39938380524165</v>
       </c>
       <c r="K6">
-        <v>0.1105233559599164</v>
+        <v>0.110523355959927</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0515902882186694</v>
+        <v>0.05159028821852729</v>
       </c>
       <c r="D7">
-        <v>0.03252651319872513</v>
+        <v>0.0325265131988921</v>
       </c>
       <c r="E7">
-        <v>0.2056232927396451</v>
+        <v>0.2056232927396806</v>
       </c>
       <c r="F7">
-        <v>1.018937347145879</v>
+        <v>1.018937347145894</v>
       </c>
       <c r="G7">
-        <v>0.6928677013067315</v>
+        <v>0.6928677013067173</v>
       </c>
       <c r="H7">
-        <v>0.7465246957574934</v>
+        <v>0.7465246957575005</v>
       </c>
       <c r="I7">
         <v>0.1193774581317584</v>
       </c>
       <c r="J7">
-        <v>17.27636261385283</v>
+        <v>17.27636261385288</v>
       </c>
       <c r="K7">
-        <v>0.1166983224655667</v>
+        <v>0.1166983224655418</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06455120776832501</v>
+        <v>0.06455120776816159</v>
       </c>
       <c r="D8">
-        <v>0.04567882378991683</v>
+        <v>0.04567882378968591</v>
       </c>
       <c r="E8">
-        <v>0.2539261557403805</v>
+        <v>0.253926155740416</v>
       </c>
       <c r="F8">
-        <v>1.351297836246658</v>
+        <v>1.351297836246616</v>
       </c>
       <c r="G8">
-        <v>0.9413759048134338</v>
+        <v>0.9413759048134196</v>
       </c>
       <c r="H8">
         <v>0.9961878953034784</v>
       </c>
       <c r="I8">
-        <v>0.1502509014968716</v>
+        <v>0.1502509014968858</v>
       </c>
       <c r="J8">
         <v>21.24601404659882</v>
       </c>
       <c r="K8">
-        <v>0.1453867406543097</v>
+        <v>0.1453867406543274</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09352392448567315</v>
+        <v>0.093523924485865</v>
       </c>
       <c r="D9">
-        <v>0.08140363487382274</v>
+        <v>0.08140363487384406</v>
       </c>
       <c r="E9">
         <v>0.3591021417468099</v>
       </c>
       <c r="F9">
-        <v>2.252720460854874</v>
+        <v>2.25272046085486</v>
       </c>
       <c r="G9">
         <v>1.638699881095718</v>
       </c>
       <c r="H9">
-        <v>1.678489826539405</v>
+        <v>1.678489826539419</v>
       </c>
       <c r="I9">
-        <v>0.2217198683336861</v>
+        <v>0.2217198683336825</v>
       </c>
       <c r="J9">
-        <v>29.63387536084565</v>
+        <v>29.63387536084571</v>
       </c>
       <c r="K9">
-        <v>0.2098075186255102</v>
+        <v>0.209807518625496</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1191886888651368</v>
+        <v>0.1191886888653357</v>
       </c>
       <c r="D10">
-        <v>0.1196858034181716</v>
+        <v>0.1196858034183705</v>
       </c>
       <c r="E10">
         <v>0.4485246378322216</v>
       </c>
       <c r="F10">
-        <v>3.200984661192038</v>
+        <v>3.200984661192052</v>
       </c>
       <c r="G10">
-        <v>2.392322647398018</v>
+        <v>2.392322647398004</v>
       </c>
       <c r="H10">
         <v>2.400822062880906</v>
       </c>
       <c r="I10">
-        <v>0.2869237586689337</v>
+        <v>0.2869237586689195</v>
       </c>
       <c r="J10">
-        <v>36.52593589823721</v>
+        <v>36.52593589823726</v>
       </c>
       <c r="K10">
-        <v>0.2666129486777464</v>
+        <v>0.2666129486777535</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1326979221408777</v>
+        <v>0.1326979221409914</v>
       </c>
       <c r="D11">
-        <v>0.1421494413965121</v>
+        <v>0.1421494413964126</v>
       </c>
       <c r="E11">
-        <v>0.4940923276799793</v>
+        <v>0.4940923276799865</v>
       </c>
       <c r="F11">
-        <v>3.747966556159497</v>
+        <v>3.74796655615944</v>
       </c>
       <c r="G11">
-        <v>2.832970660961365</v>
+        <v>2.832970660961308</v>
       </c>
       <c r="H11">
-        <v>2.818872968327057</v>
+        <v>2.818872968327</v>
       </c>
       <c r="I11">
-        <v>0.3217410567289463</v>
+        <v>0.3217410567289392</v>
       </c>
       <c r="J11">
-        <v>39.95849369625739</v>
+        <v>39.95849369625711</v>
       </c>
       <c r="K11">
-        <v>0.2962863499331192</v>
+        <v>0.2962863499331334</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.138209218904251</v>
+        <v>0.1382092189041515</v>
       </c>
       <c r="D12">
-        <v>0.1517513942935693</v>
+        <v>0.1517513942938606</v>
       </c>
       <c r="E12">
-        <v>0.5123807864781114</v>
+        <v>0.5123807864781185</v>
       </c>
       <c r="F12">
-        <v>3.979736151182635</v>
+        <v>3.979736151182706</v>
       </c>
       <c r="G12">
-        <v>3.020717994420437</v>
+        <v>3.02071799442048</v>
       </c>
       <c r="H12">
-        <v>2.996257792364474</v>
+        <v>2.996257792364517</v>
       </c>
       <c r="I12">
-        <v>0.3360246472771706</v>
+        <v>0.3360246472771777</v>
       </c>
       <c r="J12">
-        <v>41.3211381455003</v>
+        <v>41.32113814550053</v>
       </c>
       <c r="K12">
-        <v>0.308337038714555</v>
+        <v>0.3083370387145621</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1370016532025176</v>
+        <v>0.1370016532025033</v>
       </c>
       <c r="D13">
-        <v>0.1496262137085722</v>
+        <v>0.1496262137084656</v>
       </c>
       <c r="E13">
-        <v>0.5083886234739694</v>
+        <v>0.5083886234739339</v>
       </c>
       <c r="F13">
-        <v>3.928541148697747</v>
+        <v>3.928541148697676</v>
       </c>
       <c r="G13">
-        <v>2.979198280399387</v>
+        <v>2.979198280399316</v>
       </c>
       <c r="H13">
-        <v>2.957064027343677</v>
+        <v>2.95706402734362</v>
       </c>
       <c r="I13">
-        <v>0.3328913687893476</v>
+        <v>0.3328913687893618</v>
       </c>
       <c r="J13">
-        <v>41.02442459528964</v>
+        <v>41.02442459528936</v>
       </c>
       <c r="K13">
-        <v>0.3056995146901542</v>
+        <v>0.30569951469014</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,28 +874,28 @@
         <v>0.1331423608928048</v>
       </c>
       <c r="D14">
-        <v>0.1429144835284859</v>
+        <v>0.1429144835283083</v>
       </c>
       <c r="E14">
-        <v>0.4955736220994993</v>
+        <v>0.4955736220994638</v>
       </c>
       <c r="F14">
-        <v>3.766476678143135</v>
+        <v>3.766476678143121</v>
       </c>
       <c r="G14">
-        <v>2.847943819486289</v>
+        <v>2.847943819486261</v>
       </c>
       <c r="H14">
-        <v>2.833034619285129</v>
+        <v>2.833034619285115</v>
       </c>
       <c r="I14">
-        <v>0.3228913032616916</v>
+        <v>0.3228913032616845</v>
       </c>
       <c r="J14">
-        <v>40.0691833822475</v>
+        <v>40.06918338224745</v>
       </c>
       <c r="K14">
-        <v>0.297259366334103</v>
+        <v>0.2972593663340888</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1308352331232498</v>
+        <v>0.1308352331232214</v>
       </c>
       <c r="D15">
-        <v>0.1389608915792024</v>
+        <v>0.1389608915792238</v>
       </c>
       <c r="E15">
-        <v>0.4878716930811393</v>
+        <v>0.4878716930811464</v>
       </c>
       <c r="F15">
-        <v>3.670737360889746</v>
+        <v>3.670737360889802</v>
       </c>
       <c r="G15">
-        <v>2.770539627052813</v>
+        <v>2.770539627052855</v>
       </c>
       <c r="H15">
-        <v>2.759796557394878</v>
+        <v>2.759796557394921</v>
       </c>
       <c r="I15">
-        <v>0.3169234086946702</v>
+        <v>0.316923408694656</v>
       </c>
       <c r="J15">
-        <v>39.49304100401662</v>
+        <v>39.49304100401667</v>
       </c>
       <c r="K15">
-        <v>0.2922060321357449</v>
+        <v>0.2922060321357307</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1183523652169924</v>
+        <v>0.1183523652170777</v>
       </c>
       <c r="D16">
-        <v>0.1183462054669562</v>
+        <v>0.1183462054670343</v>
       </c>
       <c r="E16">
-        <v>0.4456692522736176</v>
+        <v>0.445669252273639</v>
       </c>
       <c r="F16">
-        <v>3.168149048078305</v>
+        <v>3.168149048078362</v>
       </c>
       <c r="G16">
-        <v>2.36599061106881</v>
+        <v>2.365990611068852</v>
       </c>
       <c r="H16">
-        <v>2.375754712907153</v>
+        <v>2.375754712907195</v>
       </c>
       <c r="I16">
-        <v>0.2847782215485282</v>
+        <v>0.2847782215484997</v>
       </c>
       <c r="J16">
-        <v>36.30907017860386</v>
+        <v>36.30907017860397</v>
       </c>
       <c r="K16">
-        <v>0.2647700637853063</v>
+        <v>0.2647700637852992</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1112370555241711</v>
+        <v>0.1112370555242421</v>
       </c>
       <c r="D17">
-        <v>0.1071952973613861</v>
+        <v>0.1071952973613151</v>
       </c>
       <c r="E17">
-        <v>0.4212149049784486</v>
+        <v>0.4212149049784699</v>
       </c>
       <c r="F17">
         <v>2.893852530659444</v>
       </c>
       <c r="G17">
-        <v>2.146618713026896</v>
+        <v>2.146618713026868</v>
       </c>
       <c r="H17">
-        <v>2.166491366615347</v>
+        <v>2.166491366615361</v>
       </c>
       <c r="I17">
-        <v>0.2665759818908455</v>
+        <v>0.2665759818908597</v>
       </c>
       <c r="J17">
         <v>34.44318137291071</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1073064516712634</v>
+        <v>0.1073064516712918</v>
       </c>
       <c r="D18">
-        <v>0.1012266790060465</v>
+        <v>0.1012266790059542</v>
       </c>
       <c r="E18">
         <v>0.4075829374441184</v>
       </c>
       <c r="F18">
-        <v>2.746315067942433</v>
+        <v>2.74631506794249</v>
       </c>
       <c r="G18">
-        <v>2.02909491549174</v>
+        <v>2.029094915491768</v>
       </c>
       <c r="H18">
-        <v>2.054043795311046</v>
+        <v>2.054043795311074</v>
       </c>
       <c r="I18">
-        <v>0.2565627900093261</v>
+        <v>0.2565627900093475</v>
       </c>
       <c r="J18">
-        <v>33.39634481912276</v>
+        <v>33.39634481912287</v>
       </c>
       <c r="K18">
         <v>0.2403727899580304</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1060005096756953</v>
+        <v>0.1060005096756669</v>
       </c>
       <c r="D19">
         <v>0.09927414532904066</v>
       </c>
       <c r="E19">
-        <v>0.4030344734003251</v>
+        <v>0.4030344734002895</v>
       </c>
       <c r="F19">
-        <v>2.697941456482965</v>
+        <v>2.697941456482923</v>
       </c>
       <c r="G19">
-        <v>1.99063909794188</v>
+        <v>1.990639097941866</v>
       </c>
       <c r="H19">
-        <v>2.017193171847268</v>
+        <v>2.017193171847239</v>
       </c>
       <c r="I19">
-        <v>0.2532429392309723</v>
+        <v>0.2532429392309794</v>
       </c>
       <c r="J19">
-        <v>33.04598129902445</v>
+        <v>33.0459812990245</v>
       </c>
       <c r="K19">
-        <v>0.2374818864228345</v>
+        <v>0.2374818864228416</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.11197700518413</v>
+        <v>0.1119770051837889</v>
       </c>
       <c r="D20">
-        <v>0.1083342425200371</v>
+        <v>0.1083342425200158</v>
       </c>
       <c r="E20">
-        <v>0.4237714087134066</v>
+        <v>0.4237714087134137</v>
       </c>
       <c r="F20">
         <v>2.921948884109369</v>
       </c>
       <c r="G20">
-        <v>2.169038146048678</v>
+        <v>2.169038146048663</v>
       </c>
       <c r="H20">
-        <v>2.187914399726708</v>
+        <v>2.187914399726694</v>
       </c>
       <c r="I20">
-        <v>0.2684644473411453</v>
+        <v>0.2684644473411026</v>
       </c>
       <c r="J20">
-        <v>34.63896644868663</v>
+        <v>34.63896644868657</v>
       </c>
       <c r="K20">
-        <v>0.2507011041261507</v>
+        <v>0.2507011041261862</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1342637297923375</v>
+        <v>0.1342637297922522</v>
       </c>
       <c r="D21">
-        <v>0.1448520282037364</v>
+        <v>0.1448520282036299</v>
       </c>
       <c r="E21">
-        <v>0.4993060367885462</v>
+        <v>0.4993060367885533</v>
       </c>
       <c r="F21">
-        <v>3.813321296890351</v>
+        <v>3.81332129689045</v>
       </c>
       <c r="G21">
-        <v>2.885853950622945</v>
+        <v>2.885853950623044</v>
       </c>
       <c r="H21">
-        <v>2.868878311827302</v>
+        <v>2.868878311827388</v>
       </c>
       <c r="I21">
-        <v>0.3257947746859742</v>
+        <v>0.3257947746859671</v>
       </c>
       <c r="J21">
         <v>40.34783757081692</v>
       </c>
       <c r="K21">
-        <v>0.2997134453136852</v>
+        <v>0.2997134453137065</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1512719696885938</v>
+        <v>0.1512719696884233</v>
       </c>
       <c r="D22">
-        <v>0.1754920626021175</v>
+        <v>0.1754920626023164</v>
       </c>
       <c r="E22">
         <v>0.5550290750994478</v>
       </c>
       <c r="F22">
-        <v>4.547826506971063</v>
+        <v>4.547826506971091</v>
       </c>
       <c r="G22">
-        <v>3.483153379618585</v>
+        <v>3.483153379618614</v>
       </c>
       <c r="H22">
-        <v>3.431587645347349</v>
+        <v>3.431587645347378</v>
       </c>
       <c r="I22">
-        <v>0.3700398120026378</v>
+        <v>0.3700398120026449</v>
       </c>
       <c r="J22">
-        <v>44.46504986652343</v>
+        <v>44.46504986652349</v>
       </c>
       <c r="K22">
-        <v>0.3367611356823801</v>
+        <v>0.3367611356823943</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1419016679487015</v>
+        <v>0.1419016679488863</v>
       </c>
       <c r="D23">
-        <v>0.1583232821001914</v>
+        <v>0.1583232821002127</v>
       </c>
       <c r="E23">
-        <v>0.5245357498617196</v>
+        <v>0.5245357498617764</v>
       </c>
       <c r="F23">
-        <v>4.137689717045461</v>
+        <v>4.137689717045419</v>
       </c>
       <c r="G23">
-        <v>3.148987019007009</v>
+        <v>3.148987019006952</v>
       </c>
       <c r="H23">
-        <v>3.117223738452182</v>
+        <v>3.117223738452154</v>
       </c>
       <c r="I23">
-        <v>0.3456176646651485</v>
+        <v>0.3456176646651699</v>
       </c>
       <c r="J23">
-        <v>42.2220025032658</v>
+        <v>42.22200250326591</v>
       </c>
       <c r="K23">
-        <v>0.3163917517680233</v>
+        <v>0.316391751768009</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1116419839635938</v>
+        <v>0.1116419839636933</v>
       </c>
       <c r="D24">
-        <v>0.1078179722021559</v>
+        <v>0.1078179722020209</v>
       </c>
       <c r="E24">
         <v>0.4226143045744379</v>
       </c>
       <c r="F24">
-        <v>2.909215403516995</v>
+        <v>2.90921540351691</v>
       </c>
       <c r="G24">
-        <v>2.158875991665042</v>
+        <v>2.158875991664956</v>
       </c>
       <c r="H24">
-        <v>2.178204968772462</v>
+        <v>2.178204968772434</v>
       </c>
       <c r="I24">
-        <v>0.2676092891648807</v>
+        <v>0.2676092891648878</v>
       </c>
       <c r="J24">
-        <v>34.55037270760704</v>
+        <v>34.55037270760658</v>
       </c>
       <c r="K24">
-        <v>0.2499608276662215</v>
+        <v>0.2499608276662002</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08512599324824066</v>
+        <v>0.08512599324811276</v>
       </c>
       <c r="D25">
-        <v>0.07019506096937889</v>
+        <v>0.07019506096938599</v>
       </c>
       <c r="E25">
-        <v>0.3290552562053719</v>
+        <v>0.329055256205379</v>
       </c>
       <c r="F25">
-        <v>1.971277072707878</v>
+        <v>1.971277072707892</v>
       </c>
       <c r="G25">
         <v>1.418393118568346</v>
       </c>
       <c r="H25">
-        <v>1.464877892967522</v>
+        <v>1.464877892967507</v>
       </c>
       <c r="I25">
-        <v>0.200724570606944</v>
+        <v>0.2007245706069547</v>
       </c>
       <c r="J25">
-        <v>27.27024793415688</v>
+        <v>27.27024793415683</v>
       </c>
       <c r="K25">
-        <v>0.19113842484877</v>
+        <v>0.1911384248487664</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06824668265540623</v>
+        <v>0.0682466826554915</v>
       </c>
       <c r="D2">
-        <v>0.04976262579201673</v>
+        <v>0.04976262579201318</v>
       </c>
       <c r="E2">
-        <v>0.2675693846652436</v>
+        <v>0.2675693846652223</v>
       </c>
       <c r="F2">
-        <v>1.454795101447544</v>
+        <v>1.454795101447559</v>
       </c>
       <c r="G2">
         <v>1.020003977142537</v>
       </c>
       <c r="H2">
-        <v>1.074205792433062</v>
+        <v>1.074205792433077</v>
       </c>
       <c r="I2">
-        <v>0.1591990051810726</v>
+        <v>0.1591990051810548</v>
       </c>
       <c r="J2">
-        <v>22.35284201423923</v>
+        <v>22.35284201423929</v>
       </c>
       <c r="K2">
-        <v>0.1535949688209435</v>
+        <v>0.1535949688209541</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -453,31 +453,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05775230649876306</v>
+        <v>0.05775230649873464</v>
       </c>
       <c r="D3">
-        <v>0.0385478201532905</v>
+        <v>0.03854782015314839</v>
       </c>
       <c r="E3">
-        <v>0.2286708861504252</v>
+        <v>0.2286708861504323</v>
       </c>
       <c r="F3">
-        <v>1.170758153067851</v>
+        <v>1.170758153067823</v>
       </c>
       <c r="G3">
-        <v>0.805518624370599</v>
+        <v>0.8055186243705919</v>
       </c>
       <c r="H3">
-        <v>0.8603805558074029</v>
+        <v>0.8603805558073816</v>
       </c>
       <c r="I3">
-        <v>0.1339490779876229</v>
+        <v>0.1339490779876336</v>
       </c>
       <c r="J3">
-        <v>19.18080610033337</v>
+        <v>19.1808061003332</v>
       </c>
       <c r="K3">
-        <v>0.1303132123753379</v>
+        <v>0.1303132123753272</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,31 +491,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05162336814694157</v>
+        <v>0.05162336814706947</v>
       </c>
       <c r="D4">
-        <v>0.03255768626200961</v>
+        <v>0.03255768626189948</v>
       </c>
       <c r="E4">
         <v>0.2057473871217042</v>
       </c>
       <c r="F4">
-        <v>1.019720711719074</v>
+        <v>1.01972071171906</v>
       </c>
       <c r="G4">
-        <v>0.6934444436459444</v>
+        <v>0.6934444436459302</v>
       </c>
       <c r="H4">
-        <v>0.7471111897823661</v>
+        <v>0.747111189782359</v>
       </c>
       <c r="I4">
-        <v>0.1194551156776917</v>
+        <v>0.1194551156776846</v>
       </c>
       <c r="J4">
-        <v>17.28667011250764</v>
+        <v>17.28667011250747</v>
       </c>
       <c r="K4">
-        <v>0.1167712584839187</v>
+        <v>0.1167712584839045</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -532,28 +532,28 @@
         <v>0.04918757802886375</v>
       </c>
       <c r="D5">
-        <v>0.0302961887484372</v>
+        <v>0.03029618874851181</v>
       </c>
       <c r="E5">
-        <v>0.1966000813706117</v>
+        <v>0.1966000813706259</v>
       </c>
       <c r="F5">
         <v>0.9629896460695022</v>
       </c>
       <c r="G5">
-        <v>0.6518158782740997</v>
+        <v>0.6518158782741139</v>
       </c>
       <c r="H5">
         <v>0.7046674517730764</v>
       </c>
       <c r="I5">
-        <v>0.1137544725681501</v>
+        <v>0.1137544725681394</v>
       </c>
       <c r="J5">
         <v>16.52525970409954</v>
       </c>
       <c r="K5">
-        <v>0.1114059379524015</v>
+        <v>0.1114059379524228</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04878641184085097</v>
+        <v>0.04878641184119914</v>
       </c>
       <c r="D6">
-        <v>0.0299303610531183</v>
+        <v>0.02993036105317159</v>
       </c>
       <c r="E6">
         <v>0.1950916996594287</v>
       </c>
       <c r="F6">
-        <v>0.9538336663748481</v>
+        <v>0.9538336663748623</v>
       </c>
       <c r="G6">
-        <v>0.6451250494004341</v>
+        <v>0.6451250494004412</v>
       </c>
       <c r="H6">
-        <v>0.6978233191694656</v>
+        <v>0.6978233191694585</v>
       </c>
       <c r="I6">
-        <v>0.1128190894843257</v>
+        <v>0.112819089484347</v>
       </c>
       <c r="J6">
         <v>16.39938380524165</v>
       </c>
       <c r="K6">
-        <v>0.110523355959927</v>
+        <v>0.1105233559599164</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -605,31 +605,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05159028821852729</v>
+        <v>0.0515902882186694</v>
       </c>
       <c r="D7">
-        <v>0.0325265131988921</v>
+        <v>0.03252651319872513</v>
       </c>
       <c r="E7">
-        <v>0.2056232927396806</v>
+        <v>0.2056232927396451</v>
       </c>
       <c r="F7">
-        <v>1.018937347145894</v>
+        <v>1.018937347145879</v>
       </c>
       <c r="G7">
-        <v>0.6928677013067173</v>
+        <v>0.6928677013067315</v>
       </c>
       <c r="H7">
-        <v>0.7465246957575005</v>
+        <v>0.7465246957574934</v>
       </c>
       <c r="I7">
         <v>0.1193774581317584</v>
       </c>
       <c r="J7">
-        <v>17.27636261385288</v>
+        <v>17.27636261385283</v>
       </c>
       <c r="K7">
-        <v>0.1166983224655418</v>
+        <v>0.1166983224655667</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -643,31 +643,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06455120776816159</v>
+        <v>0.06455120776832501</v>
       </c>
       <c r="D8">
-        <v>0.04567882378968591</v>
+        <v>0.04567882378991683</v>
       </c>
       <c r="E8">
-        <v>0.253926155740416</v>
+        <v>0.2539261557403805</v>
       </c>
       <c r="F8">
-        <v>1.351297836246616</v>
+        <v>1.351297836246658</v>
       </c>
       <c r="G8">
-        <v>0.9413759048134196</v>
+        <v>0.9413759048134338</v>
       </c>
       <c r="H8">
         <v>0.9961878953034784</v>
       </c>
       <c r="I8">
-        <v>0.1502509014968858</v>
+        <v>0.1502509014968716</v>
       </c>
       <c r="J8">
         <v>21.24601404659882</v>
       </c>
       <c r="K8">
-        <v>0.1453867406543274</v>
+        <v>0.1453867406543097</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -681,31 +681,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.093523924485865</v>
+        <v>0.09352392448567315</v>
       </c>
       <c r="D9">
-        <v>0.08140363487384406</v>
+        <v>0.08140363487382274</v>
       </c>
       <c r="E9">
         <v>0.3591021417468099</v>
       </c>
       <c r="F9">
-        <v>2.25272046085486</v>
+        <v>2.252720460854874</v>
       </c>
       <c r="G9">
         <v>1.638699881095718</v>
       </c>
       <c r="H9">
-        <v>1.678489826539419</v>
+        <v>1.678489826539405</v>
       </c>
       <c r="I9">
-        <v>0.2217198683336825</v>
+        <v>0.2217198683336861</v>
       </c>
       <c r="J9">
-        <v>29.63387536084571</v>
+        <v>29.63387536084565</v>
       </c>
       <c r="K9">
-        <v>0.209807518625496</v>
+        <v>0.2098075186255102</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1191886888653357</v>
+        <v>0.1191886888651368</v>
       </c>
       <c r="D10">
-        <v>0.1196858034183705</v>
+        <v>0.1196858034181716</v>
       </c>
       <c r="E10">
         <v>0.4485246378322216</v>
       </c>
       <c r="F10">
-        <v>3.200984661192052</v>
+        <v>3.200984661192038</v>
       </c>
       <c r="G10">
-        <v>2.392322647398004</v>
+        <v>2.392322647398018</v>
       </c>
       <c r="H10">
         <v>2.400822062880906</v>
       </c>
       <c r="I10">
-        <v>0.2869237586689195</v>
+        <v>0.2869237586689337</v>
       </c>
       <c r="J10">
-        <v>36.52593589823726</v>
+        <v>36.52593589823721</v>
       </c>
       <c r="K10">
-        <v>0.2666129486777535</v>
+        <v>0.2666129486777464</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,31 +757,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1326979221409914</v>
+        <v>0.1326979221408777</v>
       </c>
       <c r="D11">
-        <v>0.1421494413964126</v>
+        <v>0.1421494413965121</v>
       </c>
       <c r="E11">
-        <v>0.4940923276799865</v>
+        <v>0.4940923276799793</v>
       </c>
       <c r="F11">
-        <v>3.74796655615944</v>
+        <v>3.747966556159497</v>
       </c>
       <c r="G11">
-        <v>2.832970660961308</v>
+        <v>2.832970660961365</v>
       </c>
       <c r="H11">
-        <v>2.818872968327</v>
+        <v>2.818872968327057</v>
       </c>
       <c r="I11">
-        <v>0.3217410567289392</v>
+        <v>0.3217410567289463</v>
       </c>
       <c r="J11">
-        <v>39.95849369625711</v>
+        <v>39.95849369625739</v>
       </c>
       <c r="K11">
-        <v>0.2962863499331334</v>
+        <v>0.2962863499331192</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -795,31 +795,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1382092189041515</v>
+        <v>0.138209218904251</v>
       </c>
       <c r="D12">
-        <v>0.1517513942938606</v>
+        <v>0.1517513942935693</v>
       </c>
       <c r="E12">
-        <v>0.5123807864781185</v>
+        <v>0.5123807864781114</v>
       </c>
       <c r="F12">
-        <v>3.979736151182706</v>
+        <v>3.979736151182635</v>
       </c>
       <c r="G12">
-        <v>3.02071799442048</v>
+        <v>3.020717994420437</v>
       </c>
       <c r="H12">
-        <v>2.996257792364517</v>
+        <v>2.996257792364474</v>
       </c>
       <c r="I12">
-        <v>0.3360246472771777</v>
+        <v>0.3360246472771706</v>
       </c>
       <c r="J12">
-        <v>41.32113814550053</v>
+        <v>41.3211381455003</v>
       </c>
       <c r="K12">
-        <v>0.3083370387145621</v>
+        <v>0.308337038714555</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1370016532025033</v>
+        <v>0.1370016532025176</v>
       </c>
       <c r="D13">
-        <v>0.1496262137084656</v>
+        <v>0.1496262137085722</v>
       </c>
       <c r="E13">
-        <v>0.5083886234739339</v>
+        <v>0.5083886234739694</v>
       </c>
       <c r="F13">
-        <v>3.928541148697676</v>
+        <v>3.928541148697747</v>
       </c>
       <c r="G13">
-        <v>2.979198280399316</v>
+        <v>2.979198280399387</v>
       </c>
       <c r="H13">
-        <v>2.95706402734362</v>
+        <v>2.957064027343677</v>
       </c>
       <c r="I13">
-        <v>0.3328913687893618</v>
+        <v>0.3328913687893476</v>
       </c>
       <c r="J13">
-        <v>41.02442459528936</v>
+        <v>41.02442459528964</v>
       </c>
       <c r="K13">
-        <v>0.30569951469014</v>
+        <v>0.3056995146901542</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -874,28 +874,28 @@
         <v>0.1331423608928048</v>
       </c>
       <c r="D14">
-        <v>0.1429144835283083</v>
+        <v>0.1429144835284859</v>
       </c>
       <c r="E14">
-        <v>0.4955736220994638</v>
+        <v>0.4955736220994993</v>
       </c>
       <c r="F14">
-        <v>3.766476678143121</v>
+        <v>3.766476678143135</v>
       </c>
       <c r="G14">
-        <v>2.847943819486261</v>
+        <v>2.847943819486289</v>
       </c>
       <c r="H14">
-        <v>2.833034619285115</v>
+        <v>2.833034619285129</v>
       </c>
       <c r="I14">
-        <v>0.3228913032616845</v>
+        <v>0.3228913032616916</v>
       </c>
       <c r="J14">
-        <v>40.06918338224745</v>
+        <v>40.0691833822475</v>
       </c>
       <c r="K14">
-        <v>0.2972593663340888</v>
+        <v>0.297259366334103</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -909,31 +909,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1308352331232214</v>
+        <v>0.1308352331232498</v>
       </c>
       <c r="D15">
-        <v>0.1389608915792238</v>
+        <v>0.1389608915792024</v>
       </c>
       <c r="E15">
-        <v>0.4878716930811464</v>
+        <v>0.4878716930811393</v>
       </c>
       <c r="F15">
-        <v>3.670737360889802</v>
+        <v>3.670737360889746</v>
       </c>
       <c r="G15">
-        <v>2.770539627052855</v>
+        <v>2.770539627052813</v>
       </c>
       <c r="H15">
-        <v>2.759796557394921</v>
+        <v>2.759796557394878</v>
       </c>
       <c r="I15">
-        <v>0.316923408694656</v>
+        <v>0.3169234086946702</v>
       </c>
       <c r="J15">
-        <v>39.49304100401667</v>
+        <v>39.49304100401662</v>
       </c>
       <c r="K15">
-        <v>0.2922060321357307</v>
+        <v>0.2922060321357449</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1183523652170777</v>
+        <v>0.1183523652169924</v>
       </c>
       <c r="D16">
-        <v>0.1183462054670343</v>
+        <v>0.1183462054669562</v>
       </c>
       <c r="E16">
-        <v>0.445669252273639</v>
+        <v>0.4456692522736176</v>
       </c>
       <c r="F16">
-        <v>3.168149048078362</v>
+        <v>3.168149048078305</v>
       </c>
       <c r="G16">
-        <v>2.365990611068852</v>
+        <v>2.36599061106881</v>
       </c>
       <c r="H16">
-        <v>2.375754712907195</v>
+        <v>2.375754712907153</v>
       </c>
       <c r="I16">
-        <v>0.2847782215484997</v>
+        <v>0.2847782215485282</v>
       </c>
       <c r="J16">
-        <v>36.30907017860397</v>
+        <v>36.30907017860386</v>
       </c>
       <c r="K16">
-        <v>0.2647700637852992</v>
+        <v>0.2647700637853063</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1112370555242421</v>
+        <v>0.1112370555241711</v>
       </c>
       <c r="D17">
-        <v>0.1071952973613151</v>
+        <v>0.1071952973613861</v>
       </c>
       <c r="E17">
-        <v>0.4212149049784699</v>
+        <v>0.4212149049784486</v>
       </c>
       <c r="F17">
         <v>2.893852530659444</v>
       </c>
       <c r="G17">
-        <v>2.146618713026868</v>
+        <v>2.146618713026896</v>
       </c>
       <c r="H17">
-        <v>2.166491366615361</v>
+        <v>2.166491366615347</v>
       </c>
       <c r="I17">
-        <v>0.2665759818908597</v>
+        <v>0.2665759818908455</v>
       </c>
       <c r="J17">
         <v>34.44318137291071</v>
@@ -1023,28 +1023,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1073064516712918</v>
+        <v>0.1073064516712634</v>
       </c>
       <c r="D18">
-        <v>0.1012266790059542</v>
+        <v>0.1012266790060465</v>
       </c>
       <c r="E18">
         <v>0.4075829374441184</v>
       </c>
       <c r="F18">
-        <v>2.74631506794249</v>
+        <v>2.746315067942433</v>
       </c>
       <c r="G18">
-        <v>2.029094915491768</v>
+        <v>2.02909491549174</v>
       </c>
       <c r="H18">
-        <v>2.054043795311074</v>
+        <v>2.054043795311046</v>
       </c>
       <c r="I18">
-        <v>0.2565627900093475</v>
+        <v>0.2565627900093261</v>
       </c>
       <c r="J18">
-        <v>33.39634481912287</v>
+        <v>33.39634481912276</v>
       </c>
       <c r="K18">
         <v>0.2403727899580304</v>
@@ -1061,31 +1061,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1060005096756669</v>
+        <v>0.1060005096756953</v>
       </c>
       <c r="D19">
         <v>0.09927414532904066</v>
       </c>
       <c r="E19">
-        <v>0.4030344734002895</v>
+        <v>0.4030344734003251</v>
       </c>
       <c r="F19">
-        <v>2.697941456482923</v>
+        <v>2.697941456482965</v>
       </c>
       <c r="G19">
-        <v>1.990639097941866</v>
+        <v>1.99063909794188</v>
       </c>
       <c r="H19">
-        <v>2.017193171847239</v>
+        <v>2.017193171847268</v>
       </c>
       <c r="I19">
-        <v>0.2532429392309794</v>
+        <v>0.2532429392309723</v>
       </c>
       <c r="J19">
-        <v>33.0459812990245</v>
+        <v>33.04598129902445</v>
       </c>
       <c r="K19">
-        <v>0.2374818864228416</v>
+        <v>0.2374818864228345</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1099,31 +1099,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1119770051837889</v>
+        <v>0.11197700518413</v>
       </c>
       <c r="D20">
-        <v>0.1083342425200158</v>
+        <v>0.1083342425200371</v>
       </c>
       <c r="E20">
-        <v>0.4237714087134137</v>
+        <v>0.4237714087134066</v>
       </c>
       <c r="F20">
         <v>2.921948884109369</v>
       </c>
       <c r="G20">
-        <v>2.169038146048663</v>
+        <v>2.169038146048678</v>
       </c>
       <c r="H20">
-        <v>2.187914399726694</v>
+        <v>2.187914399726708</v>
       </c>
       <c r="I20">
-        <v>0.2684644473411026</v>
+        <v>0.2684644473411453</v>
       </c>
       <c r="J20">
-        <v>34.63896644868657</v>
+        <v>34.63896644868663</v>
       </c>
       <c r="K20">
-        <v>0.2507011041261862</v>
+        <v>0.2507011041261507</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1137,31 +1137,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1342637297922522</v>
+        <v>0.1342637297923375</v>
       </c>
       <c r="D21">
-        <v>0.1448520282036299</v>
+        <v>0.1448520282037364</v>
       </c>
       <c r="E21">
-        <v>0.4993060367885533</v>
+        <v>0.4993060367885462</v>
       </c>
       <c r="F21">
-        <v>3.81332129689045</v>
+        <v>3.813321296890351</v>
       </c>
       <c r="G21">
-        <v>2.885853950623044</v>
+        <v>2.885853950622945</v>
       </c>
       <c r="H21">
-        <v>2.868878311827388</v>
+        <v>2.868878311827302</v>
       </c>
       <c r="I21">
-        <v>0.3257947746859671</v>
+        <v>0.3257947746859742</v>
       </c>
       <c r="J21">
         <v>40.34783757081692</v>
       </c>
       <c r="K21">
-        <v>0.2997134453137065</v>
+        <v>0.2997134453136852</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1175,31 +1175,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1512719696884233</v>
+        <v>0.1512719696885938</v>
       </c>
       <c r="D22">
-        <v>0.1754920626023164</v>
+        <v>0.1754920626021175</v>
       </c>
       <c r="E22">
         <v>0.5550290750994478</v>
       </c>
       <c r="F22">
-        <v>4.547826506971091</v>
+        <v>4.547826506971063</v>
       </c>
       <c r="G22">
-        <v>3.483153379618614</v>
+        <v>3.483153379618585</v>
       </c>
       <c r="H22">
-        <v>3.431587645347378</v>
+        <v>3.431587645347349</v>
       </c>
       <c r="I22">
-        <v>0.3700398120026449</v>
+        <v>0.3700398120026378</v>
       </c>
       <c r="J22">
-        <v>44.46504986652349</v>
+        <v>44.46504986652343</v>
       </c>
       <c r="K22">
-        <v>0.3367611356823943</v>
+        <v>0.3367611356823801</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1213,31 +1213,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1419016679488863</v>
+        <v>0.1419016679487015</v>
       </c>
       <c r="D23">
-        <v>0.1583232821002127</v>
+        <v>0.1583232821001914</v>
       </c>
       <c r="E23">
-        <v>0.5245357498617764</v>
+        <v>0.5245357498617196</v>
       </c>
       <c r="F23">
-        <v>4.137689717045419</v>
+        <v>4.137689717045461</v>
       </c>
       <c r="G23">
-        <v>3.148987019006952</v>
+        <v>3.148987019007009</v>
       </c>
       <c r="H23">
-        <v>3.117223738452154</v>
+        <v>3.117223738452182</v>
       </c>
       <c r="I23">
-        <v>0.3456176646651699</v>
+        <v>0.3456176646651485</v>
       </c>
       <c r="J23">
-        <v>42.22200250326591</v>
+        <v>42.2220025032658</v>
       </c>
       <c r="K23">
-        <v>0.316391751768009</v>
+        <v>0.3163917517680233</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1116419839636933</v>
+        <v>0.1116419839635938</v>
       </c>
       <c r="D24">
-        <v>0.1078179722020209</v>
+        <v>0.1078179722021559</v>
       </c>
       <c r="E24">
         <v>0.4226143045744379</v>
       </c>
       <c r="F24">
-        <v>2.90921540351691</v>
+        <v>2.909215403516995</v>
       </c>
       <c r="G24">
-        <v>2.158875991664956</v>
+        <v>2.158875991665042</v>
       </c>
       <c r="H24">
-        <v>2.178204968772434</v>
+        <v>2.178204968772462</v>
       </c>
       <c r="I24">
-        <v>0.2676092891648878</v>
+        <v>0.2676092891648807</v>
       </c>
       <c r="J24">
-        <v>34.55037270760658</v>
+        <v>34.55037270760704</v>
       </c>
       <c r="K24">
-        <v>0.2499608276662002</v>
+        <v>0.2499608276662215</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1289,31 +1289,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08512599324811276</v>
+        <v>0.08512599324824066</v>
       </c>
       <c r="D25">
-        <v>0.07019506096938599</v>
+        <v>0.07019506096937889</v>
       </c>
       <c r="E25">
-        <v>0.329055256205379</v>
+        <v>0.3290552562053719</v>
       </c>
       <c r="F25">
-        <v>1.971277072707892</v>
+        <v>1.971277072707878</v>
       </c>
       <c r="G25">
         <v>1.418393118568346</v>
       </c>
       <c r="H25">
-        <v>1.464877892967507</v>
+        <v>1.464877892967522</v>
       </c>
       <c r="I25">
-        <v>0.2007245706069547</v>
+        <v>0.200724570606944</v>
       </c>
       <c r="J25">
-        <v>27.27024793415683</v>
+        <v>27.27024793415688</v>
       </c>
       <c r="K25">
-        <v>0.1911384248487664</v>
+        <v>0.19113842484877</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0682466826554915</v>
+        <v>0.06830439992311454</v>
       </c>
       <c r="D2">
-        <v>0.04976262579201318</v>
+        <v>0.04979109668759207</v>
       </c>
       <c r="E2">
-        <v>0.2675693846652223</v>
+        <v>0.2675885801219664</v>
       </c>
       <c r="F2">
-        <v>1.454795101447559</v>
+        <v>1.452717801592385</v>
       </c>
       <c r="G2">
-        <v>1.020003977142537</v>
+        <v>0.3646604031219454</v>
       </c>
       <c r="H2">
-        <v>1.074205792433077</v>
+        <v>0.657074572280365</v>
       </c>
       <c r="I2">
-        <v>0.1591990051810548</v>
+        <v>1.072606722268461</v>
       </c>
       <c r="J2">
-        <v>22.35284201423929</v>
+        <v>0.1591406570749854</v>
       </c>
       <c r="K2">
-        <v>0.1535949688209541</v>
+        <v>22.3512515428252</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.1535709954046816</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05775230649873464</v>
+        <v>0.05780810428193917</v>
       </c>
       <c r="D3">
-        <v>0.03854782015314839</v>
+        <v>0.03858654519295612</v>
       </c>
       <c r="E3">
-        <v>0.2286708861504323</v>
+        <v>0.2286931998514277</v>
       </c>
       <c r="F3">
-        <v>1.170758153067823</v>
+        <v>1.169134839714971</v>
       </c>
       <c r="G3">
-        <v>0.8055186243705919</v>
+        <v>0.2859199662084535</v>
       </c>
       <c r="H3">
-        <v>0.8603805558073816</v>
+        <v>0.5219690548693308</v>
       </c>
       <c r="I3">
-        <v>0.1339490779876336</v>
+        <v>0.8591334746748416</v>
       </c>
       <c r="J3">
-        <v>19.1808061003332</v>
+        <v>0.1339043785023115</v>
       </c>
       <c r="K3">
-        <v>0.1303132123753272</v>
+        <v>19.17977118782159</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1302966020904464</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05162336814706947</v>
+        <v>0.05167707188875426</v>
       </c>
       <c r="D4">
-        <v>0.03255768626189948</v>
+        <v>0.03260004691410145</v>
       </c>
       <c r="E4">
-        <v>0.2057473871217042</v>
+        <v>0.2057705327510675</v>
       </c>
       <c r="F4">
-        <v>1.01972071171906</v>
+        <v>1.018330646562774</v>
       </c>
       <c r="G4">
-        <v>0.6934444436459302</v>
+        <v>0.2441257248689652</v>
       </c>
       <c r="H4">
-        <v>0.747111189782359</v>
+        <v>0.452025901554741</v>
       </c>
       <c r="I4">
-        <v>0.1194551156776846</v>
+        <v>0.7460447508984416</v>
       </c>
       <c r="J4">
-        <v>17.28667011250747</v>
+        <v>0.1194173695598728</v>
       </c>
       <c r="K4">
-        <v>0.1167712584839045</v>
+        <v>17.28590303072042</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.1167582212671512</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04918757802886375</v>
+        <v>0.04924024751770872</v>
       </c>
       <c r="D5">
-        <v>0.03029618874851181</v>
+        <v>0.03033950633658833</v>
       </c>
       <c r="E5">
-        <v>0.1966000813706259</v>
+        <v>0.1966233650607379</v>
       </c>
       <c r="F5">
-        <v>0.9629896460695022</v>
+        <v>0.9616857919426423</v>
       </c>
       <c r="G5">
-        <v>0.6518158782741139</v>
+        <v>0.2284392930252963</v>
       </c>
       <c r="H5">
-        <v>0.7046674517730764</v>
+        <v>0.4262100267062863</v>
       </c>
       <c r="I5">
-        <v>0.1137544725681394</v>
+        <v>0.703667731429789</v>
       </c>
       <c r="J5">
-        <v>16.52525970409954</v>
+        <v>0.1137192910499287</v>
       </c>
       <c r="K5">
-        <v>0.1114059379524228</v>
+        <v>16.52458791137002</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.1113941796259255</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04878641184119914</v>
+        <v>0.0488388998620195</v>
       </c>
       <c r="D6">
-        <v>0.02993036105317159</v>
+        <v>0.02997380935906335</v>
       </c>
       <c r="E6">
-        <v>0.1950916996594287</v>
+        <v>0.1951149958198073</v>
       </c>
       <c r="F6">
-        <v>0.9538336663748623</v>
+        <v>0.9525436563819198</v>
       </c>
       <c r="G6">
-        <v>0.6451250494004412</v>
+        <v>0.2259081342906128</v>
       </c>
       <c r="H6">
-        <v>0.6978233191694585</v>
+        <v>0.4220707328446025</v>
       </c>
       <c r="I6">
-        <v>0.112819089484347</v>
+        <v>0.696834309854296</v>
       </c>
       <c r="J6">
-        <v>16.39938380524165</v>
+        <v>0.1127843197077247</v>
       </c>
       <c r="K6">
-        <v>0.1105233559599164</v>
+        <v>16.39872710751854</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.1105118007410049</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0515902882186694</v>
+        <v>0.05164397868891513</v>
       </c>
       <c r="D7">
-        <v>0.03252651319872513</v>
+        <v>0.0325688887179183</v>
       </c>
       <c r="E7">
-        <v>0.2056232927396451</v>
+        <v>0.2056464409661416</v>
       </c>
       <c r="F7">
-        <v>1.018937347145879</v>
+        <v>1.017548477535215</v>
       </c>
       <c r="G7">
-        <v>0.6928677013067315</v>
+        <v>0.2439090804628563</v>
       </c>
       <c r="H7">
-        <v>0.7465246957574934</v>
+        <v>0.4516675474064229</v>
       </c>
       <c r="I7">
-        <v>0.1193774581317584</v>
+        <v>0.7454591823063765</v>
       </c>
       <c r="J7">
-        <v>17.27636261385283</v>
+        <v>0.1193397475904945</v>
       </c>
       <c r="K7">
-        <v>0.1166983224655667</v>
+        <v>17.27559686818222</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1166853031461024</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06455120776832501</v>
+        <v>0.06460848760829663</v>
       </c>
       <c r="D8">
-        <v>0.04567882378991683</v>
+        <v>0.04571148327425334</v>
       </c>
       <c r="E8">
-        <v>0.2539261557403805</v>
+        <v>0.2539467018530814</v>
       </c>
       <c r="F8">
-        <v>1.351297836246658</v>
+        <v>1.349388339727028</v>
       </c>
       <c r="G8">
-        <v>0.9413759048134338</v>
+        <v>0.3359465359192839</v>
       </c>
       <c r="H8">
-        <v>0.9961878953034784</v>
+        <v>0.6073945305022761</v>
       </c>
       <c r="I8">
-        <v>0.1502509014968716</v>
+        <v>0.9947189765367597</v>
       </c>
       <c r="J8">
-        <v>21.24601404659882</v>
+        <v>0.1501976192784404</v>
       </c>
       <c r="K8">
-        <v>0.1453867406543097</v>
+        <v>21.2446335755663</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.1453655462761141</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09352392448567315</v>
+        <v>0.09357765382772243</v>
       </c>
       <c r="D9">
-        <v>0.08140363487382274</v>
+        <v>0.08138638973182566</v>
       </c>
       <c r="E9">
-        <v>0.3591021417468099</v>
+        <v>0.3591039031695757</v>
       </c>
       <c r="F9">
-        <v>2.252720460854874</v>
+        <v>2.249250977025426</v>
       </c>
       <c r="G9">
-        <v>1.638699881095718</v>
+        <v>0.5868604361642724</v>
       </c>
       <c r="H9">
-        <v>1.678489826539405</v>
+        <v>1.051700920760538</v>
       </c>
       <c r="I9">
-        <v>0.2217198683336861</v>
+        <v>1.675809668078088</v>
       </c>
       <c r="J9">
-        <v>29.63387536084565</v>
+        <v>0.2216183962080791</v>
       </c>
       <c r="K9">
-        <v>0.2098075186255102</v>
+        <v>29.63038791455205</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.2097584266782455</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1191886888651368</v>
+        <v>0.1192253156266219</v>
       </c>
       <c r="D10">
-        <v>0.1196858034181716</v>
+        <v>0.1195895217919301</v>
       </c>
       <c r="E10">
-        <v>0.4485246378322216</v>
+        <v>0.4484910782769234</v>
       </c>
       <c r="F10">
-        <v>3.200984661192038</v>
+        <v>3.195602424982198</v>
       </c>
       <c r="G10">
-        <v>2.392322647398018</v>
+        <v>0.8525517692944646</v>
       </c>
       <c r="H10">
-        <v>2.400822062880906</v>
+        <v>1.537214470323477</v>
       </c>
       <c r="I10">
-        <v>0.2869237586689337</v>
+        <v>2.396654803112455</v>
       </c>
       <c r="J10">
-        <v>36.52593589823721</v>
+        <v>0.2867599667034355</v>
       </c>
       <c r="K10">
-        <v>0.2666129486777464</v>
+        <v>36.51954184797563</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.266524946871634</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1326979221408777</v>
+        <v>0.1327196868863041</v>
       </c>
       <c r="D11">
-        <v>0.1421494413965121</v>
+        <v>0.1419964522420685</v>
       </c>
       <c r="E11">
-        <v>0.4940923276799793</v>
+        <v>0.494031086303238</v>
       </c>
       <c r="F11">
-        <v>3.747966556159497</v>
+        <v>3.741328804919377</v>
       </c>
       <c r="G11">
-        <v>2.832970660961365</v>
+        <v>1.006460793438521</v>
       </c>
       <c r="H11">
-        <v>2.818872968327057</v>
+        <v>1.822435095526387</v>
       </c>
       <c r="I11">
-        <v>0.3217410567289463</v>
+        <v>2.813729120556417</v>
       </c>
       <c r="J11">
-        <v>39.95849369625739</v>
+        <v>0.3215346791888365</v>
       </c>
       <c r="K11">
-        <v>0.2962863499331192</v>
+        <v>39.950066558066</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2961707920047232</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.138209218904251</v>
+        <v>0.1382236302042372</v>
       </c>
       <c r="D12">
-        <v>0.1517513942935693</v>
+        <v>0.1515718666339865</v>
       </c>
       <c r="E12">
-        <v>0.5123807864781114</v>
+        <v>0.512306078011548</v>
       </c>
       <c r="F12">
-        <v>3.979736151182635</v>
+        <v>3.972527556011983</v>
       </c>
       <c r="G12">
-        <v>3.020717994420437</v>
+        <v>1.071799690515107</v>
       </c>
       <c r="H12">
-        <v>2.996257792364474</v>
+        <v>1.944167916981513</v>
       </c>
       <c r="I12">
-        <v>0.3360246472771706</v>
+        <v>2.990669855579952</v>
       </c>
       <c r="J12">
-        <v>41.3211381455003</v>
+        <v>0.3357985207132188</v>
       </c>
       <c r="K12">
-        <v>0.308337038714555</v>
+        <v>41.31176149135979</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.308208522619779</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1370016532025176</v>
+        <v>0.137017743018248</v>
       </c>
       <c r="D13">
-        <v>0.1496262137085722</v>
+        <v>0.1494526800938019</v>
       </c>
       <c r="E13">
-        <v>0.5083886234739694</v>
+        <v>0.5083169826502214</v>
       </c>
       <c r="F13">
-        <v>3.928541148697747</v>
+        <v>3.921460769788823</v>
       </c>
       <c r="G13">
-        <v>2.979198280399387</v>
+        <v>1.057361170994042</v>
       </c>
       <c r="H13">
-        <v>2.957064027343677</v>
+        <v>1.917237730229999</v>
       </c>
       <c r="I13">
-        <v>0.3328913687893476</v>
+        <v>2.951575839287955</v>
       </c>
       <c r="J13">
-        <v>41.02442459528964</v>
+        <v>0.332669697880533</v>
       </c>
       <c r="K13">
-        <v>0.3056995146901542</v>
+        <v>41.01526244066355</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.3055739306057035</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1331423608928048</v>
+        <v>0.1331635614733813</v>
       </c>
       <c r="D14">
-        <v>0.1429144835284859</v>
+        <v>0.1427594308758771</v>
       </c>
       <c r="E14">
-        <v>0.4955736220994993</v>
+        <v>0.4955113444520975</v>
       </c>
       <c r="F14">
-        <v>3.766476678143135</v>
+        <v>3.759794230294688</v>
       </c>
       <c r="G14">
-        <v>2.847943819486289</v>
+        <v>1.011676455288452</v>
       </c>
       <c r="H14">
-        <v>2.833034619285129</v>
+        <v>1.832139379596271</v>
       </c>
       <c r="I14">
-        <v>0.3228913032616916</v>
+        <v>2.827856000886911</v>
       </c>
       <c r="J14">
-        <v>40.0691833822475</v>
+        <v>0.3226833877299171</v>
       </c>
       <c r="K14">
-        <v>0.297259366334103</v>
+        <v>40.06068241969768</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2971428028673699</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1308352331232498</v>
+        <v>0.1308593085299776</v>
       </c>
       <c r="D15">
-        <v>0.1389608915792024</v>
+        <v>0.1388164083346624</v>
       </c>
       <c r="E15">
-        <v>0.4878716930811393</v>
+        <v>0.487814703159799</v>
       </c>
       <c r="F15">
-        <v>3.670737360889746</v>
+        <v>3.664284469318019</v>
       </c>
       <c r="G15">
-        <v>2.770539627052813</v>
+        <v>0.9847046171534259</v>
       </c>
       <c r="H15">
-        <v>2.759796557394878</v>
+        <v>1.781980902100784</v>
       </c>
       <c r="I15">
-        <v>0.3169234086946702</v>
+        <v>2.754796514280443</v>
       </c>
       <c r="J15">
-        <v>39.49304100401662</v>
+        <v>0.3167233766618196</v>
       </c>
       <c r="K15">
-        <v>0.2922060321357449</v>
+        <v>39.48491820904718</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2920946160208615</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1183523652169924</v>
+        <v>0.1183897720443099</v>
       </c>
       <c r="D16">
-        <v>0.1183462054669562</v>
+        <v>0.1182530690586674</v>
       </c>
       <c r="E16">
-        <v>0.4456692522736176</v>
+        <v>0.4456371789629969</v>
       </c>
       <c r="F16">
-        <v>3.168149048078305</v>
+        <v>3.162838367954663</v>
       </c>
       <c r="G16">
-        <v>2.36599061106881</v>
+        <v>0.8433265024328449</v>
       </c>
       <c r="H16">
-        <v>2.375754712907153</v>
+        <v>1.520195708955967</v>
       </c>
       <c r="I16">
-        <v>0.2847782215485282</v>
+        <v>2.371643104360004</v>
       </c>
       <c r="J16">
-        <v>36.30907017860386</v>
+        <v>0.2846168191108944</v>
       </c>
       <c r="K16">
-        <v>0.2647700637853063</v>
+        <v>36.30278941601676</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.2646835894719786</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1112370555241711</v>
+        <v>0.1112804714828997</v>
       </c>
       <c r="D17">
-        <v>0.1071952973613861</v>
+        <v>0.1071273008570728</v>
       </c>
       <c r="E17">
-        <v>0.4212149049784486</v>
+        <v>0.4211944983611886</v>
       </c>
       <c r="F17">
-        <v>2.893852530659444</v>
+        <v>2.8891239181971</v>
       </c>
       <c r="G17">
-        <v>2.146618713026896</v>
+        <v>0.7663285248078608</v>
       </c>
       <c r="H17">
-        <v>2.166491366615347</v>
+        <v>1.378544200129127</v>
       </c>
       <c r="I17">
-        <v>0.2665759818908455</v>
+        <v>2.162832406304432</v>
       </c>
       <c r="J17">
-        <v>34.44318137291071</v>
+        <v>0.2664338561777271</v>
       </c>
       <c r="K17">
-        <v>0.2490659587249979</v>
+        <v>34.43781031913147</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.2489917184232979</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1073064516712634</v>
+        <v>0.1073527172521693</v>
       </c>
       <c r="D18">
-        <v>0.1012266790060465</v>
+        <v>0.1011713652236494</v>
       </c>
       <c r="E18">
-        <v>0.4075829374441184</v>
+        <v>0.4075682605527078</v>
       </c>
       <c r="F18">
-        <v>2.746315067942433</v>
+        <v>2.741888369509056</v>
       </c>
       <c r="G18">
-        <v>2.02909491549174</v>
+        <v>0.7249642889695593</v>
       </c>
       <c r="H18">
-        <v>2.054043795311046</v>
+        <v>1.302764180215107</v>
       </c>
       <c r="I18">
-        <v>0.2565627900093261</v>
+        <v>2.050619585135081</v>
       </c>
       <c r="J18">
-        <v>33.39634481912276</v>
+        <v>0.2564305464636334</v>
       </c>
       <c r="K18">
-        <v>0.2403727899580304</v>
+        <v>33.39143670207784</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.2403047532833256</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1060005096756953</v>
+        <v>0.1060476497638376</v>
       </c>
       <c r="D19">
-        <v>0.09927414532904066</v>
+        <v>0.09922286122171897</v>
       </c>
       <c r="E19">
-        <v>0.4030344734003251</v>
+        <v>0.4030215930045955</v>
       </c>
       <c r="F19">
-        <v>2.697941456482965</v>
+        <v>2.693612110393104</v>
       </c>
       <c r="G19">
-        <v>1.99063909794188</v>
+        <v>0.7114101707029192</v>
       </c>
       <c r="H19">
-        <v>2.017193171847268</v>
+        <v>1.277985611327921</v>
       </c>
       <c r="I19">
-        <v>0.2532429392309723</v>
+        <v>2.013844650960522</v>
       </c>
       <c r="J19">
-        <v>33.04598129902445</v>
+        <v>0.2531138646488102</v>
       </c>
       <c r="K19">
-        <v>0.2374818864228345</v>
+        <v>33.04122105182978</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.2374158281267</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.11197700518413</v>
+        <v>0.1120198477597114</v>
       </c>
       <c r="D20">
-        <v>0.1083342425200371</v>
+        <v>0.1082637640658461</v>
       </c>
       <c r="E20">
-        <v>0.4237714087134066</v>
+        <v>0.4237498679907574</v>
       </c>
       <c r="F20">
-        <v>2.921948884109369</v>
+        <v>2.917161908767469</v>
       </c>
       <c r="G20">
-        <v>2.169038146048678</v>
+        <v>0.7742098801963664</v>
       </c>
       <c r="H20">
-        <v>2.187914399726708</v>
+        <v>1.393009301323488</v>
       </c>
       <c r="I20">
-        <v>0.2684644473411453</v>
+        <v>2.184210056955237</v>
       </c>
       <c r="J20">
-        <v>34.63896644868663</v>
+        <v>0.2683204019646581</v>
       </c>
       <c r="K20">
-        <v>0.2507011041261507</v>
+        <v>34.63350517301387</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.2506256530531914</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1342637297923375</v>
+        <v>0.1342834847140324</v>
       </c>
       <c r="D21">
-        <v>0.1448520282037364</v>
+        <v>0.1446917102236185</v>
       </c>
       <c r="E21">
-        <v>0.4993060367885462</v>
+        <v>0.4992411064584985</v>
       </c>
       <c r="F21">
-        <v>3.813321296890351</v>
+        <v>3.806525050478214</v>
       </c>
       <c r="G21">
-        <v>2.885853950622945</v>
+        <v>1.024878059291169</v>
       </c>
       <c r="H21">
-        <v>2.868878311827302</v>
+        <v>1.856712670361588</v>
       </c>
       <c r="I21">
-        <v>0.3257947746859742</v>
+        <v>2.863611165675337</v>
       </c>
       <c r="J21">
-        <v>40.34783757081692</v>
+        <v>0.3255829369075869</v>
       </c>
       <c r="K21">
-        <v>0.2997134453136852</v>
+        <v>40.3391482396683</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2995943146287914</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1512719696885938</v>
+        <v>0.1512656552443019</v>
       </c>
       <c r="D22">
-        <v>0.1754920626021175</v>
+        <v>0.1752407869004102</v>
       </c>
       <c r="E22">
-        <v>0.5550290750994478</v>
+        <v>0.5549165835502663</v>
       </c>
       <c r="F22">
-        <v>4.547826506971063</v>
+        <v>4.53910786734636</v>
       </c>
       <c r="G22">
-        <v>3.483153379618585</v>
+        <v>1.232231522043151</v>
       </c>
       <c r="H22">
-        <v>3.431587645347349</v>
+        <v>2.244422599384933</v>
       </c>
       <c r="I22">
-        <v>0.3700398120026378</v>
+        <v>3.424824850033616</v>
       </c>
       <c r="J22">
-        <v>44.46504986652343</v>
+        <v>0.3697604009004749</v>
       </c>
       <c r="K22">
-        <v>0.3367611356823801</v>
+        <v>44.45309918291127</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.3365972330028555</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1419016679487015</v>
+        <v>0.1419107054179563</v>
       </c>
       <c r="D23">
-        <v>0.1583232821001914</v>
+        <v>0.1581247803233836</v>
       </c>
       <c r="E23">
-        <v>0.5245357498617196</v>
+        <v>0.5244512357738458</v>
       </c>
       <c r="F23">
-        <v>4.137689717045461</v>
+        <v>4.130077659686989</v>
       </c>
       <c r="G23">
-        <v>3.148987019007009</v>
+        <v>1.116368006536021</v>
       </c>
       <c r="H23">
-        <v>3.117223738452182</v>
+        <v>2.027396129160067</v>
       </c>
       <c r="I23">
-        <v>0.3456176646651485</v>
+        <v>3.111321910488229</v>
       </c>
       <c r="J23">
-        <v>42.2220025032658</v>
+        <v>0.3453774446717617</v>
       </c>
       <c r="K23">
-        <v>0.3163917517680233</v>
+        <v>42.21194647978581</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.3162539316840167</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1116419839635938</v>
+        <v>0.1116850876071283</v>
       </c>
       <c r="D24">
-        <v>0.1078179722021559</v>
+        <v>0.1077486212248715</v>
       </c>
       <c r="E24">
-        <v>0.4226143045744379</v>
+        <v>0.4225932795466747</v>
       </c>
       <c r="F24">
-        <v>2.909215403516995</v>
+        <v>2.904454913524532</v>
       </c>
       <c r="G24">
-        <v>2.158875991665042</v>
+        <v>0.7706378283363193</v>
       </c>
       <c r="H24">
-        <v>2.178204968772462</v>
+        <v>1.386452300406759</v>
       </c>
       <c r="I24">
-        <v>0.2676092891648807</v>
+        <v>2.174521220889105</v>
       </c>
       <c r="J24">
-        <v>34.55037270760704</v>
+        <v>0.267466115311656</v>
       </c>
       <c r="K24">
-        <v>0.2499608276662215</v>
+        <v>34.54495240365725</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.249885926501122</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,33 +1361,36 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08512599324824066</v>
+        <v>0.08518241119707426</v>
       </c>
       <c r="D25">
-        <v>0.07019506096937889</v>
+        <v>0.0701963609929912</v>
       </c>
       <c r="E25">
-        <v>0.3290552562053719</v>
+        <v>0.3290644999529775</v>
       </c>
       <c r="F25">
-        <v>1.971277072707878</v>
+        <v>1.96831936351694</v>
       </c>
       <c r="G25">
-        <v>1.418393118568346</v>
+        <v>0.5083270272003091</v>
       </c>
       <c r="H25">
-        <v>1.464877892967522</v>
+        <v>0.9106016148440688</v>
       </c>
       <c r="I25">
-        <v>0.200724570606944</v>
+        <v>1.462595346931309</v>
       </c>
       <c r="J25">
-        <v>27.27024793415688</v>
+        <v>0.2006391818022486</v>
       </c>
       <c r="K25">
-        <v>0.19113842484877</v>
+        <v>27.26748524898892</v>
       </c>
       <c r="L25">
+        <v>0.1910989468731898</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.06830439992311454</v>
+        <v>0.07424616093790348</v>
       </c>
       <c r="D2">
-        <v>0.04979109668759207</v>
+        <v>0.2445146580536601</v>
       </c>
       <c r="E2">
-        <v>0.2675885801219664</v>
+        <v>0.02321713543485515</v>
       </c>
       <c r="F2">
-        <v>1.452717801592385</v>
+        <v>8.110768294931631</v>
       </c>
       <c r="G2">
-        <v>0.3646604031219454</v>
+        <v>0.0007999914350164043</v>
       </c>
       <c r="H2">
-        <v>0.657074572280365</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.072606722268461</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1591406570749854</v>
+        <v>0.08045452790287655</v>
       </c>
       <c r="K2">
-        <v>22.3512515428252</v>
+        <v>6.980679129755856</v>
       </c>
       <c r="L2">
-        <v>0.1535709954046816</v>
+        <v>0.09963560495365442</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.46736255706756</v>
+      </c>
+      <c r="N2">
+        <v>0.7255903896250739</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05780810428193917</v>
+        <v>0.07140998547607325</v>
       </c>
       <c r="D3">
-        <v>0.03858654519295612</v>
+        <v>0.2080665414680709</v>
       </c>
       <c r="E3">
-        <v>0.2286931998514277</v>
+        <v>0.02115880012355831</v>
       </c>
       <c r="F3">
-        <v>1.169134839714971</v>
+        <v>7.307113147085602</v>
       </c>
       <c r="G3">
-        <v>0.2859199662084535</v>
+        <v>0.0008262075765511699</v>
       </c>
       <c r="H3">
-        <v>0.5219690548693308</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8591334746748416</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1339043785023115</v>
+        <v>0.08223324324884729</v>
       </c>
       <c r="K3">
-        <v>19.17977118782159</v>
+        <v>6.047360072423942</v>
       </c>
       <c r="L3">
-        <v>0.1302966020904464</v>
+        <v>0.08409927444566279</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>3.894182973750986</v>
+      </c>
+      <c r="N3">
+        <v>0.8284441392123085</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.05167707188875426</v>
+        <v>0.06989535995044349</v>
       </c>
       <c r="D4">
-        <v>0.03260004691410145</v>
+        <v>0.1875887247847885</v>
       </c>
       <c r="E4">
-        <v>0.2057705327510675</v>
+        <v>0.01995973607246349</v>
       </c>
       <c r="F4">
-        <v>1.018330646562774</v>
+        <v>6.860774318324161</v>
       </c>
       <c r="G4">
-        <v>0.2441257248689652</v>
+        <v>0.0008422313026718912</v>
       </c>
       <c r="H4">
-        <v>0.452025901554741</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7460447508984416</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1194173695598728</v>
+        <v>0.08360490682286326</v>
       </c>
       <c r="K4">
-        <v>17.28590303072042</v>
+        <v>5.505589527384984</v>
       </c>
       <c r="L4">
-        <v>0.1167582212671512</v>
+        <v>0.07506220430471444</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.561777679499983</v>
+      </c>
+      <c r="N4">
+        <v>0.8933384734158807</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04924024751770872</v>
+        <v>0.06932736264472794</v>
       </c>
       <c r="D5">
-        <v>0.03033950633658833</v>
+        <v>0.1796285514986522</v>
       </c>
       <c r="E5">
-        <v>0.1966233650607379</v>
+        <v>0.01948355430500648</v>
       </c>
       <c r="F5">
-        <v>0.9616857919426423</v>
+        <v>6.688661419122468</v>
       </c>
       <c r="G5">
-        <v>0.2284392930252963</v>
+        <v>0.0008487695702341769</v>
       </c>
       <c r="H5">
-        <v>0.4262100267062863</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.703667731429789</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1137192910499287</v>
+        <v>0.08422614039816523</v>
       </c>
       <c r="K5">
-        <v>16.52458791137002</v>
+        <v>5.291170493308698</v>
       </c>
       <c r="L5">
-        <v>0.1113941796259255</v>
+        <v>0.0714782677826804</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.430302149601928</v>
+      </c>
+      <c r="N5">
+        <v>0.9202122065027059</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0488388998620195</v>
+        <v>0.06923582369739734</v>
       </c>
       <c r="D6">
-        <v>0.02997380935906335</v>
+        <v>0.1783276687849735</v>
       </c>
       <c r="E6">
-        <v>0.1951149958198073</v>
+        <v>0.01940514084609823</v>
       </c>
       <c r="F6">
-        <v>0.9525436563819198</v>
+        <v>6.660620509435034</v>
       </c>
       <c r="G6">
-        <v>0.2259081342906128</v>
+        <v>0.000849856431284659</v>
       </c>
       <c r="H6">
-        <v>0.4220707328446025</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.696834309854296</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1127843197077247</v>
+        <v>0.08433285546198377</v>
       </c>
       <c r="K6">
-        <v>16.39872710751854</v>
+        <v>5.255912363677481</v>
       </c>
       <c r="L6">
-        <v>0.1105118007410049</v>
+        <v>0.07088843172374482</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.408687943051731</v>
+      </c>
+      <c r="N6">
+        <v>0.9247002392210923</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05164397868891513</v>
+        <v>0.06988750950969091</v>
       </c>
       <c r="D7">
-        <v>0.0325688887179183</v>
+        <v>0.1874799215513576</v>
       </c>
       <c r="E7">
-        <v>0.2056464409661416</v>
+        <v>0.0199532681465735</v>
       </c>
       <c r="F7">
-        <v>1.017548477535215</v>
+        <v>6.858415974040838</v>
       </c>
       <c r="G7">
-        <v>0.2439090804628563</v>
+        <v>0.0008423194146359685</v>
       </c>
       <c r="H7">
-        <v>0.4516675474064229</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7454591823063765</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1193397475904945</v>
+        <v>0.08361304217067556</v>
       </c>
       <c r="K7">
-        <v>17.27559686818222</v>
+        <v>5.502673813001451</v>
       </c>
       <c r="L7">
-        <v>0.1166853031461024</v>
+        <v>0.07501350218633007</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.559989508113219</v>
+      </c>
+      <c r="N7">
+        <v>0.8936991764148949</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06460848760829663</v>
+        <v>0.07321587721327916</v>
       </c>
       <c r="D8">
-        <v>0.04571148327425334</v>
+        <v>0.2314889476072892</v>
       </c>
       <c r="E8">
-        <v>0.2539467018530814</v>
+        <v>0.02249135209827458</v>
       </c>
       <c r="F8">
-        <v>1.349388339727028</v>
+        <v>7.82248066033651</v>
       </c>
       <c r="G8">
-        <v>0.3359465359192839</v>
+        <v>0.0008090641760768146</v>
       </c>
       <c r="H8">
-        <v>0.6073945305022761</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9947189765367597</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1501976192784404</v>
+        <v>0.08100435671913431</v>
       </c>
       <c r="K8">
-        <v>21.2446335755663</v>
+        <v>6.651347916946122</v>
       </c>
       <c r="L8">
-        <v>0.1453655462761141</v>
+        <v>0.09415562907685171</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.265045409400656</v>
+      </c>
+      <c r="N8">
+        <v>0.7606865515027952</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.09357765382772243</v>
+        <v>0.082028506825921</v>
       </c>
       <c r="D9">
-        <v>0.08138638973182566</v>
+        <v>0.3387845383693104</v>
       </c>
       <c r="E9">
-        <v>0.3591039031695757</v>
+        <v>0.02822754490064661</v>
       </c>
       <c r="F9">
-        <v>2.249250977025426</v>
+        <v>10.21677477424151</v>
       </c>
       <c r="G9">
-        <v>0.5868604361642724</v>
+        <v>0.0007415916759022689</v>
       </c>
       <c r="H9">
-        <v>1.051700920760538</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.675809668078088</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2216183962080791</v>
+        <v>0.07860946844180106</v>
       </c>
       <c r="K9">
-        <v>29.63038791455205</v>
+        <v>9.246947767210969</v>
       </c>
       <c r="L9">
-        <v>0.2097584266782455</v>
+        <v>0.1374190918776037</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5.860792655201948</v>
+      </c>
+      <c r="N9">
+        <v>0.5142523602463331</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1192253156266219</v>
+        <v>0.09095699534137225</v>
       </c>
       <c r="D10">
-        <v>0.1195895217919301</v>
+        <v>0.4435762070245062</v>
       </c>
       <c r="E10">
-        <v>0.4484910782769234</v>
+        <v>0.03345885148140226</v>
       </c>
       <c r="F10">
-        <v>3.195602424982198</v>
+        <v>12.56954312554836</v>
       </c>
       <c r="G10">
-        <v>0.8525517692944646</v>
+        <v>0.0006869503059223625</v>
       </c>
       <c r="H10">
-        <v>1.537214470323477</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.396654803112455</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2867599667034355</v>
+        <v>0.07961647990223497</v>
       </c>
       <c r="K10">
-        <v>36.51954184797563</v>
+        <v>11.57178974104912</v>
       </c>
       <c r="L10">
-        <v>0.266524946871634</v>
+        <v>0.1765669085275476</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>7.291133081889342</v>
+      </c>
+      <c r="N10">
+        <v>0.3432777432501393</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1327196868863041</v>
+        <v>0.09601594772654209</v>
       </c>
       <c r="D11">
-        <v>0.1419964522420685</v>
+        <v>0.5028153608356831</v>
       </c>
       <c r="E11">
-        <v>0.494031086303238</v>
+        <v>0.03631377476792252</v>
       </c>
       <c r="F11">
-        <v>3.741328804919377</v>
+        <v>13.8961199171809</v>
       </c>
       <c r="G11">
-        <v>1.006460793438521</v>
+        <v>0.0006593545335207908</v>
       </c>
       <c r="H11">
-        <v>1.822435095526387</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.813729120556417</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3215346791888365</v>
+        <v>0.08116698678653478</v>
       </c>
       <c r="K11">
-        <v>39.950066558066</v>
+        <v>12.81274825653543</v>
       </c>
       <c r="L11">
-        <v>0.2961707920047232</v>
+        <v>0.1977152793923693</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>8.054562975197314</v>
+      </c>
+      <c r="N11">
+        <v>0.2682715819234573</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1382236302042372</v>
+        <v>0.09815326313442085</v>
       </c>
       <c r="D12">
-        <v>0.1515718666339865</v>
+        <v>0.5279338742658126</v>
       </c>
       <c r="E12">
-        <v>0.512306078011548</v>
+        <v>0.03750770709724094</v>
       </c>
       <c r="F12">
-        <v>3.972527556011983</v>
+        <v>14.4570293024255</v>
       </c>
       <c r="G12">
-        <v>1.071799690515107</v>
+        <v>0.0006482317500574931</v>
       </c>
       <c r="H12">
-        <v>1.944167916981513</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.990669855579952</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3357985207132188</v>
+        <v>0.08199490220120964</v>
       </c>
       <c r="K12">
-        <v>41.31176149135979</v>
+        <v>13.32481066797664</v>
       </c>
       <c r="L12">
-        <v>0.308208522619779</v>
+        <v>0.2065036240373246</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8.369521847632484</v>
+      </c>
+      <c r="N12">
+        <v>0.2403676872120144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.137017743018248</v>
+        <v>0.09768113623925245</v>
       </c>
       <c r="D13">
-        <v>0.1494526800938019</v>
+        <v>0.5223786996077138</v>
       </c>
       <c r="E13">
-        <v>0.5083169826502214</v>
+        <v>0.03724441265907963</v>
       </c>
       <c r="F13">
-        <v>3.921460769788823</v>
+        <v>14.33307417664383</v>
       </c>
       <c r="G13">
-        <v>1.057361170994042</v>
+        <v>0.0006506642189605088</v>
       </c>
       <c r="H13">
-        <v>1.917237730229999</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.951575839287955</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.332669697880533</v>
+        <v>0.08180377621892632</v>
       </c>
       <c r="K13">
-        <v>41.01526244066355</v>
+        <v>13.21225637663693</v>
       </c>
       <c r="L13">
-        <v>0.3055739306057035</v>
+        <v>0.2045685943658597</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8.300295848458831</v>
+      </c>
+      <c r="N13">
+        <v>0.2463525436292997</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1331635614733813</v>
+        <v>0.09618666864871273</v>
       </c>
       <c r="D14">
-        <v>0.1427594308758771</v>
+        <v>0.5048190997722202</v>
       </c>
       <c r="E14">
-        <v>0.4955113444520975</v>
+        <v>0.03640934646079863</v>
       </c>
       <c r="F14">
-        <v>3.759794230294688</v>
+        <v>13.94090364966502</v>
       </c>
       <c r="G14">
-        <v>1.011676455288452</v>
+        <v>0.0006584553691432435</v>
       </c>
       <c r="H14">
-        <v>1.832139379596271</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.827856000886911</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3226833877299171</v>
+        <v>0.08122954732776577</v>
       </c>
       <c r="K14">
-        <v>40.06068241969768</v>
+        <v>12.85389423947626</v>
       </c>
       <c r="L14">
-        <v>0.2971428028673699</v>
+        <v>0.198420050219859</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>8.079872562983951</v>
+      </c>
+      <c r="N14">
+        <v>0.265965029965475</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1308593085299776</v>
+        <v>0.0953034863975688</v>
       </c>
       <c r="D15">
-        <v>0.1388164083346624</v>
+        <v>0.4944575739929178</v>
       </c>
       <c r="E15">
-        <v>0.487814703159799</v>
+        <v>0.03591448702375644</v>
       </c>
       <c r="F15">
-        <v>3.664284469318019</v>
+        <v>13.70925376752047</v>
       </c>
       <c r="G15">
-        <v>0.9847046171534259</v>
+        <v>0.0006631279744581428</v>
       </c>
       <c r="H15">
-        <v>1.781980902100784</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.754796514280443</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3167233766618196</v>
+        <v>0.08091278664986845</v>
       </c>
       <c r="K15">
-        <v>39.48491820904718</v>
+        <v>12.64055675176905</v>
       </c>
       <c r="L15">
-        <v>0.2920946160208615</v>
+        <v>0.1947684797891185</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7.94864241541228</v>
+      </c>
+      <c r="N15">
+        <v>0.2780476195994126</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1183897720443099</v>
+        <v>0.09065190755095642</v>
       </c>
       <c r="D16">
-        <v>0.1182530690586674</v>
+        <v>0.4400084374348978</v>
       </c>
       <c r="E16">
-        <v>0.4456371789629969</v>
+        <v>0.0332849071824235</v>
       </c>
       <c r="F16">
-        <v>3.162838367954663</v>
+        <v>12.48951509927144</v>
       </c>
       <c r="G16">
-        <v>0.8433265024328449</v>
+        <v>0.0006886792387153632</v>
       </c>
       <c r="H16">
-        <v>1.520195708955967</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2.371643104360004</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2846168191108944</v>
+        <v>0.07954295738287342</v>
       </c>
       <c r="K16">
-        <v>36.30278941601676</v>
+        <v>11.49547698561759</v>
       </c>
       <c r="L16">
-        <v>0.2646835894719786</v>
+        <v>0.1752727923814064</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>7.244181565937396</v>
+      </c>
+      <c r="N16">
+        <v>0.3482423581007197</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1112804714828997</v>
+        <v>0.08809401078949719</v>
       </c>
       <c r="D17">
-        <v>0.1071273008570728</v>
+        <v>0.4100890431078312</v>
       </c>
       <c r="E17">
-        <v>0.4211944983611886</v>
+        <v>0.03181592914932807</v>
       </c>
       <c r="F17">
-        <v>2.8891239181971</v>
+        <v>11.81799637968101</v>
       </c>
       <c r="G17">
-        <v>0.7663285248078608</v>
+        <v>0.0007035098202235425</v>
       </c>
       <c r="H17">
-        <v>1.378544200129127</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>2.162832406304432</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2664338561777271</v>
+        <v>0.07902528794808461</v>
       </c>
       <c r="K17">
-        <v>34.43781031913147</v>
+        <v>10.84804690659453</v>
       </c>
       <c r="L17">
-        <v>0.2489917184232979</v>
+        <v>0.1643208156518696</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6.845840602833761</v>
+      </c>
+      <c r="N17">
+        <v>0.3920660416051884</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1073527172521693</v>
+        <v>0.08671015488732792</v>
       </c>
       <c r="D18">
-        <v>0.1011713652236494</v>
+        <v>0.3938837463208102</v>
       </c>
       <c r="E18">
-        <v>0.4075682605527078</v>
+        <v>0.03101200941683047</v>
       </c>
       <c r="F18">
-        <v>2.741888369509056</v>
+        <v>11.45407135352747</v>
       </c>
       <c r="G18">
-        <v>0.7249642889695593</v>
+        <v>0.0007118053958435872</v>
       </c>
       <c r="H18">
-        <v>1.302764180215107</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>2.050619585135081</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2564305464636334</v>
+        <v>0.07882339277938399</v>
       </c>
       <c r="K18">
-        <v>33.39143670207784</v>
+        <v>10.49160911243163</v>
       </c>
       <c r="L18">
-        <v>0.2403047532833256</v>
+        <v>0.1583108734780012</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6.626535478855686</v>
+      </c>
+      <c r="N18">
+        <v>0.4175246982045451</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1060476497638376</v>
+        <v>0.08625502779240435</v>
       </c>
       <c r="D19">
-        <v>0.09922286122171897</v>
+        <v>0.3885488614299675</v>
       </c>
       <c r="E19">
-        <v>0.4030215930045955</v>
+        <v>0.03074597762624443</v>
       </c>
       <c r="F19">
-        <v>2.693612110393104</v>
+        <v>11.33424866840153</v>
       </c>
       <c r="G19">
-        <v>0.7114101707029192</v>
+        <v>0.0007145794534807057</v>
       </c>
       <c r="H19">
-        <v>1.277985611327921</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>2.013844650960522</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2531138646488102</v>
+        <v>0.07876981197275157</v>
       </c>
       <c r="K19">
-        <v>33.04122105182978</v>
+        <v>10.37334707779149</v>
       </c>
       <c r="L19">
-        <v>0.2374158281267</v>
+        <v>0.1563197193072128</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6.553773177852349</v>
+      </c>
+      <c r="N19">
+        <v>0.426185882113586</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1120198477597114</v>
+        <v>0.0883568610963934</v>
       </c>
       <c r="D20">
-        <v>0.1082637640658461</v>
+        <v>0.4131650035131713</v>
       </c>
       <c r="E20">
-        <v>0.4237498679907574</v>
+        <v>0.03196783913972112</v>
       </c>
       <c r="F20">
-        <v>2.917161908767469</v>
+        <v>11.88706122679491</v>
       </c>
       <c r="G20">
-        <v>0.7742098801963664</v>
+        <v>0.0007019567706338881</v>
       </c>
       <c r="H20">
-        <v>1.393009301323488</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>2.184210056955237</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2683204019646581</v>
+        <v>0.07907004956011576</v>
       </c>
       <c r="K20">
-        <v>34.63350517301387</v>
+        <v>10.91523659290294</v>
       </c>
       <c r="L20">
-        <v>0.2506256530531914</v>
+        <v>0.16545521671339</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6.88718044549438</v>
+      </c>
+      <c r="N20">
+        <v>0.3873742972938352</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1342834847140324</v>
+        <v>0.09661867476566499</v>
       </c>
       <c r="D21">
-        <v>0.1446917102236185</v>
+        <v>0.5098914322632311</v>
       </c>
       <c r="E21">
-        <v>0.4992411064584985</v>
+        <v>0.03665101707722229</v>
       </c>
       <c r="F21">
-        <v>3.806525050478214</v>
+        <v>14.05424128470753</v>
       </c>
       <c r="G21">
-        <v>1.024878059291169</v>
+        <v>0.000656188561019386</v>
       </c>
       <c r="H21">
-        <v>1.856712670361588</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.863611165675337</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3255829369075869</v>
+        <v>0.08139066569758313</v>
       </c>
       <c r="K21">
-        <v>40.3391482396683</v>
+        <v>12.957819316035</v>
       </c>
       <c r="L21">
-        <v>0.2995943146287914</v>
+        <v>0.2002012119585217</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>8.143797482415266</v>
+      </c>
+      <c r="N21">
+        <v>0.2601895985105926</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1512656552443019</v>
+        <v>0.1034098334703941</v>
       </c>
       <c r="D22">
-        <v>0.1752407869004102</v>
+        <v>0.5901046632172324</v>
       </c>
       <c r="E22">
-        <v>0.5549165835502663</v>
+        <v>0.04042881929679432</v>
       </c>
       <c r="F22">
-        <v>4.53910786734636</v>
+        <v>15.84010797209709</v>
       </c>
       <c r="G22">
-        <v>1.232231522043151</v>
+        <v>0.0006219925446931178</v>
       </c>
       <c r="H22">
-        <v>2.244422599384933</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>3.424824850033616</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3697604009004749</v>
+        <v>0.08441879282561615</v>
       </c>
       <c r="K22">
-        <v>44.45309918291127</v>
+        <v>14.55880509770077</v>
       </c>
       <c r="L22">
-        <v>0.3365972330028555</v>
+        <v>0.2278484148267879</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>9.128312272332806</v>
+      </c>
+      <c r="N22">
+        <v>0.1801072186500132</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1419107054179563</v>
+        <v>0.09961073074838112</v>
       </c>
       <c r="D23">
-        <v>0.1581247803233836</v>
+        <v>0.5451095850469017</v>
       </c>
       <c r="E23">
-        <v>0.5244512357738458</v>
+        <v>0.03831923370685253</v>
       </c>
       <c r="F23">
-        <v>4.130077659686989</v>
+        <v>14.83991498257194</v>
       </c>
       <c r="G23">
-        <v>1.116368006536021</v>
+        <v>0.0006408057404713185</v>
       </c>
       <c r="H23">
-        <v>2.027396129160067</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>3.111321910488229</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3453774446717617</v>
+        <v>0.08261343789827436</v>
       </c>
       <c r="K23">
-        <v>42.21194647978581</v>
+        <v>13.67037731721254</v>
       </c>
       <c r="L23">
-        <v>0.3162539316840167</v>
+        <v>0.2124565896092321</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>8.582046168073134</v>
+      </c>
+      <c r="N23">
+        <v>0.2225093327971042</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1116850876071283</v>
+        <v>0.08823776123819016</v>
       </c>
       <c r="D24">
-        <v>0.1077486212248715</v>
+        <v>0.411771323236735</v>
       </c>
       <c r="E24">
-        <v>0.4225932795466747</v>
+        <v>0.03189903685318107</v>
       </c>
       <c r="F24">
-        <v>2.904454913524532</v>
+        <v>11.85576939107233</v>
       </c>
       <c r="G24">
-        <v>0.7706378283363193</v>
+        <v>0.0007026596056509169</v>
       </c>
       <c r="H24">
-        <v>1.386452300406759</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>2.174521220889105</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.267466115311656</v>
+        <v>0.07904951987147513</v>
       </c>
       <c r="K24">
-        <v>34.54495240365725</v>
+        <v>10.8848119652472</v>
       </c>
       <c r="L24">
-        <v>0.249885926501122</v>
+        <v>0.1649414800961324</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6.868461066611275</v>
+      </c>
+      <c r="N24">
+        <v>0.3894946193536555</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,36 +1505,42 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.08518241119707426</v>
+        <v>0.07931638732728175</v>
       </c>
       <c r="D25">
-        <v>0.0701963609929912</v>
+        <v>0.3064894960523645</v>
       </c>
       <c r="E25">
-        <v>0.3290644999529775</v>
+        <v>0.02655186959567679</v>
       </c>
       <c r="F25">
-        <v>1.96831936351694</v>
+        <v>9.492744962700556</v>
       </c>
       <c r="G25">
-        <v>0.5083270272003091</v>
+        <v>0.0007603753776387404</v>
       </c>
       <c r="H25">
-        <v>0.9106016148440688</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.462595346931309</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2006391818022486</v>
+        <v>0.07887954941838871</v>
       </c>
       <c r="K25">
-        <v>27.26748524898892</v>
+        <v>8.491730069207051</v>
       </c>
       <c r="L25">
-        <v>0.1910989468731898</v>
+        <v>0.1248014960026325</v>
       </c>
       <c r="M25">
+        <v>5.396272478186631</v>
+      </c>
+      <c r="N25">
+        <v>0.5792771440946982</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.07424616093790348</v>
+        <v>0.027304447779958</v>
       </c>
       <c r="D2">
-        <v>0.2445146580536601</v>
+        <v>0.04646508520001902</v>
       </c>
       <c r="E2">
-        <v>0.02321713543485515</v>
+        <v>0.02845008432008811</v>
       </c>
       <c r="F2">
-        <v>8.110768294931631</v>
+        <v>2.621035910296172</v>
       </c>
       <c r="G2">
-        <v>0.0007999914350164043</v>
+        <v>2.755415983456629</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.482649280289166</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.953250994275081</v>
       </c>
       <c r="J2">
-        <v>0.08045452790287655</v>
+        <v>0.03301260235664616</v>
       </c>
       <c r="K2">
-        <v>6.980679129755856</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.09963560495365442</v>
+        <v>0.04592698439465615</v>
       </c>
       <c r="M2">
-        <v>4.46736255706756</v>
+        <v>3.853626143750517</v>
       </c>
       <c r="N2">
-        <v>0.7255903896250739</v>
+        <v>3.5000148980277</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07140998547607325</v>
+        <v>0.02699371609165446</v>
       </c>
       <c r="D3">
-        <v>0.2080665414680709</v>
+        <v>0.0416371655264598</v>
       </c>
       <c r="E3">
-        <v>0.02115880012355831</v>
+        <v>0.02879771822619581</v>
       </c>
       <c r="F3">
-        <v>7.307113147085602</v>
+        <v>2.357866580412107</v>
       </c>
       <c r="G3">
-        <v>0.0008262075765511699</v>
+        <v>2.443481757469812</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.346276855503447</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.754083497810882</v>
       </c>
       <c r="J3">
-        <v>0.08223324324884729</v>
+        <v>0.03600269753111007</v>
       </c>
       <c r="K3">
-        <v>6.047360072423942</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.08409927444566279</v>
+        <v>0.04692328780515531</v>
       </c>
       <c r="M3">
-        <v>3.894182973750986</v>
+        <v>3.364079686710596</v>
       </c>
       <c r="N3">
-        <v>0.8284441392123085</v>
+        <v>3.136841652143517</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.06989535995044349</v>
+        <v>0.02681681487435483</v>
       </c>
       <c r="D4">
-        <v>0.1875887247847885</v>
+        <v>0.03871913950748862</v>
       </c>
       <c r="E4">
-        <v>0.01995973607246349</v>
+        <v>0.02902878821249821</v>
       </c>
       <c r="F4">
-        <v>6.860774318324161</v>
+        <v>2.203393526378662</v>
       </c>
       <c r="G4">
-        <v>0.0008422313026718912</v>
+        <v>2.259460974472631</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.266448885993981</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.637109206987219</v>
       </c>
       <c r="J4">
-        <v>0.08360490682286326</v>
+        <v>0.03793360281488667</v>
       </c>
       <c r="K4">
-        <v>5.505589527384984</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.07506220430471444</v>
+        <v>0.04757278572121137</v>
       </c>
       <c r="M4">
-        <v>3.561777679499983</v>
+        <v>3.065104523707362</v>
       </c>
       <c r="N4">
-        <v>0.8933384734158807</v>
+        <v>2.914981119457366</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06932736264472794</v>
+        <v>0.02674788179689358</v>
       </c>
       <c r="D5">
-        <v>0.1796285514986522</v>
+        <v>0.03753916025519288</v>
       </c>
       <c r="E5">
-        <v>0.01948355430500648</v>
+        <v>0.02912737956446421</v>
       </c>
       <c r="F5">
-        <v>6.688661419122468</v>
+        <v>2.142040578496449</v>
       </c>
       <c r="G5">
-        <v>0.0008487695702341769</v>
+        <v>2.186142179489934</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.234798144876578</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.590632574048755</v>
       </c>
       <c r="J5">
-        <v>0.08422614039816523</v>
+        <v>0.03874343967341831</v>
       </c>
       <c r="K5">
-        <v>5.291170493308698</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0714782677826804</v>
+        <v>0.04784696792089527</v>
       </c>
       <c r="M5">
-        <v>3.430302149601928</v>
+        <v>2.94359202687761</v>
       </c>
       <c r="N5">
-        <v>0.9202122065027059</v>
+        <v>2.824824536367998</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.06923582369739734</v>
+        <v>0.02673661709264863</v>
       </c>
       <c r="D6">
-        <v>0.1783276687849735</v>
+        <v>0.03734370951186605</v>
       </c>
       <c r="E6">
-        <v>0.01940514084609823</v>
+        <v>0.02914401797644928</v>
       </c>
       <c r="F6">
-        <v>6.660620509435034</v>
+        <v>2.131944082115496</v>
       </c>
       <c r="G6">
-        <v>0.000849856431284659</v>
+        <v>2.174062642674613</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.22959290096054</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.582983137138598</v>
       </c>
       <c r="J6">
-        <v>0.08433285546198377</v>
+        <v>0.03887927506912847</v>
       </c>
       <c r="K6">
-        <v>5.255912363677481</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.07088843172374482</v>
+        <v>0.04789307001622767</v>
       </c>
       <c r="M6">
-        <v>3.408687943051731</v>
+        <v>2.923432210641508</v>
       </c>
       <c r="N6">
-        <v>0.9247002392210923</v>
+        <v>2.809868574604593</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06988750950969091</v>
+        <v>0.02681587285434794</v>
       </c>
       <c r="D7">
-        <v>0.1874799215513576</v>
+        <v>0.03870319200193961</v>
       </c>
       <c r="E7">
-        <v>0.0199532681465735</v>
+        <v>0.02903009992252414</v>
       </c>
       <c r="F7">
-        <v>6.858415974040838</v>
+        <v>2.20255987789038</v>
       </c>
       <c r="G7">
-        <v>0.0008423194146359685</v>
+        <v>2.258465676308077</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.266018598588289</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.636477764929936</v>
       </c>
       <c r="J7">
-        <v>0.08361304217067556</v>
+        <v>0.0379444326695566</v>
       </c>
       <c r="K7">
-        <v>5.502673813001451</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.07501350218633007</v>
+        <v>0.04757644493736279</v>
       </c>
       <c r="M7">
-        <v>3.559989508113219</v>
+        <v>3.063464560479076</v>
       </c>
       <c r="N7">
-        <v>0.8936991764148949</v>
+        <v>2.913764248430653</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07321587721327916</v>
+        <v>0.02719420700635489</v>
       </c>
       <c r="D8">
-        <v>0.2314889476072892</v>
+        <v>0.04478919600683184</v>
       </c>
       <c r="E8">
-        <v>0.02249135209827458</v>
+        <v>0.02856628959037266</v>
       </c>
       <c r="F8">
-        <v>7.82248066033651</v>
+        <v>2.528696428265533</v>
       </c>
       <c r="G8">
-        <v>0.0008090641760768146</v>
+        <v>2.646165306080292</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.434752735136271</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.883382772814471</v>
       </c>
       <c r="J8">
-        <v>0.08100435671913431</v>
+        <v>0.03402330902715534</v>
       </c>
       <c r="K8">
-        <v>6.651347916946122</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.09415562907685171</v>
+        <v>0.04626268074678208</v>
       </c>
       <c r="M8">
-        <v>4.265045409400656</v>
+        <v>3.684444120225592</v>
       </c>
       <c r="N8">
-        <v>0.7606865515027952</v>
+        <v>3.374538848583768</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.082028506825921</v>
+        <v>0.02806440329983673</v>
       </c>
       <c r="D9">
-        <v>0.3387845383693104</v>
+        <v>0.05722253118413079</v>
       </c>
       <c r="E9">
-        <v>0.02822754490064661</v>
+        <v>0.0277967146585274</v>
       </c>
       <c r="F9">
-        <v>10.21677477424151</v>
+        <v>3.234534492642638</v>
       </c>
       <c r="G9">
-        <v>0.0007415916759022689</v>
+        <v>3.477090114696267</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.801846792430297</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.417152053664438</v>
       </c>
       <c r="J9">
-        <v>0.07860946844180106</v>
+        <v>0.02713208692369395</v>
       </c>
       <c r="K9">
-        <v>9.246947767210969</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1374190918776037</v>
+        <v>0.04398506658840695</v>
       </c>
       <c r="M9">
-        <v>5.860792655201948</v>
+        <v>4.919263887689539</v>
       </c>
       <c r="N9">
-        <v>0.5142523602463331</v>
+        <v>4.28867725588961</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.09095699534137225</v>
+        <v>0.02881278423923561</v>
       </c>
       <c r="D10">
-        <v>0.4435762070245062</v>
+        <v>0.06687747213689477</v>
       </c>
       <c r="E10">
-        <v>0.03345885148140226</v>
+        <v>0.02731692193921464</v>
       </c>
       <c r="F10">
-        <v>12.56954312554836</v>
+        <v>3.80933226528046</v>
       </c>
       <c r="G10">
-        <v>0.0006869503059223625</v>
+        <v>4.148449386063106</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.102020587597735</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.851459673859125</v>
       </c>
       <c r="J10">
-        <v>0.07961647990223497</v>
+        <v>0.0226243494234315</v>
       </c>
       <c r="K10">
-        <v>11.57178974104912</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1765669085275476</v>
+        <v>0.04249149710789268</v>
       </c>
       <c r="M10">
-        <v>7.291133081889342</v>
+        <v>5.844029179113789</v>
       </c>
       <c r="N10">
-        <v>0.3432777432501393</v>
+        <v>4.969315266262299</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09601594772654209</v>
+        <v>0.02918590259810472</v>
       </c>
       <c r="D11">
-        <v>0.5028153608356831</v>
+        <v>0.07144288614564687</v>
       </c>
       <c r="E11">
-        <v>0.03631377476792252</v>
+        <v>0.02711736573365897</v>
       </c>
       <c r="F11">
-        <v>13.8961199171809</v>
+        <v>4.087283371258223</v>
       </c>
       <c r="G11">
-        <v>0.0006593545335207908</v>
+        <v>4.471885170929397</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.247455999057308</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.061396505071571</v>
       </c>
       <c r="J11">
-        <v>0.08116698678653478</v>
+        <v>0.02071193859350995</v>
       </c>
       <c r="K11">
-        <v>12.81274825653543</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1977152793923693</v>
+        <v>0.04185022835618568</v>
       </c>
       <c r="M11">
-        <v>8.054562975197314</v>
+        <v>6.270495692440051</v>
       </c>
       <c r="N11">
-        <v>0.2682715819234573</v>
+        <v>5.281583373772833</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.09815326313442085</v>
+        <v>0.02933285588058077</v>
       </c>
       <c r="D12">
-        <v>0.5279338742658126</v>
+        <v>0.07320283461612576</v>
       </c>
       <c r="E12">
-        <v>0.03750770709724094</v>
+        <v>0.02704450680053583</v>
       </c>
       <c r="F12">
-        <v>14.4570293024255</v>
+        <v>4.195332196352496</v>
       </c>
       <c r="G12">
-        <v>0.0006482317500574931</v>
+        <v>4.597437120605662</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.304033741639557</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.142994869668954</v>
       </c>
       <c r="J12">
-        <v>0.08199490220120964</v>
+        <v>0.02000936117387475</v>
       </c>
       <c r="K12">
-        <v>13.32481066797664</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2065036240373246</v>
+        <v>0.04161278322519024</v>
       </c>
       <c r="M12">
-        <v>8.369521847632484</v>
+        <v>6.433017069041853</v>
       </c>
       <c r="N12">
-        <v>0.2403676872120144</v>
+        <v>5.400273981128407</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09768113623925245</v>
+        <v>0.02930093736671324</v>
       </c>
       <c r="D13">
-        <v>0.5223786996077138</v>
+        <v>0.07282230203737328</v>
       </c>
       <c r="E13">
-        <v>0.03724441265907963</v>
+        <v>0.02706007740656435</v>
       </c>
       <c r="F13">
-        <v>14.33307417664383</v>
+        <v>4.171930080409908</v>
       </c>
       <c r="G13">
-        <v>0.0006506642189605088</v>
+        <v>4.570252000244579</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.29177776518992</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.125322100266558</v>
       </c>
       <c r="J13">
-        <v>0.08180377621892632</v>
+        <v>0.02015968229493792</v>
       </c>
       <c r="K13">
-        <v>13.21225637663693</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2045685943658597</v>
+        <v>0.04166368349681804</v>
       </c>
       <c r="M13">
-        <v>8.300295848458831</v>
+        <v>6.397965969881994</v>
       </c>
       <c r="N13">
-        <v>0.2463525436292997</v>
+        <v>5.374691135826708</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.09618666864871273</v>
+        <v>0.02919787277326336</v>
       </c>
       <c r="D14">
-        <v>0.5048190997722202</v>
+        <v>0.07158701451101024</v>
       </c>
       <c r="E14">
-        <v>0.03640934646079863</v>
+        <v>0.02711131715874338</v>
       </c>
       <c r="F14">
-        <v>13.94090364966502</v>
+        <v>4.096113901611801</v>
       </c>
       <c r="G14">
-        <v>0.0006584553691432435</v>
+        <v>4.482149750929409</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2.252079092638098</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.068065530812348</v>
       </c>
       <c r="J14">
-        <v>0.08122954732776577</v>
+        <v>0.02065369317046573</v>
       </c>
       <c r="K14">
-        <v>12.85389423947626</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0.198420050219859</v>
+        <v>0.04183058626729874</v>
       </c>
       <c r="M14">
-        <v>8.079872562983951</v>
+        <v>6.283844577265796</v>
       </c>
       <c r="N14">
-        <v>0.265965029965475</v>
+        <v>5.291338893236343</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.0953034863975688</v>
+        <v>0.02913551230074773</v>
       </c>
       <c r="D15">
-        <v>0.4944575739929178</v>
+        <v>0.07083462328389345</v>
       </c>
       <c r="E15">
-        <v>0.03591448702375644</v>
+        <v>0.02714305644988091</v>
       </c>
       <c r="F15">
-        <v>13.70925376752047</v>
+        <v>4.050052142774604</v>
       </c>
       <c r="G15">
-        <v>0.0006631279744581428</v>
+        <v>4.428600560169457</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2.227965835394571</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.033278159056394</v>
       </c>
       <c r="J15">
-        <v>0.08091278664986845</v>
+        <v>0.02095915927888203</v>
       </c>
       <c r="K15">
-        <v>12.64055675176905</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1947684797891185</v>
+        <v>0.04193351743747087</v>
       </c>
       <c r="M15">
-        <v>7.94864241541228</v>
+        <v>6.214082189176082</v>
       </c>
       <c r="N15">
-        <v>0.2780476195994126</v>
+        <v>5.240342689425688</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09065190755095642</v>
+        <v>0.02878913512333803</v>
       </c>
       <c r="D16">
-        <v>0.4400084374348978</v>
+        <v>0.06658310290453784</v>
       </c>
       <c r="E16">
-        <v>0.0332849071824235</v>
+        <v>0.02733034122063493</v>
       </c>
       <c r="F16">
-        <v>12.48951509927144</v>
+        <v>3.791533799892591</v>
       </c>
       <c r="G16">
-        <v>0.0006886792387153632</v>
+        <v>4.12771423134501</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2.092713366002101</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.838014947362254</v>
       </c>
       <c r="J16">
-        <v>0.07954295738287342</v>
+        <v>0.02275225398646574</v>
       </c>
       <c r="K16">
-        <v>11.49547698561759</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1752727923814064</v>
+        <v>0.04253416575459568</v>
       </c>
       <c r="M16">
-        <v>7.244181565937396</v>
+        <v>5.816290968067904</v>
       </c>
       <c r="N16">
-        <v>0.3482423581007197</v>
+        <v>4.948966059765212</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08809401078949719</v>
+        <v>0.02858563380276458</v>
       </c>
       <c r="D17">
-        <v>0.4100890431078312</v>
+        <v>0.06402338019332632</v>
       </c>
       <c r="E17">
-        <v>0.03181592914932807</v>
+        <v>0.02745003598137963</v>
       </c>
       <c r="F17">
-        <v>11.81799637968101</v>
+        <v>3.637441749333988</v>
       </c>
       <c r="G17">
-        <v>0.0007035098202235425</v>
+        <v>3.948066122584947</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2.012165841060153</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.721607375692088</v>
       </c>
       <c r="J17">
-        <v>0.07902528794808461</v>
+        <v>0.02388881717580649</v>
       </c>
       <c r="K17">
-        <v>10.84804690659453</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1643208156518696</v>
+        <v>0.04291235793610326</v>
       </c>
       <c r="M17">
-        <v>6.845840602833761</v>
+        <v>5.573869562740072</v>
       </c>
       <c r="N17">
-        <v>0.3920660416051884</v>
+        <v>4.770934032383025</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08671015488732792</v>
+        <v>0.02847159223027518</v>
       </c>
       <c r="D18">
-        <v>0.3938837463208102</v>
+        <v>0.0625669770173829</v>
       </c>
       <c r="E18">
-        <v>0.03101200941683047</v>
+        <v>0.02752064021592382</v>
       </c>
       <c r="F18">
-        <v>11.45407135352747</v>
+        <v>3.550333291683359</v>
       </c>
       <c r="G18">
-        <v>0.0007118053958435872</v>
+        <v>3.846401377858882</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.966657717311904</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.655794879808468</v>
       </c>
       <c r="J18">
-        <v>0.07882339277938399</v>
+        <v>0.02455542758493667</v>
       </c>
       <c r="K18">
-        <v>10.49160911243163</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1583108734780012</v>
+        <v>0.04313348371711001</v>
       </c>
       <c r="M18">
-        <v>6.626535478855686</v>
+        <v>5.434966230806992</v>
       </c>
       <c r="N18">
-        <v>0.4175246982045451</v>
+        <v>4.668779320351859</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08625502779240435</v>
+        <v>0.02843347018417042</v>
       </c>
       <c r="D19">
-        <v>0.3885488614299675</v>
+        <v>0.06207642138240743</v>
       </c>
       <c r="E19">
-        <v>0.03074597762624443</v>
+        <v>0.02754484725008943</v>
       </c>
       <c r="F19">
-        <v>11.33424866840153</v>
+        <v>3.521089277966155</v>
       </c>
       <c r="G19">
-        <v>0.0007145794534807057</v>
+        <v>3.812251872540088</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.95138409050216</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.633699107883871</v>
       </c>
       <c r="J19">
-        <v>0.07876981197275157</v>
+        <v>0.02478329490059572</v>
       </c>
       <c r="K19">
-        <v>10.37334707779149</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1563197193072128</v>
+        <v>0.04320897386125111</v>
       </c>
       <c r="M19">
-        <v>6.553773177852349</v>
+        <v>5.388021745765769</v>
       </c>
       <c r="N19">
-        <v>0.426185882113586</v>
+        <v>4.63423175426442</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0883568610963934</v>
+        <v>0.02860697934698742</v>
       </c>
       <c r="D20">
-        <v>0.4131650035131713</v>
+        <v>0.06429418217034311</v>
       </c>
       <c r="E20">
-        <v>0.03196783913972112</v>
+        <v>0.02743711211077215</v>
       </c>
       <c r="F20">
-        <v>11.88706122679491</v>
+        <v>3.653684808958502</v>
       </c>
       <c r="G20">
-        <v>0.0007019567706338881</v>
+        <v>3.967014512583148</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.020653801436396</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.73387880285776</v>
       </c>
       <c r="J20">
-        <v>0.07907004956011576</v>
+        <v>0.02376648222781608</v>
       </c>
       <c r="K20">
-        <v>10.91523659290294</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.16545521671339</v>
+        <v>0.04287172679974205</v>
       </c>
       <c r="M20">
-        <v>6.88718044549438</v>
+        <v>5.599619465720735</v>
       </c>
       <c r="N20">
-        <v>0.3873742972938352</v>
+        <v>4.789860110068958</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09661867476566499</v>
+        <v>0.02922798292921414</v>
       </c>
       <c r="D21">
-        <v>0.5098914322632311</v>
+        <v>0.07194894820052866</v>
       </c>
       <c r="E21">
-        <v>0.03665101707722229</v>
+        <v>0.02709619309297473</v>
       </c>
       <c r="F21">
-        <v>14.05424128470753</v>
+        <v>4.118303344189428</v>
       </c>
       <c r="G21">
-        <v>0.000656188561019386</v>
+        <v>4.507939849313743</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.263696720885321</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.084823349461374</v>
       </c>
       <c r="J21">
-        <v>0.08139066569758313</v>
+        <v>0.02050798860103509</v>
       </c>
       <c r="K21">
-        <v>12.957819316035</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2002012119585217</v>
+        <v>0.04178141755246401</v>
       </c>
       <c r="M21">
-        <v>8.143797482415266</v>
+        <v>6.317335165589668</v>
       </c>
       <c r="N21">
-        <v>0.2601895985105926</v>
+        <v>5.315808956459421</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1034098334703941</v>
+        <v>0.02966746078650218</v>
       </c>
       <c r="D22">
-        <v>0.5901046632172324</v>
+        <v>0.07713701738487089</v>
       </c>
       <c r="E22">
-        <v>0.04042881929679432</v>
+        <v>0.02688918706145316</v>
       </c>
       <c r="F22">
-        <v>15.84010797209709</v>
+        <v>4.438501972118701</v>
       </c>
       <c r="G22">
-        <v>0.0006219925446931178</v>
+        <v>4.879669065527253</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.431443917096715</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.326616642729832</v>
       </c>
       <c r="J22">
-        <v>0.08441879282561615</v>
+        <v>0.01850533322817904</v>
       </c>
       <c r="K22">
-        <v>14.55880509770077</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2278484148267879</v>
+        <v>0.04110018099019896</v>
       </c>
       <c r="M22">
-        <v>9.128312272332806</v>
+        <v>6.792512682809871</v>
       </c>
       <c r="N22">
-        <v>0.1801072186500132</v>
+        <v>5.662154635568129</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09961073074838112</v>
+        <v>0.02942944896668465</v>
       </c>
       <c r="D23">
-        <v>0.5451095850469017</v>
+        <v>0.07434871632338513</v>
       </c>
       <c r="E23">
-        <v>0.03831923370685253</v>
+        <v>0.02699821517406065</v>
       </c>
       <c r="F23">
-        <v>14.83991498257194</v>
+        <v>4.265931592545542</v>
       </c>
       <c r="G23">
-        <v>0.0006408057404713185</v>
+        <v>4.679423123408071</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.341013713359644</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.196308434222573</v>
       </c>
       <c r="J23">
-        <v>0.08261343789827436</v>
+        <v>0.01956193024952846</v>
       </c>
       <c r="K23">
-        <v>13.67037731721254</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2124565896092321</v>
+        <v>0.04146094303751013</v>
       </c>
       <c r="M23">
-        <v>8.582046168073134</v>
+        <v>6.538268123813566</v>
       </c>
       <c r="N23">
-        <v>0.2225093327971042</v>
+        <v>5.477042342847938</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08823776123819016</v>
+        <v>0.02859731989443404</v>
       </c>
       <c r="D24">
-        <v>0.411771323236735</v>
+        <v>0.06417170565379848</v>
       </c>
       <c r="E24">
-        <v>0.03189903685318107</v>
+        <v>0.02744294941788983</v>
       </c>
       <c r="F24">
-        <v>11.85576939107233</v>
+        <v>3.646336739572803</v>
       </c>
       <c r="G24">
-        <v>0.0007026596056509169</v>
+        <v>3.958442943012727</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.016813920223967</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.72832745126739</v>
       </c>
       <c r="J24">
-        <v>0.07904951987147513</v>
+        <v>0.02382174891795108</v>
       </c>
       <c r="K24">
-        <v>10.8848119652472</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1649414800961324</v>
+        <v>0.04289008461067212</v>
       </c>
       <c r="M24">
-        <v>6.868461066611275</v>
+        <v>5.587976491274759</v>
       </c>
       <c r="N24">
-        <v>0.3894946193536555</v>
+        <v>4.781303017317441</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07931638732728175</v>
+        <v>0.02781242827791175</v>
       </c>
       <c r="D25">
-        <v>0.3064894960523645</v>
+        <v>0.0537853799852428</v>
       </c>
       <c r="E25">
-        <v>0.02655186959567679</v>
+        <v>0.02798989879213831</v>
       </c>
       <c r="F25">
-        <v>9.492744962700556</v>
+        <v>3.034990998412155</v>
       </c>
       <c r="G25">
-        <v>0.0007603753776387404</v>
+        <v>3.243051430761028</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.697866024093912</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.266314493140953</v>
       </c>
       <c r="J25">
-        <v>0.07887954941838871</v>
+        <v>0.02890427965184195</v>
       </c>
       <c r="K25">
-        <v>8.491730069207051</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1248014960026325</v>
+        <v>0.0445694290851506</v>
       </c>
       <c r="M25">
-        <v>5.396272478186631</v>
+        <v>4.582713098201694</v>
       </c>
       <c r="N25">
-        <v>0.5792771440946982</v>
+        <v>4.03999958067584</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.027304447779958</v>
+        <v>0.0701390890922422</v>
       </c>
       <c r="D2">
-        <v>0.04646508520001902</v>
+        <v>0.04032838679386685</v>
       </c>
       <c r="E2">
-        <v>0.02845008432008811</v>
+        <v>0.07901352074717938</v>
       </c>
       <c r="F2">
-        <v>2.621035910296172</v>
+        <v>3.368790720019547</v>
       </c>
       <c r="G2">
-        <v>2.755415983456629</v>
+        <v>2.827899931590707</v>
       </c>
       <c r="H2">
-        <v>1.482649280289166</v>
+        <v>2.157152832125377</v>
       </c>
       <c r="I2">
-        <v>1.953250994275081</v>
+        <v>2.450567854647474</v>
       </c>
       <c r="J2">
-        <v>0.03301260235664616</v>
+        <v>0.1419983326899126</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.04592698439465615</v>
+        <v>0.1312270981406698</v>
       </c>
       <c r="M2">
-        <v>3.853626143750517</v>
+        <v>2.106278628605764</v>
       </c>
       <c r="N2">
-        <v>3.5000148980277</v>
+        <v>1.709010351748532</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02699371609165446</v>
+        <v>0.07019576171442665</v>
       </c>
       <c r="D3">
-        <v>0.0416371655264598</v>
+        <v>0.0388712597791212</v>
       </c>
       <c r="E3">
-        <v>0.02879771822619581</v>
+        <v>0.07938678922177633</v>
       </c>
       <c r="F3">
-        <v>2.357866580412107</v>
+        <v>3.339319399046587</v>
       </c>
       <c r="G3">
-        <v>2.443481757469812</v>
+        <v>2.78221808063023</v>
       </c>
       <c r="H3">
-        <v>1.346276855503447</v>
+        <v>2.14481270504649</v>
       </c>
       <c r="I3">
-        <v>1.754083497810882</v>
+        <v>2.427408465613127</v>
       </c>
       <c r="J3">
-        <v>0.03600269753111007</v>
+        <v>0.143944590481131</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.04692328780515531</v>
+        <v>0.1320584992834277</v>
       </c>
       <c r="M3">
-        <v>3.364079686710596</v>
+        <v>1.964616331717806</v>
       </c>
       <c r="N3">
-        <v>3.136841652143517</v>
+        <v>1.591420942624381</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02681681487435483</v>
+        <v>0.07023673873804981</v>
       </c>
       <c r="D4">
-        <v>0.03871913950748862</v>
+        <v>0.03796538945656636</v>
       </c>
       <c r="E4">
-        <v>0.02902878821249821</v>
+        <v>0.07963195359584585</v>
       </c>
       <c r="F4">
-        <v>2.203393526378662</v>
+        <v>3.323443527612227</v>
       </c>
       <c r="G4">
-        <v>2.259460974472631</v>
+        <v>2.756208700271117</v>
       </c>
       <c r="H4">
-        <v>1.266448885993981</v>
+        <v>2.138551629271404</v>
       </c>
       <c r="I4">
-        <v>1.637109206987219</v>
+        <v>2.414820296893438</v>
       </c>
       <c r="J4">
-        <v>0.03793360281488667</v>
+        <v>0.1452005163988495</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.04757278572121137</v>
+        <v>0.1326024201178626</v>
       </c>
       <c r="M4">
-        <v>3.065104523707362</v>
+        <v>1.877837593800123</v>
       </c>
       <c r="N4">
-        <v>2.914981119457366</v>
+        <v>1.519549085024892</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02674788179689358</v>
+        <v>0.07025499253766654</v>
       </c>
       <c r="D5">
-        <v>0.03753916025519288</v>
+        <v>0.03759338453865269</v>
       </c>
       <c r="E5">
-        <v>0.02912737956446421</v>
+        <v>0.079735888510859</v>
       </c>
       <c r="F5">
-        <v>2.142040578496449</v>
+        <v>3.317529384121428</v>
       </c>
       <c r="G5">
-        <v>2.186142179489934</v>
+        <v>2.746119209988194</v>
       </c>
       <c r="H5">
-        <v>1.234798144876578</v>
+        <v>2.136329729054523</v>
       </c>
       <c r="I5">
-        <v>1.590632574048755</v>
+        <v>2.41009875729894</v>
       </c>
       <c r="J5">
-        <v>0.03874343967341831</v>
+        <v>0.1457276237483076</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.04784696792089527</v>
+        <v>0.1328325005436479</v>
       </c>
       <c r="M5">
-        <v>2.94359202687761</v>
+        <v>1.842527533261972</v>
       </c>
       <c r="N5">
-        <v>2.824824536367998</v>
+        <v>1.4903466476338</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02673661709264863</v>
+        <v>0.07025811754684064</v>
       </c>
       <c r="D6">
-        <v>0.03734370951186605</v>
+        <v>0.03753143972681983</v>
       </c>
       <c r="E6">
-        <v>0.02914401797644928</v>
+        <v>0.07975339045896312</v>
       </c>
       <c r="F6">
-        <v>2.131944082115496</v>
+        <v>3.316580810646045</v>
       </c>
       <c r="G6">
-        <v>2.174062642674613</v>
+        <v>2.744474537472058</v>
       </c>
       <c r="H6">
-        <v>1.22959290096054</v>
+        <v>2.135980649020354</v>
       </c>
       <c r="I6">
-        <v>1.582983137138598</v>
+        <v>2.409339345628837</v>
       </c>
       <c r="J6">
-        <v>0.03887927506912847</v>
+        <v>0.1458160737469942</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.04789307001622767</v>
+        <v>0.1328712148635329</v>
       </c>
       <c r="M6">
-        <v>2.923432210641508</v>
+        <v>1.836667585926605</v>
       </c>
       <c r="N6">
-        <v>2.809868574604593</v>
+        <v>1.485502893696406</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02681587285434794</v>
+        <v>0.07023697861601264</v>
       </c>
       <c r="D7">
-        <v>0.03870319200193961</v>
+        <v>0.03796038408495406</v>
       </c>
       <c r="E7">
-        <v>0.02903009992252414</v>
+        <v>0.07963333897243885</v>
       </c>
       <c r="F7">
-        <v>2.20255987789038</v>
+        <v>3.323361522178061</v>
       </c>
       <c r="G7">
-        <v>2.258465676308077</v>
+        <v>2.756070571064441</v>
       </c>
       <c r="H7">
-        <v>1.266018598588289</v>
+        <v>2.138520331391504</v>
       </c>
       <c r="I7">
-        <v>1.636477764929936</v>
+        <v>2.414754970327166</v>
       </c>
       <c r="J7">
-        <v>0.0379444326695566</v>
+        <v>0.145207563186585</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.04757644493736279</v>
+        <v>0.1326054889102135</v>
       </c>
       <c r="M7">
-        <v>3.063464560479076</v>
+        <v>1.877361172699182</v>
       </c>
       <c r="N7">
-        <v>2.913764248430653</v>
+        <v>1.51915489837711</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02719420700635489</v>
+        <v>0.07015734797886353</v>
       </c>
       <c r="D8">
-        <v>0.04478919600683184</v>
+        <v>0.0398282658379685</v>
       </c>
       <c r="E8">
-        <v>0.02856628959037266</v>
+        <v>0.07913891460288003</v>
       </c>
       <c r="F8">
-        <v>2.528696428265533</v>
+        <v>3.358166641613494</v>
       </c>
       <c r="G8">
-        <v>2.646165306080292</v>
+        <v>2.811723521702191</v>
       </c>
       <c r="H8">
-        <v>1.434752735136271</v>
+        <v>2.152624041320564</v>
       </c>
       <c r="I8">
-        <v>1.883382772814471</v>
+        <v>2.442242541672812</v>
       </c>
       <c r="J8">
-        <v>0.03402330902715534</v>
+        <v>0.1426567532166332</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.04626268074678208</v>
+        <v>0.1315068375485939</v>
       </c>
       <c r="M8">
-        <v>3.684444120225592</v>
+        <v>2.05739262430366</v>
       </c>
       <c r="N8">
-        <v>3.374538848583768</v>
+        <v>1.668399276084045</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02806440329983673</v>
+        <v>0.07005017773459343</v>
       </c>
       <c r="D9">
-        <v>0.05722253118413079</v>
+        <v>0.04340444336660454</v>
       </c>
       <c r="E9">
-        <v>0.0277967146585274</v>
+        <v>0.07829561255872886</v>
       </c>
       <c r="F9">
-        <v>3.234534492642638</v>
+        <v>3.444164537521033</v>
       </c>
       <c r="G9">
-        <v>3.477090114696267</v>
+        <v>2.937200611373157</v>
       </c>
       <c r="H9">
-        <v>1.801846792430297</v>
+        <v>2.19078702994014</v>
       </c>
       <c r="I9">
-        <v>2.417152053664438</v>
+        <v>2.509194395350875</v>
       </c>
       <c r="J9">
-        <v>0.02713208692369395</v>
+        <v>0.1381383500697555</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.04398506658840695</v>
+        <v>0.1296167824860959</v>
       </c>
       <c r="M9">
-        <v>4.919263887689539</v>
+        <v>2.411969417942259</v>
       </c>
       <c r="N9">
-        <v>4.28867725588961</v>
+        <v>1.963545378273579</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02881278423923561</v>
+        <v>0.07000125405009783</v>
       </c>
       <c r="D10">
-        <v>0.06687747213689477</v>
+        <v>0.04598202965242848</v>
       </c>
       <c r="E10">
-        <v>0.02731692193921464</v>
+        <v>0.07775232391770004</v>
       </c>
       <c r="F10">
-        <v>3.80933226528046</v>
+        <v>3.518363652810734</v>
       </c>
       <c r="G10">
-        <v>4.148449386063106</v>
+        <v>3.039587960743233</v>
       </c>
       <c r="H10">
-        <v>2.102020587597735</v>
+        <v>2.225327803561498</v>
       </c>
       <c r="I10">
-        <v>2.851459673859125</v>
+        <v>2.566489567977229</v>
       </c>
       <c r="J10">
-        <v>0.0226243494234315</v>
+        <v>0.1351139928571525</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.04249149710789268</v>
+        <v>0.1283880808755029</v>
       </c>
       <c r="M10">
-        <v>5.844029179113789</v>
+        <v>2.673346933605814</v>
       </c>
       <c r="N10">
-        <v>4.969315266262299</v>
+        <v>2.181753477840402</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02918590259810472</v>
+        <v>0.06998546366672898</v>
       </c>
       <c r="D11">
-        <v>0.07144288614564687</v>
+        <v>0.04714449631204332</v>
       </c>
       <c r="E11">
-        <v>0.02711736573365897</v>
+        <v>0.07752158597416781</v>
       </c>
       <c r="F11">
-        <v>4.087283371258223</v>
+        <v>3.5545553592587</v>
       </c>
       <c r="G11">
-        <v>4.471885170929397</v>
+        <v>3.088434233830696</v>
       </c>
       <c r="H11">
-        <v>2.247455999057308</v>
+        <v>2.242475271690466</v>
       </c>
       <c r="I11">
-        <v>3.061396505071571</v>
+        <v>2.594348453704825</v>
       </c>
       <c r="J11">
-        <v>0.02071193859350995</v>
+        <v>0.1338023513148801</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.04185022835618568</v>
+        <v>0.1278635702591586</v>
       </c>
       <c r="M11">
-        <v>6.270495692440051</v>
+        <v>2.792431668994141</v>
       </c>
       <c r="N11">
-        <v>5.281583373772833</v>
+        <v>2.281289632159201</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02933285588058077</v>
+        <v>0.06998041327729965</v>
       </c>
       <c r="D12">
-        <v>0.07320283461612576</v>
+        <v>0.04758329241521153</v>
       </c>
       <c r="E12">
-        <v>0.02704450680053583</v>
+        <v>0.07743655926504012</v>
       </c>
       <c r="F12">
-        <v>4.195332196352496</v>
+        <v>3.568614296144943</v>
       </c>
       <c r="G12">
-        <v>4.597437120605662</v>
+        <v>3.107261556160438</v>
       </c>
       <c r="H12">
-        <v>2.304033741639557</v>
+        <v>2.249176600339069</v>
       </c>
       <c r="I12">
-        <v>3.142994869668954</v>
+        <v>2.605158648384148</v>
       </c>
       <c r="J12">
-        <v>0.02000936117387475</v>
+        <v>0.1333149044602218</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04161278322519024</v>
+        <v>0.1276698823614204</v>
       </c>
       <c r="M12">
-        <v>6.433017069041853</v>
+        <v>2.837550734306603</v>
       </c>
       <c r="N12">
-        <v>5.400273981128407</v>
+        <v>2.319017725263848</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02930093736671324</v>
+        <v>0.06998145965727787</v>
       </c>
       <c r="D13">
-        <v>0.07282230203737328</v>
+        <v>0.0474888515591374</v>
       </c>
       <c r="E13">
-        <v>0.02706007740656435</v>
+        <v>0.07745476699468323</v>
       </c>
       <c r="F13">
-        <v>4.171930080409908</v>
+        <v>3.56557065817276</v>
       </c>
       <c r="G13">
-        <v>4.570252000244579</v>
+        <v>3.103192002280366</v>
       </c>
       <c r="H13">
-        <v>2.29177776518992</v>
+        <v>2.247724073867175</v>
       </c>
       <c r="I13">
-        <v>3.125322100266558</v>
+        <v>2.60281884694281</v>
       </c>
       <c r="J13">
-        <v>0.02015968229493792</v>
+        <v>0.1334194734687193</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.04166368349681804</v>
+        <v>0.12771137741559</v>
       </c>
       <c r="M13">
-        <v>6.397965969881994</v>
+        <v>2.827832489045534</v>
       </c>
       <c r="N13">
-        <v>5.374691135826708</v>
+        <v>2.310890758972334</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02919787277326336</v>
+        <v>0.06998502955219266</v>
       </c>
       <c r="D14">
-        <v>0.07158701451101024</v>
+        <v>0.0471806242189885</v>
       </c>
       <c r="E14">
-        <v>0.02711131715874338</v>
+        <v>0.07751454376359579</v>
       </c>
       <c r="F14">
-        <v>4.096113901611801</v>
+        <v>3.555704884077102</v>
       </c>
       <c r="G14">
-        <v>4.482149750929409</v>
+        <v>3.089976526642175</v>
       </c>
       <c r="H14">
-        <v>2.252079092638098</v>
+        <v>2.243022416757526</v>
       </c>
       <c r="I14">
-        <v>3.068065530812348</v>
+        <v>2.595232576743612</v>
       </c>
       <c r="J14">
-        <v>0.02065369317046573</v>
+        <v>0.1337620634136019</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.04183058626729874</v>
+        <v>0.1278475366812799</v>
       </c>
       <c r="M14">
-        <v>6.283844577265796</v>
+        <v>2.796143166865505</v>
       </c>
       <c r="N14">
-        <v>5.291338893236343</v>
+        <v>2.284392843647481</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02913551230074773</v>
+        <v>0.06998733719325756</v>
       </c>
       <c r="D15">
-        <v>0.07083462328389345</v>
+        <v>0.04699164451082538</v>
       </c>
       <c r="E15">
-        <v>0.02714305644988091</v>
+        <v>0.07755146432369919</v>
       </c>
       <c r="F15">
-        <v>4.050052142774604</v>
+        <v>3.549708003391515</v>
       </c>
       <c r="G15">
-        <v>4.428600560169457</v>
+        <v>3.081924798132434</v>
       </c>
       <c r="H15">
-        <v>2.227965835394571</v>
+        <v>2.240169647310552</v>
       </c>
       <c r="I15">
-        <v>3.033278159056394</v>
+        <v>2.590619785630665</v>
       </c>
       <c r="J15">
-        <v>0.02095915927888203</v>
+        <v>0.1339731139455096</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.04193351743747087</v>
+        <v>0.1279315800272016</v>
       </c>
       <c r="M15">
-        <v>6.214082189176082</v>
+        <v>2.77673564216667</v>
       </c>
       <c r="N15">
-        <v>5.240342689425688</v>
+        <v>2.268166687334997</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02878913512333803</v>
+        <v>0.07000241603268975</v>
       </c>
       <c r="D16">
-        <v>0.06658310290453784</v>
+        <v>0.04590586061239321</v>
       </c>
       <c r="E16">
-        <v>0.02733034122063493</v>
+        <v>0.07776773243066337</v>
       </c>
       <c r="F16">
-        <v>3.791533799892591</v>
+        <v>3.516047783921579</v>
       </c>
       <c r="G16">
-        <v>4.12771423134501</v>
+        <v>3.036441747922652</v>
       </c>
       <c r="H16">
-        <v>2.092713366002101</v>
+        <v>2.224236185962468</v>
       </c>
       <c r="I16">
-        <v>2.838014947362254</v>
+        <v>2.564705258833087</v>
       </c>
       <c r="J16">
-        <v>0.02275225398646574</v>
+        <v>0.1352010041917722</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.04253416575459568</v>
+        <v>0.128423050163164</v>
       </c>
       <c r="M16">
-        <v>5.816290968067904</v>
+        <v>2.665567970168041</v>
       </c>
       <c r="N16">
-        <v>4.948966059765212</v>
+        <v>2.1752537558732</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02858563380276458</v>
+        <v>0.07001332185451048</v>
       </c>
       <c r="D17">
-        <v>0.06402338019332632</v>
+        <v>0.04523721562673444</v>
       </c>
       <c r="E17">
-        <v>0.02745003598137963</v>
+        <v>0.07790460058114768</v>
       </c>
       <c r="F17">
-        <v>3.637441749333988</v>
+        <v>3.496025141741057</v>
       </c>
       <c r="G17">
-        <v>3.948066122584947</v>
+        <v>3.009123469261851</v>
       </c>
       <c r="H17">
-        <v>2.012165841060153</v>
+        <v>2.214830144773089</v>
       </c>
       <c r="I17">
-        <v>2.721607375692088</v>
+        <v>2.54926906073571</v>
       </c>
       <c r="J17">
-        <v>0.02388881717580649</v>
+        <v>0.135970719139884</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.04291235793610326</v>
+        <v>0.1287333569056557</v>
       </c>
       <c r="M17">
-        <v>5.573869562740072</v>
+        <v>2.597415565979475</v>
       </c>
       <c r="N17">
-        <v>4.770934032383025</v>
+        <v>2.118322080474172</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02847159223027518</v>
+        <v>0.07002020316499191</v>
       </c>
       <c r="D18">
-        <v>0.0625669770173829</v>
+        <v>0.04485167616834218</v>
       </c>
       <c r="E18">
-        <v>0.02752064021592382</v>
+        <v>0.07798486843478347</v>
       </c>
       <c r="F18">
-        <v>3.550333291683359</v>
+        <v>3.4847379361712</v>
       </c>
       <c r="G18">
-        <v>3.846401377858882</v>
+        <v>2.993624119955086</v>
       </c>
       <c r="H18">
-        <v>1.966657717311904</v>
+        <v>2.20955497860416</v>
       </c>
       <c r="I18">
-        <v>2.655794879808468</v>
+        <v>2.540559370723685</v>
       </c>
       <c r="J18">
-        <v>0.02455542758493667</v>
+        <v>0.1364194761661515</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.04313348371711001</v>
+        <v>0.1289150791254272</v>
       </c>
       <c r="M18">
-        <v>5.434966230806992</v>
+        <v>2.558233429035653</v>
       </c>
       <c r="N18">
-        <v>4.668779320351859</v>
+        <v>2.085602296101456</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02843347018417042</v>
+        <v>0.07002263760107397</v>
       </c>
       <c r="D19">
-        <v>0.06207642138240743</v>
+        <v>0.04472097413574261</v>
       </c>
       <c r="E19">
-        <v>0.02754484725008943</v>
+        <v>0.07801231141212828</v>
       </c>
       <c r="F19">
-        <v>3.521089277966155</v>
+        <v>3.480955562702633</v>
       </c>
       <c r="G19">
-        <v>3.812251872540088</v>
+        <v>2.988412840534352</v>
       </c>
       <c r="H19">
-        <v>1.95138409050216</v>
+        <v>2.207792024392973</v>
       </c>
       <c r="I19">
-        <v>2.633699107883871</v>
+        <v>2.537639335444851</v>
       </c>
       <c r="J19">
-        <v>0.02478329490059572</v>
+        <v>0.1365724539580842</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.04320897386125111</v>
+        <v>0.1289771645217499</v>
       </c>
       <c r="M19">
-        <v>5.388021745765769</v>
+        <v>2.54497006848618</v>
       </c>
       <c r="N19">
-        <v>4.63423175426442</v>
+        <v>2.074528471526037</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02860697934698742</v>
+        <v>0.07001209793045149</v>
       </c>
       <c r="D20">
-        <v>0.06429418217034311</v>
+        <v>0.04530849227999312</v>
       </c>
       <c r="E20">
-        <v>0.02743711211077215</v>
+        <v>0.07788987091661159</v>
       </c>
       <c r="F20">
-        <v>3.653684808958502</v>
+        <v>3.498132831843918</v>
       </c>
       <c r="G20">
-        <v>3.967014512583148</v>
+        <v>3.012009432256548</v>
       </c>
       <c r="H20">
-        <v>2.020653801436396</v>
+        <v>2.215817456328239</v>
       </c>
       <c r="I20">
-        <v>2.73387880285776</v>
+        <v>2.550894781843255</v>
       </c>
       <c r="J20">
-        <v>0.02376648222781608</v>
+        <v>0.1358881566978525</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.04287172679974205</v>
+        <v>0.1286999888233993</v>
       </c>
       <c r="M20">
-        <v>5.599619465720735</v>
+        <v>2.604668727662926</v>
       </c>
       <c r="N20">
-        <v>4.789860110068958</v>
+        <v>2.12437990690745</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02922798292921414</v>
+        <v>0.06998395577587857</v>
       </c>
       <c r="D21">
-        <v>0.07194894820052866</v>
+        <v>0.04727119581429662</v>
       </c>
       <c r="E21">
-        <v>0.02709619309297473</v>
+        <v>0.07749692221725546</v>
       </c>
       <c r="F21">
-        <v>4.118303344189428</v>
+        <v>3.558593068938279</v>
       </c>
       <c r="G21">
-        <v>4.507939849313743</v>
+        <v>3.093849236455696</v>
       </c>
       <c r="H21">
-        <v>2.263696720885321</v>
+        <v>2.244397750292194</v>
       </c>
       <c r="I21">
-        <v>3.084823349461374</v>
+        <v>2.597453754222869</v>
       </c>
       <c r="J21">
-        <v>0.02050798860103509</v>
+        <v>0.1336611854342844</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.04178141755246401</v>
+        <v>0.1278074096733555</v>
       </c>
       <c r="M21">
-        <v>6.317335165589668</v>
+        <v>2.805450446427926</v>
       </c>
       <c r="N21">
-        <v>5.315808956459421</v>
+        <v>2.292174974504576</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02966746078650218</v>
+        <v>0.06997097846754841</v>
       </c>
       <c r="D22">
-        <v>0.07713701738487089</v>
+        <v>0.04854576978338798</v>
       </c>
       <c r="E22">
-        <v>0.02688918706145316</v>
+        <v>0.07725379291625867</v>
       </c>
       <c r="F22">
-        <v>4.438501972118701</v>
+        <v>3.600171849385703</v>
       </c>
       <c r="G22">
-        <v>4.879669065527253</v>
+        <v>3.149263378523244</v>
       </c>
       <c r="H22">
-        <v>2.431443917096715</v>
+        <v>2.264289532260079</v>
       </c>
       <c r="I22">
-        <v>3.326616642729832</v>
+        <v>2.629403141433869</v>
       </c>
       <c r="J22">
-        <v>0.01850533322817904</v>
+        <v>0.1322596168824073</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.04110018099019896</v>
+        <v>0.1272528017879324</v>
       </c>
       <c r="M22">
-        <v>6.792512682809871</v>
+        <v>2.936813409456079</v>
       </c>
       <c r="N22">
-        <v>5.662154635568129</v>
+        <v>2.40204661557118</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02942944896668465</v>
+        <v>0.06997740938394159</v>
       </c>
       <c r="D23">
-        <v>0.07434871632338513</v>
+        <v>0.04786623743321883</v>
       </c>
       <c r="E23">
-        <v>0.02699821517406065</v>
+        <v>0.07738230686221037</v>
       </c>
       <c r="F23">
-        <v>4.265931592545542</v>
+        <v>3.57779045475138</v>
       </c>
       <c r="G23">
-        <v>4.679423123408071</v>
+        <v>3.119510167939154</v>
       </c>
       <c r="H23">
-        <v>2.341013713359644</v>
+        <v>2.25356137950007</v>
       </c>
       <c r="I23">
-        <v>3.196308434222573</v>
+        <v>2.612211190739231</v>
       </c>
       <c r="J23">
-        <v>0.01956193024952846</v>
+        <v>0.1330027237399087</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.04146094303751013</v>
+        <v>0.1275461824080537</v>
       </c>
       <c r="M23">
-        <v>6.538268123813566</v>
+        <v>2.866690324455789</v>
       </c>
       <c r="N23">
-        <v>5.477042342847938</v>
+        <v>2.343388084879905</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02859731989443404</v>
+        <v>0.07001264936251061</v>
       </c>
       <c r="D24">
-        <v>0.06417170565379848</v>
+        <v>0.04527627161787251</v>
       </c>
       <c r="E24">
-        <v>0.02744294941788983</v>
+        <v>0.07789652527402247</v>
       </c>
       <c r="F24">
-        <v>3.646336739572803</v>
+        <v>3.497179247445047</v>
       </c>
       <c r="G24">
-        <v>3.958442943012727</v>
+        <v>3.01070404612463</v>
       </c>
       <c r="H24">
-        <v>2.016813920223967</v>
+        <v>2.215370680214136</v>
       </c>
       <c r="I24">
-        <v>2.72832745126739</v>
+        <v>2.550159280248877</v>
       </c>
       <c r="J24">
-        <v>0.02382174891795108</v>
+        <v>0.1359254637500786</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.04289008461067212</v>
+        <v>0.1287150641825079</v>
       </c>
       <c r="M24">
-        <v>5.587976491274759</v>
+        <v>2.601389574394148</v>
       </c>
       <c r="N24">
-        <v>4.781303017317441</v>
+        <v>2.121641129086584</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02781242827791175</v>
+        <v>0.07007393122528072</v>
       </c>
       <c r="D25">
-        <v>0.0537853799852428</v>
+        <v>0.04244596567370706</v>
       </c>
       <c r="E25">
-        <v>0.02798989879213831</v>
+        <v>0.07851030196583686</v>
       </c>
       <c r="F25">
-        <v>3.034990998412155</v>
+        <v>3.418979775877375</v>
       </c>
       <c r="G25">
-        <v>3.243051430761028</v>
+        <v>2.901481971012288</v>
       </c>
       <c r="H25">
-        <v>1.697866024093912</v>
+        <v>2.179328224270392</v>
       </c>
       <c r="I25">
-        <v>2.266314493140953</v>
+        <v>2.489669757359565</v>
       </c>
       <c r="J25">
-        <v>0.02890427965184195</v>
+        <v>0.1393088695637883</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.0445694290851506</v>
+        <v>0.1300999177186348</v>
       </c>
       <c r="M25">
-        <v>4.582713098201694</v>
+        <v>2.315889609796187</v>
       </c>
       <c r="N25">
-        <v>4.03999958067584</v>
+        <v>1.883450603060282</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
@@ -424,40 +424,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0701390890922422</v>
+        <v>0.0273044477804234</v>
       </c>
       <c r="D2">
-        <v>0.04032838679386685</v>
+        <v>0.04646508519990533</v>
       </c>
       <c r="E2">
-        <v>0.07901352074717938</v>
+        <v>0.02845008432014584</v>
       </c>
       <c r="F2">
-        <v>3.368790720019547</v>
+        <v>2.621035910296115</v>
       </c>
       <c r="G2">
-        <v>2.827899931590707</v>
+        <v>2.755415983456601</v>
       </c>
       <c r="H2">
-        <v>2.157152832125377</v>
+        <v>1.482649280289166</v>
       </c>
       <c r="I2">
-        <v>2.450567854647474</v>
+        <v>1.953250994275066</v>
       </c>
       <c r="J2">
-        <v>0.1419983326899126</v>
+        <v>0.03301260235670078</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1312270981406698</v>
+        <v>0.04592698439471299</v>
       </c>
       <c r="M2">
-        <v>2.106278628605764</v>
+        <v>3.853626143750489</v>
       </c>
       <c r="N2">
-        <v>1.709010351748532</v>
+        <v>3.500014898027558</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,40 +471,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07019576171442665</v>
+        <v>0.02699371609119794</v>
       </c>
       <c r="D3">
-        <v>0.0388712597791212</v>
+        <v>0.04163716552645269</v>
       </c>
       <c r="E3">
-        <v>0.07938678922177633</v>
+        <v>0.02879771822622512</v>
       </c>
       <c r="F3">
-        <v>3.339319399046587</v>
+        <v>2.357866580412093</v>
       </c>
       <c r="G3">
-        <v>2.78221808063023</v>
+        <v>2.44348175746984</v>
       </c>
       <c r="H3">
-        <v>2.14481270504649</v>
+        <v>1.346276855503476</v>
       </c>
       <c r="I3">
-        <v>2.427408465613127</v>
+        <v>1.754083497810868</v>
       </c>
       <c r="J3">
-        <v>0.143944590481131</v>
+        <v>0.0360026975311234</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1320584992834277</v>
+        <v>0.0469232878051038</v>
       </c>
       <c r="M3">
-        <v>1.964616331717806</v>
+        <v>3.364079686710596</v>
       </c>
       <c r="N3">
-        <v>1.591420942624381</v>
+        <v>3.136841652143403</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,40 +518,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07023673873804981</v>
+        <v>0.02681681487412213</v>
       </c>
       <c r="D4">
-        <v>0.03796538945656636</v>
+        <v>0.03871913950737138</v>
       </c>
       <c r="E4">
-        <v>0.07963195359584585</v>
+        <v>0.0290287882124991</v>
       </c>
       <c r="F4">
-        <v>3.323443527612227</v>
+        <v>2.203393526378647</v>
       </c>
       <c r="G4">
-        <v>2.756208700271117</v>
+        <v>2.259460974472631</v>
       </c>
       <c r="H4">
-        <v>2.138551629271404</v>
+        <v>1.266448885994038</v>
       </c>
       <c r="I4">
-        <v>2.414820296893438</v>
+        <v>1.637109206987205</v>
       </c>
       <c r="J4">
-        <v>0.1452005163988495</v>
+        <v>0.03793360281484848</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1326024201178626</v>
+        <v>0.04757278572121848</v>
       </c>
       <c r="M4">
-        <v>1.877837593800123</v>
+        <v>3.065104523707291</v>
       </c>
       <c r="N4">
-        <v>1.519549085024892</v>
+        <v>2.914981119457281</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,40 +565,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.07025499253766654</v>
+        <v>0.02674788179735543</v>
       </c>
       <c r="D5">
-        <v>0.03759338453865269</v>
+        <v>0.03753916025529591</v>
       </c>
       <c r="E5">
-        <v>0.079735888510859</v>
+        <v>0.02912737956444911</v>
       </c>
       <c r="F5">
-        <v>3.317529384121428</v>
+        <v>2.142040578496463</v>
       </c>
       <c r="G5">
-        <v>2.746119209988194</v>
+        <v>2.186142179489906</v>
       </c>
       <c r="H5">
-        <v>2.136329729054523</v>
+        <v>1.234798144876493</v>
       </c>
       <c r="I5">
-        <v>2.41009875729894</v>
+        <v>1.590632574048755</v>
       </c>
       <c r="J5">
-        <v>0.1457276237483076</v>
+        <v>0.03874343967352911</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1328325005436479</v>
+        <v>0.04784696792084375</v>
       </c>
       <c r="M5">
-        <v>1.842527533261972</v>
+        <v>2.943592026877639</v>
       </c>
       <c r="N5">
-        <v>1.4903466476338</v>
+        <v>2.82482453636797</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,40 +612,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.07025811754684064</v>
+        <v>0.02673661709265573</v>
       </c>
       <c r="D6">
-        <v>0.03753143972681983</v>
+        <v>0.03734370951218935</v>
       </c>
       <c r="E6">
-        <v>0.07975339045896312</v>
+        <v>0.02914401797645194</v>
       </c>
       <c r="F6">
-        <v>3.316580810646045</v>
+        <v>2.13194408211551</v>
       </c>
       <c r="G6">
-        <v>2.744474537472058</v>
+        <v>2.174062642674699</v>
       </c>
       <c r="H6">
-        <v>2.135980649020354</v>
+        <v>1.229592900960427</v>
       </c>
       <c r="I6">
-        <v>2.409339345628837</v>
+        <v>1.582983137138612</v>
       </c>
       <c r="J6">
-        <v>0.1458160737469942</v>
+        <v>0.03887927506919087</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1328712148635329</v>
+        <v>0.047893070016233</v>
       </c>
       <c r="M6">
-        <v>1.836667585926605</v>
+        <v>2.923432210641494</v>
       </c>
       <c r="N6">
-        <v>1.485502893696406</v>
+        <v>2.809868574604593</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.07023697861601264</v>
+        <v>0.02681587285436748</v>
       </c>
       <c r="D7">
-        <v>0.03796038408495406</v>
+        <v>0.03870319200216699</v>
       </c>
       <c r="E7">
-        <v>0.07963333897243885</v>
+        <v>0.02903009992253924</v>
       </c>
       <c r="F7">
-        <v>3.323361522178061</v>
+        <v>2.20255987789038</v>
       </c>
       <c r="G7">
-        <v>2.756070571064441</v>
+        <v>2.258465676308049</v>
       </c>
       <c r="H7">
-        <v>2.138520331391504</v>
+        <v>1.266018598588147</v>
       </c>
       <c r="I7">
-        <v>2.414754970327166</v>
+        <v>1.63647776492995</v>
       </c>
       <c r="J7">
-        <v>0.145207563186585</v>
+        <v>0.03794443266955816</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1326054889102135</v>
+        <v>0.04757644493725266</v>
       </c>
       <c r="M7">
-        <v>1.877361172699182</v>
+        <v>3.063464560479034</v>
       </c>
       <c r="N7">
-        <v>1.51915489837711</v>
+        <v>2.913764248430653</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,40 +706,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.07015734797886353</v>
+        <v>0.02719420700567454</v>
       </c>
       <c r="D8">
-        <v>0.0398282658379685</v>
+        <v>0.04478919600683184</v>
       </c>
       <c r="E8">
-        <v>0.07913891460288003</v>
+        <v>0.02856628959043483</v>
       </c>
       <c r="F8">
-        <v>3.358166641613494</v>
+        <v>2.528696428265491</v>
       </c>
       <c r="G8">
-        <v>2.811723521702191</v>
+        <v>2.646165306080349</v>
       </c>
       <c r="H8">
-        <v>2.152624041320564</v>
+        <v>1.4347527351363</v>
       </c>
       <c r="I8">
-        <v>2.442242541672812</v>
+        <v>1.883382772814471</v>
       </c>
       <c r="J8">
-        <v>0.1426567532166332</v>
+        <v>0.0340233090271127</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1315068375485939</v>
+        <v>0.04626268074679984</v>
       </c>
       <c r="M8">
-        <v>2.05739262430366</v>
+        <v>3.684444120225606</v>
       </c>
       <c r="N8">
-        <v>1.668399276084045</v>
+        <v>3.374538848583768</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,40 +753,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07005017773459343</v>
+        <v>0.0280644033003572</v>
       </c>
       <c r="D9">
-        <v>0.04340444336660454</v>
+        <v>0.0572225311840171</v>
       </c>
       <c r="E9">
-        <v>0.07829561255872886</v>
+        <v>0.02779671465855849</v>
       </c>
       <c r="F9">
-        <v>3.444164537521033</v>
+        <v>3.234534492642609</v>
       </c>
       <c r="G9">
-        <v>2.937200611373157</v>
+        <v>3.477090114696324</v>
       </c>
       <c r="H9">
-        <v>2.19078702994014</v>
+        <v>1.801846792430297</v>
       </c>
       <c r="I9">
-        <v>2.509194395350875</v>
+        <v>2.417152053664424</v>
       </c>
       <c r="J9">
-        <v>0.1381383500697555</v>
+        <v>0.02713208692362556</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1296167824860959</v>
+        <v>0.0439850665884034</v>
       </c>
       <c r="M9">
-        <v>2.411969417942259</v>
+        <v>4.919263887689482</v>
       </c>
       <c r="N9">
-        <v>1.963545378273579</v>
+        <v>4.288677255889496</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,40 +800,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.07000125405009783</v>
+        <v>0.02881278423872757</v>
       </c>
       <c r="D10">
-        <v>0.04598202965242848</v>
+        <v>0.06687747213653239</v>
       </c>
       <c r="E10">
-        <v>0.07775232391770004</v>
+        <v>0.02731692193925195</v>
       </c>
       <c r="F10">
-        <v>3.518363652810734</v>
+        <v>3.80933226528046</v>
       </c>
       <c r="G10">
-        <v>3.039587960743233</v>
+        <v>4.148449386063135</v>
       </c>
       <c r="H10">
-        <v>2.225327803561498</v>
+        <v>2.102020587597849</v>
       </c>
       <c r="I10">
-        <v>2.566489567977229</v>
+        <v>2.851459673859139</v>
       </c>
       <c r="J10">
-        <v>0.1351139928571525</v>
+        <v>0.02262434942341285</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1283880808755029</v>
+        <v>0.04249149710798505</v>
       </c>
       <c r="M10">
-        <v>2.673346933605814</v>
+        <v>5.844029179113761</v>
       </c>
       <c r="N10">
-        <v>2.181753477840402</v>
+        <v>4.969315266262186</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,40 +847,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.06998546366672898</v>
+        <v>0.02918590259816867</v>
       </c>
       <c r="D11">
-        <v>0.04714449631204332</v>
+        <v>0.07144288614578187</v>
       </c>
       <c r="E11">
-        <v>0.07752158597416781</v>
+        <v>0.02711736573365631</v>
       </c>
       <c r="F11">
-        <v>3.5545553592587</v>
+        <v>4.087283371258252</v>
       </c>
       <c r="G11">
-        <v>3.088434233830696</v>
+        <v>4.471885170929397</v>
       </c>
       <c r="H11">
-        <v>2.242475271690466</v>
+        <v>2.247455999057252</v>
       </c>
       <c r="I11">
-        <v>2.594348453704825</v>
+        <v>3.061396505071585</v>
       </c>
       <c r="J11">
-        <v>0.1338023513148801</v>
+        <v>0.02071193859355924</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1278635702591586</v>
+        <v>0.04185022835619989</v>
       </c>
       <c r="M11">
-        <v>2.792431668994141</v>
+        <v>6.270495692440051</v>
       </c>
       <c r="N11">
-        <v>2.281289632159201</v>
+        <v>5.281583373772833</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,40 +894,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.06998041327729965</v>
+        <v>0.02933285588037471</v>
       </c>
       <c r="D12">
-        <v>0.04758329241521153</v>
+        <v>0.07320283461613286</v>
       </c>
       <c r="E12">
-        <v>0.07743655926504012</v>
+        <v>0.02704450680051362</v>
       </c>
       <c r="F12">
-        <v>3.568614296144943</v>
+        <v>4.195332196352467</v>
       </c>
       <c r="G12">
-        <v>3.107261556160438</v>
+        <v>4.597437120605662</v>
       </c>
       <c r="H12">
-        <v>2.249176600339069</v>
+        <v>2.304033741639557</v>
       </c>
       <c r="I12">
-        <v>2.605158648384148</v>
+        <v>3.142994869668925</v>
       </c>
       <c r="J12">
-        <v>0.1333149044602218</v>
+        <v>0.02000936117398089</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1276698823614204</v>
+        <v>0.041612783225073</v>
       </c>
       <c r="M12">
-        <v>2.837550734306603</v>
+        <v>6.433017069041853</v>
       </c>
       <c r="N12">
-        <v>2.319017725263848</v>
+        <v>5.400273981128407</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,40 +941,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.06998145965727787</v>
+        <v>0.02930093736700101</v>
       </c>
       <c r="D13">
-        <v>0.0474888515591374</v>
+        <v>0.07282230203715301</v>
       </c>
       <c r="E13">
-        <v>0.07745476699468323</v>
+        <v>0.02706007740652616</v>
       </c>
       <c r="F13">
-        <v>3.56557065817276</v>
+        <v>4.171930080409936</v>
       </c>
       <c r="G13">
-        <v>3.103192002280366</v>
+        <v>4.570252000244579</v>
       </c>
       <c r="H13">
-        <v>2.247724073867175</v>
+        <v>2.291777765189863</v>
       </c>
       <c r="I13">
-        <v>2.60281884694281</v>
+        <v>3.125322100266573</v>
       </c>
       <c r="J13">
-        <v>0.1334194734687193</v>
+        <v>0.02015968229499565</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.12771137741559</v>
+        <v>0.04166368349680027</v>
       </c>
       <c r="M13">
-        <v>2.827832489045534</v>
+        <v>6.397965969882023</v>
       </c>
       <c r="N13">
-        <v>2.310890758972334</v>
+        <v>5.374691135826708</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,40 +988,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.06998502955219266</v>
+        <v>0.02919787277274821</v>
       </c>
       <c r="D14">
-        <v>0.0471806242189885</v>
+        <v>0.07158701451099603</v>
       </c>
       <c r="E14">
-        <v>0.07751454376359579</v>
+        <v>0.02711131715876647</v>
       </c>
       <c r="F14">
-        <v>3.555704884077102</v>
+        <v>4.096113901611744</v>
       </c>
       <c r="G14">
-        <v>3.089976526642175</v>
+        <v>4.482149750929466</v>
       </c>
       <c r="H14">
-        <v>2.243022416757526</v>
+        <v>2.252079092638098</v>
       </c>
       <c r="I14">
-        <v>2.595232576743612</v>
+        <v>3.068065530812362</v>
       </c>
       <c r="J14">
-        <v>0.1337620634136019</v>
+        <v>0.02065369317046706</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1278475366812799</v>
+        <v>0.04183058626720992</v>
       </c>
       <c r="M14">
-        <v>2.796143166865505</v>
+        <v>6.283844577265768</v>
       </c>
       <c r="N14">
-        <v>2.284392843647481</v>
+        <v>5.291338893236286</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,40 +1035,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.06998733719325756</v>
+        <v>0.02913551230102662</v>
       </c>
       <c r="D15">
-        <v>0.04699164451082538</v>
+        <v>0.07083462328388634</v>
       </c>
       <c r="E15">
-        <v>0.07755146432369919</v>
+        <v>0.02714305644984183</v>
       </c>
       <c r="F15">
-        <v>3.549708003391515</v>
+        <v>4.050052142774604</v>
       </c>
       <c r="G15">
-        <v>3.081924798132434</v>
+        <v>4.428600560169514</v>
       </c>
       <c r="H15">
-        <v>2.240169647310552</v>
+        <v>2.227965835394627</v>
       </c>
       <c r="I15">
-        <v>2.590619785630665</v>
+        <v>3.033278159056408</v>
       </c>
       <c r="J15">
-        <v>0.1339731139455096</v>
+        <v>0.02095915927881498</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1279315800272016</v>
+        <v>0.04193351743740692</v>
       </c>
       <c r="M15">
-        <v>2.77673564216667</v>
+        <v>6.214082189176111</v>
       </c>
       <c r="N15">
-        <v>2.268166687334997</v>
+        <v>5.240342689425631</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,40 +1082,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.07000241603268975</v>
+        <v>0.02878913512312131</v>
       </c>
       <c r="D16">
-        <v>0.04590586061239321</v>
+        <v>0.06658310290468705</v>
       </c>
       <c r="E16">
-        <v>0.07776773243066337</v>
+        <v>0.02733034122063671</v>
       </c>
       <c r="F16">
-        <v>3.516047783921579</v>
+        <v>3.791533799892534</v>
       </c>
       <c r="G16">
-        <v>3.036441747922652</v>
+        <v>4.127714231344896</v>
       </c>
       <c r="H16">
-        <v>2.224236185962468</v>
+        <v>2.092713366001988</v>
       </c>
       <c r="I16">
-        <v>2.564705258833087</v>
+        <v>2.838014947362225</v>
       </c>
       <c r="J16">
-        <v>0.1352010041917722</v>
+        <v>0.02275225398636049</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.128423050163164</v>
+        <v>0.04253416575465252</v>
       </c>
       <c r="M16">
-        <v>2.665567970168041</v>
+        <v>5.816290968067847</v>
       </c>
       <c r="N16">
-        <v>2.1752537558732</v>
+        <v>4.948966059765212</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,40 +1129,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.07001332185451048</v>
+        <v>0.02858563380253898</v>
       </c>
       <c r="D17">
-        <v>0.04523721562673444</v>
+        <v>0.06402338019331921</v>
       </c>
       <c r="E17">
-        <v>0.07790460058114768</v>
+        <v>0.02745003598138052</v>
       </c>
       <c r="F17">
-        <v>3.496025141741057</v>
+        <v>3.637441749333959</v>
       </c>
       <c r="G17">
-        <v>3.009123469261851</v>
+        <v>3.948066122584919</v>
       </c>
       <c r="H17">
-        <v>2.214830144773089</v>
+        <v>2.012165841060124</v>
       </c>
       <c r="I17">
-        <v>2.54926906073571</v>
+        <v>2.721607375692088</v>
       </c>
       <c r="J17">
-        <v>0.135970719139884</v>
+        <v>0.02388881717580116</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1287333569056557</v>
+        <v>0.04291235793609971</v>
       </c>
       <c r="M17">
-        <v>2.597415565979475</v>
+        <v>5.5738695627401</v>
       </c>
       <c r="N17">
-        <v>2.118322080474172</v>
+        <v>4.770934032383025</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,40 +1176,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.07002020316499191</v>
+        <v>0.02847159223026807</v>
       </c>
       <c r="D18">
-        <v>0.04485167616834218</v>
+        <v>0.06256697701751079</v>
       </c>
       <c r="E18">
-        <v>0.07798486843478347</v>
+        <v>0.02752064021591938</v>
       </c>
       <c r="F18">
-        <v>3.4847379361712</v>
+        <v>3.55033329168333</v>
       </c>
       <c r="G18">
-        <v>2.993624119955086</v>
+        <v>3.846401377858825</v>
       </c>
       <c r="H18">
-        <v>2.20955497860416</v>
+        <v>1.966657717311818</v>
       </c>
       <c r="I18">
-        <v>2.540559370723685</v>
+        <v>2.655794879808482</v>
       </c>
       <c r="J18">
-        <v>0.1364194761661515</v>
+        <v>0.02455542758497753</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1289150791254272</v>
+        <v>0.04313348371710291</v>
       </c>
       <c r="M18">
-        <v>2.558233429035653</v>
+        <v>5.434966230806992</v>
       </c>
       <c r="N18">
-        <v>2.085602296101456</v>
+        <v>4.668779320351973</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,40 +1223,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.07002263760107397</v>
+        <v>0.0284334701838489</v>
       </c>
       <c r="D19">
-        <v>0.04472097413574261</v>
+        <v>0.06207642138252822</v>
       </c>
       <c r="E19">
-        <v>0.07801231141212828</v>
+        <v>0.02754484725008677</v>
       </c>
       <c r="F19">
-        <v>3.480955562702633</v>
+        <v>3.521089277966183</v>
       </c>
       <c r="G19">
-        <v>2.988412840534352</v>
+        <v>3.81225187254006</v>
       </c>
       <c r="H19">
-        <v>2.207792024392973</v>
+        <v>1.95138409050216</v>
       </c>
       <c r="I19">
-        <v>2.537639335444851</v>
+        <v>2.633699107883885</v>
       </c>
       <c r="J19">
-        <v>0.1365724539580842</v>
+        <v>0.02478329490059483</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1289771645217499</v>
+        <v>0.04320897386118006</v>
       </c>
       <c r="M19">
-        <v>2.54497006848618</v>
+        <v>5.388021745765769</v>
       </c>
       <c r="N19">
-        <v>2.074528471526037</v>
+        <v>4.63423175426442</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,40 +1270,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.07001209793045149</v>
+        <v>0.0286069793470336</v>
       </c>
       <c r="D20">
-        <v>0.04530849227999312</v>
+        <v>0.06429418217042127</v>
       </c>
       <c r="E20">
-        <v>0.07788987091661159</v>
+        <v>0.02743711211074196</v>
       </c>
       <c r="F20">
-        <v>3.498132831843918</v>
+        <v>3.653684808958559</v>
       </c>
       <c r="G20">
-        <v>3.012009432256548</v>
+        <v>3.967014512583233</v>
       </c>
       <c r="H20">
-        <v>2.215817456328239</v>
+        <v>2.020653801436367</v>
       </c>
       <c r="I20">
-        <v>2.550894781843255</v>
+        <v>2.733878802857745</v>
       </c>
       <c r="J20">
-        <v>0.1358881566978525</v>
+        <v>0.0237664822278032</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1286999888233993</v>
+        <v>0.04287172679962126</v>
       </c>
       <c r="M20">
-        <v>2.604668727662926</v>
+        <v>5.599619465720707</v>
       </c>
       <c r="N20">
-        <v>2.12437990690745</v>
+        <v>4.789860110069071</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,40 +1317,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.06998395577587857</v>
+        <v>0.02922798292920881</v>
       </c>
       <c r="D21">
-        <v>0.04727119581429662</v>
+        <v>0.07194894820051445</v>
       </c>
       <c r="E21">
-        <v>0.07749692221725546</v>
+        <v>0.0270961930930067</v>
       </c>
       <c r="F21">
-        <v>3.558593068938279</v>
+        <v>4.118303344189428</v>
       </c>
       <c r="G21">
-        <v>3.093849236455696</v>
+        <v>4.507939849313857</v>
       </c>
       <c r="H21">
-        <v>2.244397750292194</v>
+        <v>2.263696720885093</v>
       </c>
       <c r="I21">
-        <v>2.597453754222869</v>
+        <v>3.084823349461374</v>
       </c>
       <c r="J21">
-        <v>0.1336611854342844</v>
+        <v>0.02050798860095782</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1278074096733555</v>
+        <v>0.04178141755251374</v>
       </c>
       <c r="M21">
-        <v>2.805450446427926</v>
+        <v>6.317335165589611</v>
       </c>
       <c r="N21">
-        <v>2.292174974504576</v>
+        <v>5.315808956459477</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,40 +1364,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.06997097846754841</v>
+        <v>0.02966746078730864</v>
       </c>
       <c r="D22">
-        <v>0.04854576978338798</v>
+        <v>0.07713701738544643</v>
       </c>
       <c r="E22">
-        <v>0.07725379291625867</v>
+        <v>0.02688918706147447</v>
       </c>
       <c r="F22">
-        <v>3.600171849385703</v>
+        <v>4.438501972118701</v>
       </c>
       <c r="G22">
-        <v>3.149263378523244</v>
+        <v>4.87966906552748</v>
       </c>
       <c r="H22">
-        <v>2.264289532260079</v>
+        <v>2.431443917096601</v>
       </c>
       <c r="I22">
-        <v>2.629403141433869</v>
+        <v>3.326616642729832</v>
       </c>
       <c r="J22">
-        <v>0.1322596168824073</v>
+        <v>0.01850533322822034</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1272528017879324</v>
+        <v>0.04110018099035173</v>
       </c>
       <c r="M22">
-        <v>2.936813409456079</v>
+        <v>6.792512682809928</v>
       </c>
       <c r="N22">
-        <v>2.40204661557118</v>
+        <v>5.662154635568129</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,40 +1411,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.06997740938394159</v>
+        <v>0.02942944896668465</v>
       </c>
       <c r="D23">
-        <v>0.04786623743321883</v>
+        <v>0.07434871632302276</v>
       </c>
       <c r="E23">
-        <v>0.07738230686221037</v>
+        <v>0.02699821517402246</v>
       </c>
       <c r="F23">
-        <v>3.57779045475138</v>
+        <v>4.265931592545513</v>
       </c>
       <c r="G23">
-        <v>3.119510167939154</v>
+        <v>4.679423123407958</v>
       </c>
       <c r="H23">
-        <v>2.25356137950007</v>
+        <v>2.3410137133597</v>
       </c>
       <c r="I23">
-        <v>2.612211190739231</v>
+        <v>3.196308434222559</v>
       </c>
       <c r="J23">
-        <v>0.1330027237399087</v>
+        <v>0.01956193024959951</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1275461824080537</v>
+        <v>0.04146094303768777</v>
       </c>
       <c r="M23">
-        <v>2.866690324455789</v>
+        <v>6.538268123813594</v>
       </c>
       <c r="N23">
-        <v>2.343388084879905</v>
+        <v>5.477042342847824</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,40 +1458,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.07001264936251061</v>
+        <v>0.02859731989393488</v>
       </c>
       <c r="D24">
-        <v>0.04527627161787251</v>
+        <v>0.06417170565401875</v>
       </c>
       <c r="E24">
-        <v>0.07789652527402247</v>
+        <v>0.0274429494178543</v>
       </c>
       <c r="F24">
-        <v>3.497179247445047</v>
+        <v>3.646336739572803</v>
       </c>
       <c r="G24">
-        <v>3.01070404612463</v>
+        <v>3.958442943012784</v>
       </c>
       <c r="H24">
-        <v>2.215370680214136</v>
+        <v>2.016813920224081</v>
       </c>
       <c r="I24">
-        <v>2.550159280248877</v>
+        <v>2.728327451267404</v>
       </c>
       <c r="J24">
-        <v>0.1359254637500786</v>
+        <v>0.02382174891787914</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1287150641825079</v>
+        <v>0.04289008461077515</v>
       </c>
       <c r="M24">
-        <v>2.601389574394148</v>
+        <v>5.587976491274816</v>
       </c>
       <c r="N24">
-        <v>2.121641129086584</v>
+        <v>4.781303017317214</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,40 +1505,40 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.07007393122528072</v>
+        <v>0.0278124282776453</v>
       </c>
       <c r="D25">
-        <v>0.04244596567370706</v>
+        <v>0.05378537998521438</v>
       </c>
       <c r="E25">
-        <v>0.07851030196583686</v>
+        <v>0.02798989879216052</v>
       </c>
       <c r="F25">
-        <v>3.418979775877375</v>
+        <v>3.034990998412184</v>
       </c>
       <c r="G25">
-        <v>2.901481971012288</v>
+        <v>3.243051430761057</v>
       </c>
       <c r="H25">
-        <v>2.179328224270392</v>
+        <v>1.697866024093798</v>
       </c>
       <c r="I25">
-        <v>2.489669757359565</v>
+        <v>2.266314493140996</v>
       </c>
       <c r="J25">
-        <v>0.1393088695637883</v>
+        <v>0.02890427965181175</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1300999177186348</v>
+        <v>0.04456942908506178</v>
       </c>
       <c r="M25">
-        <v>2.315889609796187</v>
+        <v>4.58271309820168</v>
       </c>
       <c r="N25">
-        <v>1.883450603060282</v>
+        <v>4.039999580675726</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0273044477804234</v>
+        <v>0.08617171419483327</v>
       </c>
       <c r="D2">
-        <v>0.04646508519990533</v>
+        <v>0.04228385692380954</v>
       </c>
       <c r="E2">
-        <v>0.02845008432014584</v>
+        <v>0.04708913086479782</v>
       </c>
       <c r="F2">
-        <v>2.621035910296115</v>
+        <v>1.308242053195514</v>
       </c>
       <c r="G2">
-        <v>2.755415983456601</v>
+        <v>1.047397199516453</v>
       </c>
       <c r="H2">
-        <v>1.482649280289166</v>
+        <v>0.01053907609845305</v>
       </c>
       <c r="I2">
-        <v>1.953250994275066</v>
+        <v>0.007504485560020147</v>
       </c>
       <c r="J2">
-        <v>0.03301260235670078</v>
+        <v>0.7184621002340776</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9541497762294782</v>
       </c>
       <c r="L2">
-        <v>0.04592698439471299</v>
+        <v>0.06999394610587117</v>
       </c>
       <c r="M2">
-        <v>3.853626143750489</v>
+        <v>3.05081178129717</v>
       </c>
       <c r="N2">
-        <v>3.500014898027558</v>
+        <v>0.05372419207779799</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.6425847681294172</v>
+      </c>
+      <c r="P2">
+        <v>1.013382035619777</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02699371609119794</v>
+        <v>0.07661137793034101</v>
       </c>
       <c r="D3">
-        <v>0.04163716552645269</v>
+        <v>0.03791048987014278</v>
       </c>
       <c r="E3">
-        <v>0.02879771822622512</v>
+        <v>0.04358962216830697</v>
       </c>
       <c r="F3">
-        <v>2.357866580412093</v>
+        <v>1.241852255188206</v>
       </c>
       <c r="G3">
-        <v>2.44348175746984</v>
+        <v>0.9897790445193237</v>
       </c>
       <c r="H3">
-        <v>1.346276855503476</v>
+        <v>0.01407038535843863</v>
       </c>
       <c r="I3">
-        <v>1.754083497810868</v>
+        <v>0.01080075880526898</v>
       </c>
       <c r="J3">
-        <v>0.0360026975311234</v>
+        <v>0.6961248108076603</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.9047897876060915</v>
       </c>
       <c r="L3">
-        <v>0.0469232878051038</v>
+        <v>0.06568898661056721</v>
       </c>
       <c r="M3">
-        <v>3.364079686710596</v>
+        <v>2.661564728708385</v>
       </c>
       <c r="N3">
-        <v>3.136841652143403</v>
+        <v>0.05141364639760937</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5641606265483645</v>
+      </c>
+      <c r="P3">
+        <v>1.042596158057659</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02681681487412213</v>
+        <v>0.07065436971681294</v>
       </c>
       <c r="D4">
-        <v>0.03871913950737138</v>
+        <v>0.0352425743747844</v>
       </c>
       <c r="E4">
-        <v>0.0290287882124991</v>
+        <v>0.04142857299398095</v>
       </c>
       <c r="F4">
-        <v>2.203393526378647</v>
+        <v>1.201749770769538</v>
       </c>
       <c r="G4">
-        <v>2.259460974472631</v>
+        <v>0.9549946556998066</v>
       </c>
       <c r="H4">
-        <v>1.266448885994038</v>
+        <v>0.01658037747872648</v>
       </c>
       <c r="I4">
-        <v>1.637109206987205</v>
+        <v>0.01326022883347466</v>
       </c>
       <c r="J4">
-        <v>0.03793360281484848</v>
+        <v>0.682792378676794</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.8747363586781702</v>
       </c>
       <c r="L4">
-        <v>0.04757278572121848</v>
+        <v>0.06300454661853294</v>
       </c>
       <c r="M4">
-        <v>3.065104523707291</v>
+        <v>2.42226049291645</v>
       </c>
       <c r="N4">
-        <v>2.914981119457281</v>
+        <v>0.05001301672999858</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.5159308011988415</v>
+      </c>
+      <c r="P4">
+        <v>1.061258570954067</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02674788179735543</v>
+        <v>0.06794884096314746</v>
       </c>
       <c r="D5">
-        <v>0.03753916025529591</v>
+        <v>0.03419456581902125</v>
       </c>
       <c r="E5">
-        <v>0.02912737956444911</v>
+        <v>0.04052709954700973</v>
       </c>
       <c r="F5">
-        <v>2.142040578496463</v>
+        <v>1.184616977167479</v>
       </c>
       <c r="G5">
-        <v>2.186142179489906</v>
+        <v>0.9400126316490542</v>
       </c>
       <c r="H5">
-        <v>1.234798144876493</v>
+        <v>0.01769506174557828</v>
       </c>
       <c r="I5">
-        <v>1.590632574048755</v>
+        <v>0.01446030257438746</v>
       </c>
       <c r="J5">
-        <v>0.03874343967352911</v>
+        <v>0.6769735258849749</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.861602270633</v>
       </c>
       <c r="L5">
-        <v>0.04784696792084375</v>
+        <v>0.06185114581687579</v>
       </c>
       <c r="M5">
-        <v>2.943592026877639</v>
+        <v>2.323372997679229</v>
       </c>
       <c r="N5">
-        <v>2.82482453636797</v>
+        <v>0.04950282077719592</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4959716822311151</v>
+      </c>
+      <c r="P5">
+        <v>1.069165555755788</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02673661709265573</v>
+        <v>0.0671870457153787</v>
       </c>
       <c r="D6">
-        <v>0.03734370951218935</v>
+        <v>0.03406394116907308</v>
       </c>
       <c r="E6">
-        <v>0.02914401797645194</v>
+        <v>0.04035608904083965</v>
       </c>
       <c r="F6">
-        <v>2.13194408211551</v>
+        <v>1.180625128412288</v>
       </c>
       <c r="G6">
-        <v>2.174062642674699</v>
+        <v>0.9363779154873129</v>
       </c>
       <c r="H6">
-        <v>1.229592900960427</v>
+        <v>0.01789638141958499</v>
       </c>
       <c r="I6">
-        <v>1.582983137138612</v>
+        <v>0.01478621320259599</v>
       </c>
       <c r="J6">
-        <v>0.03887927506919087</v>
+        <v>0.6754297365989146</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.8582703041418185</v>
       </c>
       <c r="L6">
-        <v>0.047893070016233</v>
+        <v>0.06159978827366253</v>
       </c>
       <c r="M6">
-        <v>2.923432210641494</v>
+        <v>2.305387028044322</v>
       </c>
       <c r="N6">
-        <v>2.809868574604593</v>
+        <v>0.04948784971899123</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4923106619495385</v>
+      </c>
+      <c r="P6">
+        <v>1.070643676504758</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02681587285436748</v>
+        <v>0.06976362678048531</v>
       </c>
       <c r="D7">
-        <v>0.03870319200216699</v>
+        <v>0.0353464706879052</v>
       </c>
       <c r="E7">
-        <v>0.02903009992253924</v>
+        <v>0.04135878748734179</v>
       </c>
       <c r="F7">
-        <v>2.20255987789038</v>
+        <v>1.198358328826885</v>
       </c>
       <c r="G7">
-        <v>2.258465676308049</v>
+        <v>0.951634034511585</v>
       </c>
       <c r="H7">
-        <v>1.266018598588147</v>
+        <v>0.01662438280630707</v>
       </c>
       <c r="I7">
-        <v>1.63647776492995</v>
+        <v>0.01358562877728797</v>
       </c>
       <c r="J7">
-        <v>0.03794443266955816</v>
+        <v>0.6811211507273214</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.8714019057058451</v>
       </c>
       <c r="L7">
-        <v>0.04757644493725266</v>
+        <v>0.06282735505237014</v>
       </c>
       <c r="M7">
-        <v>3.063464560479034</v>
+        <v>2.416650577235202</v>
       </c>
       <c r="N7">
-        <v>2.913764248430653</v>
+        <v>0.0501958589775171</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.5147150869075503</v>
+      </c>
+      <c r="P7">
+        <v>1.061802838070005</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02719420700567454</v>
+        <v>0.0817483719707397</v>
       </c>
       <c r="D8">
-        <v>0.04478919600683184</v>
+        <v>0.04092913860613834</v>
       </c>
       <c r="E8">
-        <v>0.02856628959043483</v>
+        <v>0.04580828458187725</v>
       </c>
       <c r="F8">
-        <v>2.528696428265491</v>
+        <v>1.281015687097266</v>
       </c>
       <c r="G8">
-        <v>2.646165306080349</v>
+        <v>1.023208126556426</v>
       </c>
       <c r="H8">
-        <v>1.4347527351363</v>
+        <v>0.01171500156343459</v>
       </c>
       <c r="I8">
-        <v>1.883382772814471</v>
+        <v>0.008911246978112075</v>
       </c>
       <c r="J8">
-        <v>0.0340233090271127</v>
+        <v>0.7085698968702161</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.9328811442514962</v>
       </c>
       <c r="L8">
-        <v>0.04626268074679984</v>
+        <v>0.06830339392214668</v>
       </c>
       <c r="M8">
-        <v>3.684444120225606</v>
+        <v>2.910917929102027</v>
       </c>
       <c r="N8">
-        <v>3.374538848583768</v>
+        <v>0.05317552644697798</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.6142904679753158</v>
+      </c>
+      <c r="P8">
+        <v>1.023952476291441</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0280644033003572</v>
+        <v>0.1061653922361074</v>
       </c>
       <c r="D9">
-        <v>0.0572225311840171</v>
+        <v>0.05182121064799361</v>
       </c>
       <c r="E9">
-        <v>0.02779671465855849</v>
+        <v>0.05456255521998266</v>
       </c>
       <c r="F9">
-        <v>3.234534492642609</v>
+        <v>1.454591174950849</v>
       </c>
       <c r="G9">
-        <v>3.477090114696324</v>
+        <v>1.174517479427053</v>
       </c>
       <c r="H9">
-        <v>1.801846792430297</v>
+        <v>0.004919726033915883</v>
       </c>
       <c r="I9">
-        <v>2.417152053664424</v>
+        <v>0.002947178156689212</v>
       </c>
       <c r="J9">
-        <v>0.02713208692362556</v>
+        <v>0.768540670350248</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.061459220939369</v>
       </c>
       <c r="L9">
-        <v>0.0439850665884034</v>
+        <v>0.07903875611104993</v>
       </c>
       <c r="M9">
-        <v>4.919263887689482</v>
+        <v>3.886471345655139</v>
       </c>
       <c r="N9">
-        <v>4.288677255889496</v>
+        <v>0.05884542272607263</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.8108463515451731</v>
+      </c>
+      <c r="P9">
+        <v>0.9548169073221864</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02881278423872757</v>
+        <v>0.1217678198195671</v>
       </c>
       <c r="D10">
-        <v>0.06687747213653239</v>
+        <v>0.05911664476328582</v>
       </c>
       <c r="E10">
-        <v>0.02731692193925195</v>
+        <v>0.05923703398503655</v>
       </c>
       <c r="F10">
-        <v>3.80933226528046</v>
+        <v>1.567382180584758</v>
       </c>
       <c r="G10">
-        <v>4.148449386063135</v>
+        <v>1.273234842509112</v>
       </c>
       <c r="H10">
-        <v>2.102020587597849</v>
+        <v>0.002210784586214487</v>
       </c>
       <c r="I10">
-        <v>2.851459673859139</v>
+        <v>0.001250186656625907</v>
       </c>
       <c r="J10">
-        <v>0.02262434942341285</v>
+        <v>0.8067591994795009</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.143566830042523</v>
       </c>
       <c r="L10">
-        <v>0.04249149710798505</v>
+        <v>0.08433038533880222</v>
       </c>
       <c r="M10">
-        <v>5.844029179113761</v>
+        <v>4.583332798539118</v>
       </c>
       <c r="N10">
-        <v>4.969315266262186</v>
+        <v>0.06097363366114905</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.9448185845365487</v>
+      </c>
+      <c r="P10">
+        <v>0.9116032955613917</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02918590259816867</v>
+        <v>0.1140013314677475</v>
       </c>
       <c r="D11">
-        <v>0.07144288614578187</v>
+        <v>0.05503267688342817</v>
       </c>
       <c r="E11">
-        <v>0.02711736573365631</v>
+        <v>0.04807293055143624</v>
       </c>
       <c r="F11">
-        <v>4.087283371258252</v>
+        <v>1.464416180820351</v>
       </c>
       <c r="G11">
-        <v>4.471885170929397</v>
+        <v>1.186254900294401</v>
       </c>
       <c r="H11">
-        <v>2.247455999057252</v>
+        <v>0.02060786074658694</v>
       </c>
       <c r="I11">
-        <v>3.061396505071585</v>
+        <v>0.001569815168523725</v>
       </c>
       <c r="J11">
-        <v>0.02071193859355924</v>
+        <v>0.7583967352597085</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.06773564412989</v>
       </c>
       <c r="L11">
-        <v>0.04185022835619989</v>
+        <v>0.07009626575089634</v>
       </c>
       <c r="M11">
-        <v>6.270495692440051</v>
+        <v>4.733112760274025</v>
       </c>
       <c r="N11">
-        <v>5.281583373772833</v>
+        <v>0.04674761068717181</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.9178837695213531</v>
+      </c>
+      <c r="P11">
+        <v>0.9285570213887127</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02933285588037471</v>
+        <v>0.1059110944131092</v>
       </c>
       <c r="D12">
-        <v>0.07320283461613286</v>
+        <v>0.05001333855157952</v>
       </c>
       <c r="E12">
-        <v>0.02704450680051362</v>
+        <v>0.04002862361174131</v>
       </c>
       <c r="F12">
-        <v>4.195332196352467</v>
+        <v>1.360425915583519</v>
       </c>
       <c r="G12">
-        <v>4.597437120605662</v>
+        <v>1.098521664499756</v>
       </c>
       <c r="H12">
-        <v>2.304033741639557</v>
+        <v>0.05940302902666161</v>
       </c>
       <c r="I12">
-        <v>3.142994869668925</v>
+        <v>0.001550964559180912</v>
       </c>
       <c r="J12">
-        <v>0.02000936117398089</v>
+        <v>0.7125697095023327</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.9928527370490556</v>
       </c>
       <c r="L12">
-        <v>0.041612783225073</v>
+        <v>0.06295356923915918</v>
       </c>
       <c r="M12">
-        <v>6.433017069041853</v>
+        <v>4.716223866535302</v>
       </c>
       <c r="N12">
-        <v>5.400273981128407</v>
+        <v>0.03991804495667717</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.8685371197895506</v>
+      </c>
+      <c r="P12">
+        <v>0.9581298136184913</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02930093736700101</v>
+        <v>0.09580519553534117</v>
       </c>
       <c r="D13">
-        <v>0.07282230203715301</v>
+        <v>0.04420270567575102</v>
       </c>
       <c r="E13">
-        <v>0.02706007740652616</v>
+        <v>0.03384350870231145</v>
       </c>
       <c r="F13">
-        <v>4.171930080409936</v>
+        <v>1.244841428946216</v>
       </c>
       <c r="G13">
-        <v>4.570252000244579</v>
+        <v>1.000248541860088</v>
       </c>
       <c r="H13">
-        <v>2.291777765189863</v>
+        <v>0.1155536803078832</v>
       </c>
       <c r="I13">
-        <v>3.125322100266573</v>
+        <v>0.001622714853004581</v>
       </c>
       <c r="J13">
-        <v>0.02015968229499565</v>
+        <v>0.6635410748709063</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.90956198143585</v>
       </c>
       <c r="L13">
-        <v>0.04166368349680027</v>
+        <v>0.06053975972869807</v>
       </c>
       <c r="M13">
-        <v>6.397965969882023</v>
+        <v>4.563254860214499</v>
       </c>
       <c r="N13">
-        <v>5.374691135826708</v>
+        <v>0.03858517755043511</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.7979904508500582</v>
+      </c>
+      <c r="P13">
+        <v>0.9987032033531804</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02919787277274821</v>
+        <v>0.08774647760178311</v>
       </c>
       <c r="D14">
-        <v>0.07158701451099603</v>
+        <v>0.03987052703551086</v>
       </c>
       <c r="E14">
-        <v>0.02711131715876647</v>
+        <v>0.03068149585995883</v>
       </c>
       <c r="F14">
-        <v>4.096113901611744</v>
+        <v>1.158923317996326</v>
       </c>
       <c r="G14">
-        <v>4.482149750929466</v>
+        <v>0.9267759400005673</v>
       </c>
       <c r="H14">
-        <v>2.252079092638098</v>
+        <v>0.1653271840615247</v>
       </c>
       <c r="I14">
-        <v>3.068065530812362</v>
+        <v>0.001850399596643015</v>
       </c>
       <c r="J14">
-        <v>0.02065369317046706</v>
+        <v>0.6277683835561021</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.8474061137261941</v>
       </c>
       <c r="L14">
-        <v>0.04183058626720992</v>
+        <v>0.06172927002520012</v>
       </c>
       <c r="M14">
-        <v>6.283844577265768</v>
+        <v>4.393952286078672</v>
       </c>
       <c r="N14">
-        <v>5.291338893236286</v>
+        <v>0.04085855019566687</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.7393121269460039</v>
+      </c>
+      <c r="P14">
+        <v>1.032763838721536</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02913551230102662</v>
+        <v>0.08507187740130462</v>
       </c>
       <c r="D15">
-        <v>0.07083462328388634</v>
+        <v>0.03867326766363988</v>
       </c>
       <c r="E15">
-        <v>0.02714305644984183</v>
+        <v>0.03001077719551914</v>
       </c>
       <c r="F15">
-        <v>4.050052142774604</v>
+        <v>1.134453947868025</v>
       </c>
       <c r="G15">
-        <v>4.428600560169514</v>
+        <v>0.9055585381366313</v>
       </c>
       <c r="H15">
-        <v>2.227965835394627</v>
+        <v>0.1780464865555302</v>
       </c>
       <c r="I15">
-        <v>3.033278159056408</v>
+        <v>0.002077525206875208</v>
       </c>
       <c r="J15">
-        <v>0.02095915927881498</v>
+        <v>0.6178504978507817</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.8293974236701303</v>
       </c>
       <c r="L15">
-        <v>0.04193351743740692</v>
+        <v>0.06228171312919351</v>
       </c>
       <c r="M15">
-        <v>6.214082189176111</v>
+        <v>4.322671688574871</v>
       </c>
       <c r="N15">
-        <v>5.240342689425631</v>
+        <v>0.04174612591451421</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.7202895875119566</v>
+      </c>
+      <c r="P15">
+        <v>1.042788635405699</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02878913512312131</v>
+        <v>0.08030479756094877</v>
       </c>
       <c r="D16">
-        <v>0.06658310290468705</v>
+        <v>0.03693319575620535</v>
       </c>
       <c r="E16">
-        <v>0.02733034122063671</v>
+        <v>0.02941234567351048</v>
       </c>
       <c r="F16">
-        <v>3.791533799892534</v>
+        <v>1.109294820873629</v>
       </c>
       <c r="G16">
-        <v>4.127714231344896</v>
+        <v>0.8825503802949015</v>
       </c>
       <c r="H16">
-        <v>2.092713366001988</v>
+        <v>0.1664382208928714</v>
       </c>
       <c r="I16">
-        <v>2.838014947362225</v>
+        <v>0.002820807875995257</v>
       </c>
       <c r="J16">
-        <v>0.02275225398636049</v>
+        <v>0.6109044314229948</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.8105829307865449</v>
       </c>
       <c r="L16">
-        <v>0.04253416575465252</v>
+        <v>0.06051971477521256</v>
       </c>
       <c r="M16">
-        <v>5.816290968067847</v>
+        <v>4.054467214204976</v>
       </c>
       <c r="N16">
-        <v>4.948966059765212</v>
+        <v>0.04103809060974761</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.6784921368908812</v>
+      </c>
+      <c r="P16">
+        <v>1.049771461395821</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02858563380253898</v>
+        <v>0.08077809538615099</v>
       </c>
       <c r="D17">
-        <v>0.06402338019331921</v>
+        <v>0.03786428465236469</v>
       </c>
       <c r="E17">
-        <v>0.02745003598138052</v>
+        <v>0.03039398465240195</v>
       </c>
       <c r="F17">
-        <v>3.637441749333959</v>
+        <v>1.135081501346221</v>
       </c>
       <c r="G17">
-        <v>3.948066122584919</v>
+        <v>0.9034608292798936</v>
       </c>
       <c r="H17">
-        <v>2.012165841060124</v>
+        <v>0.1293329224224493</v>
       </c>
       <c r="I17">
-        <v>2.721607375692088</v>
+        <v>0.003329764411120983</v>
       </c>
       <c r="J17">
-        <v>0.02388881717580116</v>
+        <v>0.6244042338425686</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.8286748328601306</v>
       </c>
       <c r="L17">
-        <v>0.04291235793609971</v>
+        <v>0.05800302006982161</v>
       </c>
       <c r="M17">
-        <v>5.5738695627401</v>
+        <v>3.938473493537288</v>
       </c>
       <c r="N17">
-        <v>4.770934032383025</v>
+        <v>0.03882888844732602</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.6771860400920531</v>
+      </c>
+      <c r="P17">
+        <v>1.03723714120855</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02847159223026807</v>
+        <v>0.08662721475258195</v>
       </c>
       <c r="D18">
-        <v>0.06256697701751079</v>
+        <v>0.04122178666549559</v>
       </c>
       <c r="E18">
-        <v>0.02752064021591938</v>
+        <v>0.03400575690429797</v>
       </c>
       <c r="F18">
-        <v>3.55033329168333</v>
+        <v>1.211210439973812</v>
       </c>
       <c r="G18">
-        <v>3.846401377858825</v>
+        <v>0.9679172212195795</v>
       </c>
       <c r="H18">
-        <v>1.966657717311818</v>
+        <v>0.07664430078265383</v>
       </c>
       <c r="I18">
-        <v>2.655794879808482</v>
+        <v>0.003221503794690328</v>
       </c>
       <c r="J18">
-        <v>0.02455542758497753</v>
+        <v>0.6586322580356665</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.8839025914573426</v>
       </c>
       <c r="L18">
-        <v>0.04313348371710291</v>
+        <v>0.05735342135790833</v>
       </c>
       <c r="M18">
-        <v>5.434966230806992</v>
+        <v>3.942569545369906</v>
       </c>
       <c r="N18">
-        <v>4.668779320351973</v>
+        <v>0.03796383091975963</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.7116914453708745</v>
+      </c>
+      <c r="P18">
+        <v>1.008640110309855</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.0284334701838489</v>
+        <v>0.09546500173240702</v>
       </c>
       <c r="D19">
-        <v>0.06207642138252822</v>
+        <v>0.0466742797896984</v>
       </c>
       <c r="E19">
-        <v>0.02754484725008677</v>
+        <v>0.04113823621363721</v>
       </c>
       <c r="F19">
-        <v>3.521089277966183</v>
+        <v>1.320040590879728</v>
       </c>
       <c r="G19">
-        <v>3.81225187254006</v>
+        <v>1.06004312940658</v>
       </c>
       <c r="H19">
-        <v>1.95138409050216</v>
+        <v>0.03092177489777725</v>
       </c>
       <c r="I19">
-        <v>2.633699107883885</v>
+        <v>0.003156622247545648</v>
       </c>
       <c r="J19">
-        <v>0.02478329490059483</v>
+        <v>0.7055422686578652</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9620248532944942</v>
       </c>
       <c r="L19">
-        <v>0.04320897386118006</v>
+        <v>0.06236051681053745</v>
       </c>
       <c r="M19">
-        <v>5.388021745765769</v>
+        <v>4.034281966950402</v>
       </c>
       <c r="N19">
-        <v>4.63423175426442</v>
+        <v>0.04242820479750975</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.7719179166167578</v>
+      </c>
+      <c r="P19">
+        <v>0.9756180758892796</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.0286069793470336</v>
+        <v>0.1149056265786612</v>
       </c>
       <c r="D20">
-        <v>0.06429418217042127</v>
+        <v>0.05752933812406269</v>
       </c>
       <c r="E20">
-        <v>0.02743711211074196</v>
+        <v>0.05775793293196152</v>
       </c>
       <c r="F20">
-        <v>3.653684808958559</v>
+        <v>1.526827494398688</v>
       </c>
       <c r="G20">
-        <v>3.967014512583233</v>
+        <v>1.236488432164791</v>
       </c>
       <c r="H20">
-        <v>2.020653801436367</v>
+        <v>0.002808426564865574</v>
       </c>
       <c r="I20">
-        <v>2.733878802857745</v>
+        <v>0.002352727921915765</v>
       </c>
       <c r="J20">
-        <v>0.0237664822278032</v>
+        <v>0.7912867086594844</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.111433232888182</v>
       </c>
       <c r="L20">
-        <v>0.04287172679962126</v>
+        <v>0.08235157402608095</v>
       </c>
       <c r="M20">
-        <v>5.599619465720707</v>
+        <v>4.38565179939792</v>
       </c>
       <c r="N20">
-        <v>4.789860110069071</v>
+        <v>0.06089087459930553</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.9061773236605788</v>
+      </c>
+      <c r="P20">
+        <v>0.9246958424317384</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02922798292920881</v>
+        <v>0.1298135972096901</v>
       </c>
       <c r="D21">
-        <v>0.07194894820051445</v>
+        <v>0.06447584895326486</v>
       </c>
       <c r="E21">
-        <v>0.0270961930930067</v>
+        <v>0.06404327430731449</v>
       </c>
       <c r="F21">
-        <v>4.118303344189428</v>
+        <v>1.644224530940576</v>
       </c>
       <c r="G21">
-        <v>4.507939849313857</v>
+        <v>1.338950154017027</v>
       </c>
       <c r="H21">
-        <v>2.263696720885093</v>
+        <v>0.0009619353317844581</v>
       </c>
       <c r="I21">
-        <v>3.084823349461374</v>
+        <v>0.001687939762104129</v>
       </c>
       <c r="J21">
-        <v>0.02050798860095782</v>
+        <v>0.8340429803917573</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.196898398571861</v>
       </c>
       <c r="L21">
-        <v>0.04178141755251374</v>
+        <v>0.09017298405019503</v>
       </c>
       <c r="M21">
-        <v>6.317335165589611</v>
+        <v>4.951929857749349</v>
       </c>
       <c r="N21">
-        <v>5.315808956459477</v>
+        <v>0.06599056556995109</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.025080159915241</v>
+      </c>
+      <c r="P21">
+        <v>0.8875833672276769</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02966746078730864</v>
+        <v>0.1398761926280088</v>
       </c>
       <c r="D22">
-        <v>0.07713701738544643</v>
+        <v>0.06843733979981437</v>
       </c>
       <c r="E22">
-        <v>0.02688918706147447</v>
+        <v>0.06736426765108661</v>
       </c>
       <c r="F22">
-        <v>4.438501972118701</v>
+        <v>1.717269803501068</v>
       </c>
       <c r="G22">
-        <v>4.87966906552748</v>
+        <v>1.40351221438911</v>
       </c>
       <c r="H22">
-        <v>2.431443917096601</v>
+        <v>0.0003294307832457655</v>
       </c>
       <c r="I22">
-        <v>3.326616642729832</v>
+        <v>0.001512734774614444</v>
       </c>
       <c r="J22">
-        <v>0.01850533322822034</v>
+        <v>0.8608417338896857</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.250983104643439</v>
       </c>
       <c r="L22">
-        <v>0.04110018099035173</v>
+        <v>0.09428160127326279</v>
       </c>
       <c r="M22">
-        <v>6.792512682809928</v>
+        <v>5.319235967750501</v>
       </c>
       <c r="N22">
-        <v>5.662154635568129</v>
+        <v>0.06793102210496116</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.099122027433559</v>
+      </c>
+      <c r="P22">
+        <v>0.8649930588862063</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02942944896668465</v>
+        <v>0.1355481090893988</v>
       </c>
       <c r="D23">
-        <v>0.07434871632302276</v>
+        <v>0.06617717787407429</v>
       </c>
       <c r="E23">
-        <v>0.02699821517402246</v>
+        <v>0.06565995922779244</v>
       </c>
       <c r="F23">
-        <v>4.265931592545513</v>
+        <v>1.681943863145122</v>
       </c>
       <c r="G23">
-        <v>4.679423123407958</v>
+        <v>1.372725628184185</v>
       </c>
       <c r="H23">
-        <v>2.3410137133597</v>
+        <v>0.0006189588079623665</v>
       </c>
       <c r="I23">
-        <v>3.196308434222559</v>
+        <v>0.001247749999077286</v>
       </c>
       <c r="J23">
-        <v>0.01956193024959951</v>
+        <v>0.8483666329013886</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.225838523982247</v>
       </c>
       <c r="L23">
-        <v>0.04146094303768777</v>
+        <v>0.09228162137460316</v>
       </c>
       <c r="M23">
-        <v>6.538268123813594</v>
+        <v>5.128444501701551</v>
       </c>
       <c r="N23">
-        <v>5.477042342847824</v>
+        <v>0.06665993808080728</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.060763890311826</v>
+      </c>
+      <c r="P23">
+        <v>0.8762125536164049</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02859731989393488</v>
+        <v>0.1174847497803597</v>
       </c>
       <c r="D24">
-        <v>0.06417170565401875</v>
+        <v>0.05790445965645574</v>
       </c>
       <c r="E24">
-        <v>0.0274429494178543</v>
+        <v>0.05911810286357699</v>
       </c>
       <c r="F24">
-        <v>3.646336739572803</v>
+        <v>1.544532136329678</v>
       </c>
       <c r="G24">
-        <v>3.958442943012784</v>
+        <v>1.252378345328225</v>
       </c>
       <c r="H24">
-        <v>2.016813920224081</v>
+        <v>0.002604658063526388</v>
       </c>
       <c r="I24">
-        <v>2.728327451267404</v>
+        <v>0.001827786866730463</v>
       </c>
       <c r="J24">
-        <v>0.02382174891787914</v>
+        <v>0.7993546654722934</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.125823145338202</v>
       </c>
       <c r="L24">
-        <v>0.04289008461077515</v>
+        <v>0.08439609832483796</v>
       </c>
       <c r="M24">
-        <v>5.587976491274816</v>
+        <v>4.398858316923395</v>
       </c>
       <c r="N24">
-        <v>4.781303017317214</v>
+        <v>0.06227903051907546</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.9138808990728364</v>
+      </c>
+      <c r="P24">
+        <v>0.9216232914664033</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0278124282776453</v>
+        <v>0.09804442504623267</v>
       </c>
       <c r="D25">
-        <v>0.05378537998521438</v>
+        <v>0.04907130490316547</v>
       </c>
       <c r="E25">
-        <v>0.02798989879216052</v>
+        <v>0.05209383653975408</v>
       </c>
       <c r="F25">
-        <v>3.034990998412184</v>
+        <v>1.401186721865088</v>
       </c>
       <c r="G25">
-        <v>3.243051430761057</v>
+        <v>1.12718844344019</v>
       </c>
       <c r="H25">
-        <v>1.697866024093798</v>
+        <v>0.006457160151993491</v>
       </c>
       <c r="I25">
-        <v>2.266314493140996</v>
+        <v>0.00462278379080594</v>
       </c>
       <c r="J25">
-        <v>0.02890427965181175</v>
+        <v>0.749046542599288</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.02062818499784</v>
       </c>
       <c r="L25">
-        <v>0.04456942908506178</v>
+        <v>0.07586769087803447</v>
       </c>
       <c r="M25">
-        <v>4.58271309820168</v>
+        <v>3.614612681269307</v>
       </c>
       <c r="N25">
-        <v>4.039999580675726</v>
+        <v>0.057639070539107</v>
       </c>
       <c r="O25">
+        <v>0.7559337582440051</v>
+      </c>
+      <c r="P25">
+        <v>0.9738522827098244</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_3/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.08617171419483327</v>
+        <v>0.04171540269075535</v>
       </c>
       <c r="D2">
-        <v>0.04228385692380954</v>
+        <v>0.04910351694633164</v>
       </c>
       <c r="E2">
-        <v>0.04708913086479782</v>
+        <v>0.04498253354125126</v>
       </c>
       <c r="F2">
-        <v>1.308242053195514</v>
+        <v>1.143486910961826</v>
       </c>
       <c r="G2">
-        <v>1.047397199516453</v>
+        <v>0.8748873699640853</v>
       </c>
       <c r="H2">
-        <v>0.01053907609845305</v>
+        <v>0.008675532888213461</v>
       </c>
       <c r="I2">
-        <v>0.007504485560020147</v>
+        <v>0.005027781067601822</v>
       </c>
       <c r="J2">
-        <v>0.7184621002340776</v>
+        <v>0.64605889265016</v>
       </c>
       <c r="K2">
-        <v>0.9541497762294782</v>
+        <v>0.7842403998127594</v>
       </c>
       <c r="L2">
-        <v>0.06999394610587117</v>
+        <v>0.3340995041054313</v>
       </c>
       <c r="M2">
-        <v>3.05081178129717</v>
+        <v>0.2567714876279084</v>
       </c>
       <c r="N2">
-        <v>0.05372419207779799</v>
+        <v>0.06211878647892988</v>
       </c>
       <c r="O2">
-        <v>0.6425847681294172</v>
+        <v>2.866308571638996</v>
       </c>
       <c r="P2">
-        <v>1.013382035619777</v>
+        <v>0.07390522321753323</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5996527568991752</v>
+      </c>
+      <c r="R2">
+        <v>1.013581683966265</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07661137793034101</v>
+        <v>0.03717067071888636</v>
       </c>
       <c r="D3">
-        <v>0.03791048987014278</v>
+        <v>0.04398957940411208</v>
       </c>
       <c r="E3">
-        <v>0.04358962216830697</v>
+        <v>0.04195168168730667</v>
       </c>
       <c r="F3">
-        <v>1.241852255188206</v>
+        <v>1.093843168186304</v>
       </c>
       <c r="G3">
-        <v>0.9897790445193237</v>
+        <v>0.8370497931041854</v>
       </c>
       <c r="H3">
-        <v>0.01407038535843863</v>
+        <v>0.01153507990209668</v>
       </c>
       <c r="I3">
-        <v>0.01080075880526898</v>
+        <v>0.007270470041172761</v>
       </c>
       <c r="J3">
-        <v>0.6961248108076603</v>
+        <v>0.6263579430250701</v>
       </c>
       <c r="K3">
-        <v>0.9047897876060915</v>
+        <v>0.7512112882239563</v>
       </c>
       <c r="L3">
-        <v>0.06568898661056721</v>
+        <v>0.3291145458736366</v>
       </c>
       <c r="M3">
-        <v>2.661564728708385</v>
+        <v>0.2383251423242427</v>
       </c>
       <c r="N3">
-        <v>0.05141364639760937</v>
+        <v>0.05884819599960345</v>
       </c>
       <c r="O3">
-        <v>0.5641606265483645</v>
+        <v>2.505880622912912</v>
       </c>
       <c r="P3">
-        <v>1.042596158057659</v>
+        <v>0.07068184477707007</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5275212137760903</v>
+      </c>
+      <c r="R3">
+        <v>1.033857841556511</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.07065436971681294</v>
+        <v>0.03433160777119326</v>
       </c>
       <c r="D4">
-        <v>0.0352425743747844</v>
+        <v>0.04087589847623718</v>
       </c>
       <c r="E4">
-        <v>0.04142857299398095</v>
+        <v>0.04007518068599225</v>
       </c>
       <c r="F4">
-        <v>1.201749770769538</v>
+        <v>1.063757552744676</v>
       </c>
       <c r="G4">
-        <v>0.9549946556998066</v>
+        <v>0.814345238332379</v>
       </c>
       <c r="H4">
-        <v>0.01658037747872648</v>
+        <v>0.01356692810651694</v>
       </c>
       <c r="I4">
-        <v>0.01326022883347466</v>
+        <v>0.008976143997546426</v>
       </c>
       <c r="J4">
-        <v>0.682792378676794</v>
+        <v>0.6142805009090182</v>
       </c>
       <c r="K4">
-        <v>0.8747363586781702</v>
+        <v>0.7309489129873228</v>
       </c>
       <c r="L4">
-        <v>0.06300454661853294</v>
+        <v>0.3257645439611991</v>
       </c>
       <c r="M4">
-        <v>2.42226049291645</v>
+        <v>0.2278341949210834</v>
       </c>
       <c r="N4">
-        <v>0.05001301672999858</v>
+        <v>0.05679551407910033</v>
       </c>
       <c r="O4">
-        <v>0.5159308011988415</v>
+        <v>2.283802186513242</v>
       </c>
       <c r="P4">
-        <v>1.061258570954067</v>
+        <v>0.06875357903669865</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4830654754392967</v>
+      </c>
+      <c r="R4">
+        <v>1.047132426867826</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.06794884096314746</v>
+        <v>0.032995597791313</v>
       </c>
       <c r="D5">
-        <v>0.03419456581902125</v>
+        <v>0.03964982520464133</v>
       </c>
       <c r="E5">
-        <v>0.04052709954700973</v>
+        <v>0.03929049170752208</v>
       </c>
       <c r="F5">
-        <v>1.184616977167479</v>
+        <v>1.050744973430575</v>
       </c>
       <c r="G5">
-        <v>0.9400126316490542</v>
+        <v>0.804395386821156</v>
       </c>
       <c r="H5">
-        <v>0.01769506174557828</v>
+        <v>0.01446933171892312</v>
       </c>
       <c r="I5">
-        <v>0.01446030257438746</v>
+        <v>0.009852121699612582</v>
       </c>
       <c r="J5">
-        <v>0.6769735258849749</v>
+        <v>0.60892389707098</v>
       </c>
       <c r="K5">
-        <v>0.861602270633</v>
+        <v>0.7218790065630856</v>
       </c>
       <c r="L5">
-        <v>0.06185114581687579</v>
+        <v>0.3239706819942683</v>
       </c>
       <c r="M5">
-        <v>2.323372997679229</v>
+        <v>0.2235115713281388</v>
       </c>
       <c r="N5">
-        <v>0.04950282077719592</v>
+        <v>0.05590714624538151</v>
       </c>
       <c r="O5">
-        <v>0.4959716822311151</v>
+        <v>2.191906675793888</v>
       </c>
       <c r="P5">
-        <v>1.069165555755788</v>
+        <v>0.06804960540024396</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4646421131495089</v>
+      </c>
+      <c r="R5">
+        <v>1.052933589120322</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0671870457153787</v>
+        <v>0.03257179711921765</v>
       </c>
       <c r="D6">
-        <v>0.03406394116907308</v>
+        <v>0.03949137570598538</v>
       </c>
       <c r="E6">
-        <v>0.04035608904083965</v>
+        <v>0.03914067528280718</v>
       </c>
       <c r="F6">
-        <v>1.180625128412288</v>
+        <v>1.047557829385852</v>
       </c>
       <c r="G6">
-        <v>0.9363779154873129</v>
+        <v>0.8017479678094901</v>
       </c>
       <c r="H6">
-        <v>0.01789638141958499</v>
+        <v>0.01463239960982737</v>
       </c>
       <c r="I6">
-        <v>0.01478621320259599</v>
+        <v>0.0101349130598809</v>
       </c>
       <c r="J6">
-        <v>0.6754297365989146</v>
+        <v>0.6074993256356009</v>
       </c>
       <c r="K6">
-        <v>0.8582703041418185</v>
+        <v>0.7193787995501211</v>
       </c>
       <c r="L6">
-        <v>0.06159978827366253</v>
+        <v>0.3232346595169702</v>
       </c>
       <c r="M6">
-        <v>2.305387028044322</v>
+        <v>0.2224941470918722</v>
       </c>
       <c r="N6">
-        <v>0.04948784971899123</v>
+        <v>0.05570986882435491</v>
       </c>
       <c r="O6">
-        <v>0.4923106619495385</v>
+        <v>2.175177004729306</v>
       </c>
       <c r="P6">
-        <v>1.070643676504758</v>
+        <v>0.06801901841678415</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4612580450743593</v>
+      </c>
+      <c r="R6">
+        <v>1.054142939788939</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.06976362678048531</v>
+        <v>0.03387929434656201</v>
       </c>
       <c r="D7">
-        <v>0.0353464706879052</v>
+        <v>0.04112750246154206</v>
       </c>
       <c r="E7">
-        <v>0.04135878748734179</v>
+        <v>0.04004364148785555</v>
       </c>
       <c r="F7">
-        <v>1.198358328826885</v>
+        <v>1.059136296128173</v>
       </c>
       <c r="G7">
-        <v>0.951634034511585</v>
+        <v>0.8150055704404622</v>
       </c>
       <c r="H7">
-        <v>0.01662438280630707</v>
+        <v>0.01361383550683054</v>
       </c>
       <c r="I7">
-        <v>0.01358562877728797</v>
+        <v>0.009339663239312124</v>
       </c>
       <c r="J7">
-        <v>0.6811211507273214</v>
+        <v>0.6063551558983278</v>
       </c>
       <c r="K7">
-        <v>0.8714019057058451</v>
+        <v>0.7269740401227125</v>
       </c>
       <c r="L7">
-        <v>0.06282735505237014</v>
+        <v>0.324088605760096</v>
       </c>
       <c r="M7">
-        <v>2.416650577235202</v>
+        <v>0.2265365268592952</v>
       </c>
       <c r="N7">
-        <v>0.0501958589775171</v>
+        <v>0.05663373880637401</v>
       </c>
       <c r="O7">
-        <v>0.5147150869075503</v>
+        <v>2.275989630250706</v>
       </c>
       <c r="P7">
-        <v>1.061802838070005</v>
+        <v>0.06897598057767595</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4816160092724715</v>
+      </c>
+      <c r="R7">
+        <v>1.0482595853099</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0817483719707397</v>
+        <v>0.03981543974509094</v>
       </c>
       <c r="D8">
-        <v>0.04092913860613834</v>
+        <v>0.04798839409070155</v>
       </c>
       <c r="E8">
-        <v>0.04580828458187725</v>
+        <v>0.04397778984992584</v>
       </c>
       <c r="F8">
-        <v>1.281015687097266</v>
+        <v>1.117175252060804</v>
       </c>
       <c r="G8">
-        <v>1.023208126556426</v>
+        <v>0.8699406808417791</v>
       </c>
       <c r="H8">
-        <v>0.01171500156343459</v>
+        <v>0.009657083985238027</v>
       </c>
       <c r="I8">
-        <v>0.008911246978112075</v>
+        <v>0.006162686823985908</v>
       </c>
       <c r="J8">
-        <v>0.7085698968702161</v>
+        <v>0.616350106103269</v>
       </c>
       <c r="K8">
-        <v>0.9328811442514962</v>
+        <v>0.7655088449625183</v>
       </c>
       <c r="L8">
-        <v>0.06830339392214668</v>
+        <v>0.329456067366074</v>
       </c>
       <c r="M8">
-        <v>2.910917929102027</v>
+        <v>0.2477126298092607</v>
       </c>
       <c r="N8">
-        <v>0.05317552644697798</v>
+        <v>0.06077311703107213</v>
       </c>
       <c r="O8">
-        <v>0.6142904679753158</v>
+        <v>2.728196515767166</v>
       </c>
       <c r="P8">
-        <v>1.023952476291441</v>
+        <v>0.07309133476110929</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5725677545722689</v>
+      </c>
+      <c r="R8">
+        <v>1.022791552036921</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1061653922361074</v>
+        <v>0.05169443650408567</v>
       </c>
       <c r="D9">
-        <v>0.05182121064799361</v>
+        <v>0.06091619433254891</v>
       </c>
       <c r="E9">
-        <v>0.05456255521998266</v>
+        <v>0.05156458825140753</v>
       </c>
       <c r="F9">
-        <v>1.454591174950849</v>
+        <v>1.245450200719034</v>
       </c>
       <c r="G9">
-        <v>1.174517479427053</v>
+        <v>0.9743303896603805</v>
       </c>
       <c r="H9">
-        <v>0.004919726033915883</v>
+        <v>0.004136861366875411</v>
       </c>
       <c r="I9">
-        <v>0.002947178156689212</v>
+        <v>0.002130924601279283</v>
       </c>
       <c r="J9">
-        <v>0.768540670350248</v>
+        <v>0.6615757109494211</v>
       </c>
       <c r="K9">
-        <v>1.061459220939369</v>
+        <v>0.8503614453107389</v>
       </c>
       <c r="L9">
-        <v>0.07903875611104993</v>
+        <v>0.3414242003866974</v>
       </c>
       <c r="M9">
-        <v>3.886471345655139</v>
+        <v>0.299010225357172</v>
       </c>
       <c r="N9">
-        <v>0.05884542272607263</v>
+        <v>0.06885641846910318</v>
       </c>
       <c r="O9">
-        <v>0.8108463515451731</v>
+        <v>3.626005523312415</v>
       </c>
       <c r="P9">
-        <v>0.9548169073221864</v>
+        <v>0.08117666535434154</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7524668844910138</v>
+      </c>
+      <c r="R9">
+        <v>0.9768915848811233</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1217678198195671</v>
+        <v>0.06001298465545091</v>
       </c>
       <c r="D10">
-        <v>0.05911664476328582</v>
+        <v>0.07049045004197296</v>
       </c>
       <c r="E10">
-        <v>0.05923703398503655</v>
+        <v>0.05566323058351585</v>
       </c>
       <c r="F10">
-        <v>1.567382180584758</v>
+        <v>1.31726517244789</v>
       </c>
       <c r="G10">
-        <v>1.273234842509112</v>
+        <v>1.062642131719713</v>
       </c>
       <c r="H10">
-        <v>0.002210784586214487</v>
+        <v>0.001971351162552981</v>
       </c>
       <c r="I10">
-        <v>0.001250186656625907</v>
+        <v>0.001229051004315806</v>
       </c>
       <c r="J10">
-        <v>0.8067591994795009</v>
+        <v>0.6530047454882038</v>
       </c>
       <c r="K10">
-        <v>1.143566830042523</v>
+        <v>0.8957710042114897</v>
       </c>
       <c r="L10">
-        <v>0.08433038533880222</v>
+        <v>0.3426252385659865</v>
       </c>
       <c r="M10">
-        <v>4.583332798539118</v>
+        <v>0.3341668188855422</v>
       </c>
       <c r="N10">
-        <v>0.06097363366114905</v>
+        <v>0.07262308746369861</v>
       </c>
       <c r="O10">
-        <v>0.9448185845365487</v>
+        <v>4.250191391153237</v>
       </c>
       <c r="P10">
-        <v>0.9116032955613917</v>
+        <v>0.08441570927552533</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8725990462652362</v>
+      </c>
+      <c r="R10">
+        <v>0.9556599196880242</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1140013314677475</v>
+        <v>0.05805176899635711</v>
       </c>
       <c r="D11">
-        <v>0.05503267688342817</v>
+        <v>0.0675655980481622</v>
       </c>
       <c r="E11">
-        <v>0.04807293055143624</v>
+        <v>0.04541324062054208</v>
       </c>
       <c r="F11">
-        <v>1.464416180820351</v>
+        <v>1.208644033533446</v>
       </c>
       <c r="G11">
-        <v>1.186254900294401</v>
+        <v>1.032314234365089</v>
       </c>
       <c r="H11">
-        <v>0.02060786074658694</v>
+        <v>0.02046365896284996</v>
       </c>
       <c r="I11">
-        <v>0.001569815168523725</v>
+        <v>0.001775694995282961</v>
       </c>
       <c r="J11">
-        <v>0.7583967352597085</v>
+        <v>0.5465529026237306</v>
       </c>
       <c r="K11">
-        <v>1.06773564412989</v>
+        <v>0.8206621112562686</v>
       </c>
       <c r="L11">
-        <v>0.07009626575089634</v>
+        <v>0.3092471483180574</v>
       </c>
       <c r="M11">
-        <v>4.733112760274025</v>
+        <v>0.3125547505902873</v>
       </c>
       <c r="N11">
-        <v>0.04674761068717181</v>
+        <v>0.06207675708208971</v>
       </c>
       <c r="O11">
-        <v>0.9178837695213531</v>
+        <v>4.365428335904824</v>
       </c>
       <c r="P11">
-        <v>0.9285570213887127</v>
+        <v>0.06353419090278933</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8437461657545597</v>
+      </c>
+      <c r="R11">
+        <v>1.000148315033755</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1059110944131092</v>
+        <v>0.05519634878925217</v>
       </c>
       <c r="D12">
-        <v>0.05001333855157952</v>
+        <v>0.06238792805809368</v>
       </c>
       <c r="E12">
-        <v>0.04002862361174131</v>
+        <v>0.0380014470426806</v>
       </c>
       <c r="F12">
-        <v>1.360425915583519</v>
+        <v>1.114411680660936</v>
       </c>
       <c r="G12">
-        <v>1.098521664499756</v>
+        <v>0.9786133791240559</v>
       </c>
       <c r="H12">
-        <v>0.05940302902666161</v>
+        <v>0.05926609285508988</v>
       </c>
       <c r="I12">
-        <v>0.001550964559180912</v>
+        <v>0.001768202105854044</v>
       </c>
       <c r="J12">
-        <v>0.7125697095023327</v>
+        <v>0.4871711570751671</v>
       </c>
       <c r="K12">
-        <v>0.9928527370490556</v>
+        <v>0.7577395413995163</v>
       </c>
       <c r="L12">
-        <v>0.06295356923915918</v>
+        <v>0.2849541063225232</v>
       </c>
       <c r="M12">
-        <v>4.716223866535302</v>
+        <v>0.2901555925620656</v>
       </c>
       <c r="N12">
-        <v>0.03991804495667717</v>
+        <v>0.05818981580970628</v>
       </c>
       <c r="O12">
-        <v>0.8685371197895506</v>
+        <v>4.344556604607078</v>
       </c>
       <c r="P12">
-        <v>0.9581298136184913</v>
+        <v>0.05103514750336302</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7969175257841243</v>
+      </c>
+      <c r="R12">
+        <v>1.046155328063705</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.09580519553534117</v>
+        <v>0.05048841265774939</v>
       </c>
       <c r="D13">
-        <v>0.04420270567575102</v>
+        <v>0.05515513107526004</v>
       </c>
       <c r="E13">
-        <v>0.03384350870231145</v>
+        <v>0.0323238382297788</v>
       </c>
       <c r="F13">
-        <v>1.244841428946216</v>
+        <v>1.02402748572473</v>
       </c>
       <c r="G13">
-        <v>1.000248541860088</v>
+        <v>0.8917219116800368</v>
       </c>
       <c r="H13">
-        <v>0.1155536803078832</v>
+        <v>0.1153436982201299</v>
       </c>
       <c r="I13">
-        <v>0.001622714853004581</v>
+        <v>0.001769600266205096</v>
       </c>
       <c r="J13">
-        <v>0.6635410748709063</v>
+        <v>0.4625481766178865</v>
       </c>
       <c r="K13">
-        <v>0.90956198143585</v>
+        <v>0.6981419146777483</v>
       </c>
       <c r="L13">
-        <v>0.06053975972869807</v>
+        <v>0.2647160091766239</v>
       </c>
       <c r="M13">
-        <v>4.563254860214499</v>
+        <v>0.2654180372118233</v>
       </c>
       <c r="N13">
-        <v>0.03858517755043511</v>
+        <v>0.05885419016141036</v>
       </c>
       <c r="O13">
-        <v>0.7979904508500582</v>
+        <v>4.2182761236121</v>
       </c>
       <c r="P13">
-        <v>0.9987032033531804</v>
+        <v>0.044692700250613</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.7331550052551421</v>
+      </c>
+      <c r="R13">
+        <v>1.092074577563665</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.08774647760178311</v>
+        <v>0.04636680449253205</v>
       </c>
       <c r="D14">
-        <v>0.03987052703551086</v>
+        <v>0.04936828608512656</v>
       </c>
       <c r="E14">
-        <v>0.03068149585995883</v>
+        <v>0.02951214554228532</v>
       </c>
       <c r="F14">
-        <v>1.158923317996326</v>
+        <v>0.9616930586150119</v>
       </c>
       <c r="G14">
-        <v>0.9267759400005673</v>
+        <v>0.8177420285648367</v>
       </c>
       <c r="H14">
-        <v>0.1653271840615247</v>
+        <v>0.1650184465271423</v>
       </c>
       <c r="I14">
-        <v>0.001850399596643015</v>
+        <v>0.001906831915937879</v>
       </c>
       <c r="J14">
-        <v>0.6277683835561021</v>
+        <v>0.4579495606587187</v>
       </c>
       <c r="K14">
-        <v>0.8474061137261941</v>
+        <v>0.6571426134263021</v>
       </c>
       <c r="L14">
-        <v>0.06172927002520012</v>
+        <v>0.2518697957945903</v>
       </c>
       <c r="M14">
-        <v>4.393952286078672</v>
+        <v>0.2469837916999893</v>
       </c>
       <c r="N14">
-        <v>0.04085855019566687</v>
+        <v>0.06203645543222436</v>
       </c>
       <c r="O14">
-        <v>0.7393121269460039</v>
+        <v>4.080866994142127</v>
       </c>
       <c r="P14">
-        <v>1.032763838721536</v>
+        <v>0.04390370588408121</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.6809472830009895</v>
+      </c>
+      <c r="R14">
+        <v>1.124117615348752</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.08507187740130462</v>
+        <v>0.04485486400358241</v>
       </c>
       <c r="D15">
-        <v>0.03867326766363988</v>
+        <v>0.04762345603891305</v>
       </c>
       <c r="E15">
-        <v>0.03001077719551914</v>
+        <v>0.02894020145383736</v>
       </c>
       <c r="F15">
-        <v>1.134453947868025</v>
+        <v>0.9457206253057535</v>
       </c>
       <c r="G15">
-        <v>0.9055585381366313</v>
+        <v>0.7932394478672222</v>
       </c>
       <c r="H15">
-        <v>0.1780464865555302</v>
+        <v>0.1776881241146526</v>
       </c>
       <c r="I15">
-        <v>0.002077525206875208</v>
+        <v>0.002104114326689555</v>
       </c>
       <c r="J15">
-        <v>0.6178504978507817</v>
+        <v>0.4618218807505912</v>
       </c>
       <c r="K15">
-        <v>0.8293974236701303</v>
+        <v>0.6464923923109183</v>
       </c>
       <c r="L15">
-        <v>0.06228171312919351</v>
+        <v>0.2489783696565802</v>
       </c>
       <c r="M15">
-        <v>4.322671688574871</v>
+        <v>0.2416017565070234</v>
       </c>
       <c r="N15">
-        <v>0.04174612591451421</v>
+        <v>0.06304882393525624</v>
       </c>
       <c r="O15">
-        <v>0.7202895875119566</v>
+        <v>4.02320367927183</v>
       </c>
       <c r="P15">
-        <v>1.042788635405699</v>
+        <v>0.04419797414383275</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.6642960638218227</v>
+      </c>
+      <c r="R15">
+        <v>1.131295532714901</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.08030479756094877</v>
+        <v>0.0412958378549817</v>
       </c>
       <c r="D16">
-        <v>0.03693319575620535</v>
+        <v>0.04417920352224058</v>
       </c>
       <c r="E16">
-        <v>0.02941234567351048</v>
+        <v>0.02844203863575934</v>
       </c>
       <c r="F16">
-        <v>1.109294820873629</v>
+        <v>0.9438262173535037</v>
       </c>
       <c r="G16">
-        <v>0.8825503802949015</v>
+        <v>0.7444802324772013</v>
       </c>
       <c r="H16">
-        <v>0.1664382208928714</v>
+        <v>0.1658238319181464</v>
       </c>
       <c r="I16">
-        <v>0.002820807875995257</v>
+        <v>0.002572179624737991</v>
       </c>
       <c r="J16">
-        <v>0.6109044314229948</v>
+        <v>0.5087668776178873</v>
       </c>
       <c r="K16">
-        <v>0.8105829307865449</v>
+        <v>0.6459579220479554</v>
       </c>
       <c r="L16">
-        <v>0.06051971477521256</v>
+        <v>0.25345336787408</v>
       </c>
       <c r="M16">
-        <v>4.054467214204976</v>
+        <v>0.2353499126413183</v>
       </c>
       <c r="N16">
-        <v>0.04103809060974761</v>
+        <v>0.06113521840818592</v>
       </c>
       <c r="O16">
-        <v>0.6784921368908812</v>
+        <v>3.804338317013674</v>
       </c>
       <c r="P16">
-        <v>1.049771461395821</v>
+        <v>0.04448637180312609</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.6293967858610046</v>
+      </c>
+      <c r="R16">
+        <v>1.118307806066269</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.08077809538615099</v>
+        <v>0.04076103540697318</v>
       </c>
       <c r="D17">
-        <v>0.03786428465236469</v>
+        <v>0.04468596048794637</v>
       </c>
       <c r="E17">
-        <v>0.03039398465240195</v>
+        <v>0.02926539807920925</v>
       </c>
       <c r="F17">
-        <v>1.135081501346221</v>
+        <v>0.9737669115943817</v>
       </c>
       <c r="G17">
-        <v>0.9034608292798936</v>
+        <v>0.7497598566576187</v>
       </c>
       <c r="H17">
-        <v>0.1293329224224493</v>
+        <v>0.1285713753398454</v>
       </c>
       <c r="I17">
-        <v>0.003329764411120983</v>
+        <v>0.002912243575051043</v>
       </c>
       <c r="J17">
-        <v>0.6244042338425686</v>
+        <v>0.543235173000852</v>
       </c>
       <c r="K17">
-        <v>0.8286748328601306</v>
+        <v>0.6661062310327139</v>
       </c>
       <c r="L17">
-        <v>0.05800302006982161</v>
+        <v>0.2636249965894706</v>
       </c>
       <c r="M17">
-        <v>3.938473493537288</v>
+        <v>0.2396131343685042</v>
       </c>
       <c r="N17">
-        <v>0.03882888844732602</v>
+        <v>0.05751885707557136</v>
       </c>
       <c r="O17">
-        <v>0.6771860400920531</v>
+        <v>3.705201486781391</v>
       </c>
       <c r="P17">
-        <v>1.03723714120855</v>
+        <v>0.0445400781760652</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.6296402558354899</v>
+      </c>
+      <c r="R17">
+        <v>1.094139068785054</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08662721475258195</v>
+        <v>0.04300852923686804</v>
       </c>
       <c r="D18">
-        <v>0.04122178666549559</v>
+        <v>0.04836042400933138</v>
       </c>
       <c r="E18">
-        <v>0.03400575690429797</v>
+        <v>0.03242855414142021</v>
       </c>
       <c r="F18">
-        <v>1.211210439973812</v>
+        <v>1.04083034336486</v>
       </c>
       <c r="G18">
-        <v>0.9679172212195795</v>
+        <v>0.7968591803984708</v>
       </c>
       <c r="H18">
-        <v>0.07664430078265383</v>
+        <v>0.07585498943058866</v>
       </c>
       <c r="I18">
-        <v>0.003221503794690328</v>
+        <v>0.002714591220048135</v>
       </c>
       <c r="J18">
-        <v>0.6586322580356665</v>
+        <v>0.5814899134414588</v>
       </c>
       <c r="K18">
-        <v>0.8839025914573426</v>
+        <v>0.7113295308984533</v>
       </c>
       <c r="L18">
-        <v>0.05735342135790833</v>
+        <v>0.2818689453920129</v>
       </c>
       <c r="M18">
-        <v>3.942569545369906</v>
+        <v>0.2550003000927248</v>
       </c>
       <c r="N18">
-        <v>0.03796383091975963</v>
+        <v>0.05472092691772712</v>
       </c>
       <c r="O18">
-        <v>0.7116914453708745</v>
+        <v>3.706378279111107</v>
       </c>
       <c r="P18">
-        <v>1.008640110309855</v>
+        <v>0.04741568409168817</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.6619165361801649</v>
+      </c>
+      <c r="R18">
+        <v>1.05697086804404</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.09546500173240702</v>
+        <v>0.04671362678247704</v>
       </c>
       <c r="D19">
-        <v>0.0466742797896984</v>
+        <v>0.05463415430715912</v>
       </c>
       <c r="E19">
-        <v>0.04113823621363721</v>
+        <v>0.03887980736571528</v>
       </c>
       <c r="F19">
-        <v>1.320040590879728</v>
+        <v>1.131883713236363</v>
       </c>
       <c r="G19">
-        <v>1.06004312940658</v>
+        <v>0.8688348436331523</v>
       </c>
       <c r="H19">
-        <v>0.03092177489777725</v>
+        <v>0.03021760626952386</v>
       </c>
       <c r="I19">
-        <v>0.003156622247545648</v>
+        <v>0.002749121743654825</v>
       </c>
       <c r="J19">
-        <v>0.7055422686578652</v>
+        <v>0.6226538947573061</v>
       </c>
       <c r="K19">
-        <v>0.9620248532944942</v>
+        <v>0.7715686686565633</v>
       </c>
       <c r="L19">
-        <v>0.06236051681053745</v>
+        <v>0.3046006909763861</v>
       </c>
       <c r="M19">
-        <v>4.034281966950402</v>
+        <v>0.2774432017399491</v>
       </c>
       <c r="N19">
-        <v>0.04242820479750975</v>
+        <v>0.05673194677136051</v>
       </c>
       <c r="O19">
-        <v>0.7719179166167578</v>
+        <v>3.782516787482678</v>
       </c>
       <c r="P19">
-        <v>0.9756180758892796</v>
+        <v>0.05697600563704164</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.7173025831451767</v>
+      </c>
+      <c r="R19">
+        <v>1.01710454925977</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1149056265786612</v>
+        <v>0.05578846173713714</v>
       </c>
       <c r="D20">
-        <v>0.05752933812406269</v>
+        <v>0.06776912280726322</v>
       </c>
       <c r="E20">
-        <v>0.05775793293196152</v>
+        <v>0.05424264091872466</v>
       </c>
       <c r="F20">
-        <v>1.526827494398688</v>
+        <v>1.294792248072127</v>
       </c>
       <c r="G20">
-        <v>1.236488432164791</v>
+        <v>1.017058615666656</v>
       </c>
       <c r="H20">
-        <v>0.002808426564865574</v>
+        <v>0.002436077889471644</v>
       </c>
       <c r="I20">
-        <v>0.002352727921915765</v>
+        <v>0.002313070199355671</v>
       </c>
       <c r="J20">
-        <v>0.7912867086594844</v>
+        <v>0.6725360073581896</v>
       </c>
       <c r="K20">
-        <v>1.111433232888182</v>
+        <v>0.8791703834218936</v>
       </c>
       <c r="L20">
-        <v>0.08235157402608095</v>
+        <v>0.3406515324877404</v>
       </c>
       <c r="M20">
-        <v>4.38565179939792</v>
+        <v>0.3228973200708012</v>
       </c>
       <c r="N20">
-        <v>0.06089087459930553</v>
+        <v>0.07121984823213268</v>
       </c>
       <c r="O20">
-        <v>0.9061773236605788</v>
+        <v>4.082615983925848</v>
       </c>
       <c r="P20">
-        <v>0.9246958424317384</v>
+        <v>0.08417372285228453</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8390914494357347</v>
+      </c>
+      <c r="R20">
+        <v>0.9618967853009579</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1298135972096901</v>
+        <v>0.06574507850863398</v>
       </c>
       <c r="D21">
-        <v>0.06447584895326486</v>
+        <v>0.07971395131686876</v>
       </c>
       <c r="E21">
-        <v>0.06404327430731449</v>
+        <v>0.0605547456537785</v>
       </c>
       <c r="F21">
-        <v>1.644224530940576</v>
+        <v>1.344330655373909</v>
       </c>
       <c r="G21">
-        <v>1.338950154017027</v>
+        <v>1.178260985102966</v>
       </c>
       <c r="H21">
-        <v>0.0009619353317844581</v>
+        <v>0.0009259248197217573</v>
       </c>
       <c r="I21">
-        <v>0.001687939762104129</v>
+        <v>0.00201946145783527</v>
       </c>
       <c r="J21">
-        <v>0.8340429803917573</v>
+        <v>0.5688275345953286</v>
       </c>
       <c r="K21">
-        <v>1.196898398571861</v>
+        <v>0.9096169851063962</v>
       </c>
       <c r="L21">
-        <v>0.09017298405019503</v>
+        <v>0.3398976772908568</v>
       </c>
       <c r="M21">
-        <v>4.951929857749349</v>
+        <v>0.3490892398797243</v>
       </c>
       <c r="N21">
-        <v>0.06599056556995109</v>
+        <v>0.07676979825093255</v>
       </c>
       <c r="O21">
-        <v>1.025080159915241</v>
+        <v>4.536175851799385</v>
       </c>
       <c r="P21">
-        <v>0.8875833672276769</v>
+        <v>0.0914600690989964</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9394361063672392</v>
+      </c>
+      <c r="R21">
+        <v>0.9506019879447649</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1398761926280088</v>
+        <v>0.07291454177833856</v>
       </c>
       <c r="D22">
-        <v>0.06843733979981437</v>
+        <v>0.08723949657188257</v>
       </c>
       <c r="E22">
-        <v>0.06736426765108661</v>
+        <v>0.06402826691072683</v>
       </c>
       <c r="F22">
-        <v>1.717269803501068</v>
+        <v>1.370804417081445</v>
       </c>
       <c r="G22">
-        <v>1.40351221438911</v>
+        <v>1.292225359036252</v>
       </c>
       <c r="H22">
-        <v>0.0003294307832457655</v>
+        <v>0.0003829150096923417</v>
       </c>
       <c r="I22">
-        <v>0.001512734774614444</v>
+        <v>0.001825295304803909</v>
       </c>
       <c r="J22">
-        <v>0.8608417338896857</v>
+        <v>0.5012636708822669</v>
       </c>
       <c r="K22">
-        <v>1.250983104643439</v>
+        <v>0.9262986807212599</v>
       </c>
       <c r="L22">
-        <v>0.09428160127326279</v>
+        <v>0.3382007956108168</v>
       </c>
       <c r="M22">
-        <v>5.319235967750501</v>
+        <v>0.3654740651853032</v>
       </c>
       <c r="N22">
-        <v>0.06793102210496116</v>
+        <v>0.07959523849961414</v>
       </c>
       <c r="O22">
-        <v>1.099122027433559</v>
+        <v>4.824856736549918</v>
       </c>
       <c r="P22">
-        <v>0.8649930588862063</v>
+        <v>0.09436917619564866</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.000873783496488</v>
+      </c>
+      <c r="R22">
+        <v>0.9468936332175062</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1355481090893988</v>
+        <v>0.06939452021129711</v>
       </c>
       <c r="D23">
-        <v>0.06617717787407429</v>
+        <v>0.08261898469852014</v>
       </c>
       <c r="E23">
-        <v>0.06565995922779244</v>
+        <v>0.06213716319959239</v>
       </c>
       <c r="F23">
-        <v>1.681943863145122</v>
+        <v>1.364124467693941</v>
       </c>
       <c r="G23">
-        <v>1.372725628184185</v>
+        <v>1.223800872856415</v>
       </c>
       <c r="H23">
-        <v>0.0006189588079623665</v>
+        <v>0.000633077066280574</v>
       </c>
       <c r="I23">
-        <v>0.001247749999077286</v>
+        <v>0.001527192059656457</v>
       </c>
       <c r="J23">
-        <v>0.8483666329013886</v>
+        <v>0.5509905843794343</v>
       </c>
       <c r="K23">
-        <v>1.225838523982247</v>
+        <v>0.9234186533731972</v>
       </c>
       <c r="L23">
-        <v>0.09228162137460316</v>
+        <v>0.3412049922033304</v>
       </c>
       <c r="M23">
-        <v>5.128444501701551</v>
+        <v>0.3591175019759589</v>
       </c>
       <c r="N23">
-        <v>0.06665993808080728</v>
+        <v>0.07827288275983335</v>
       </c>
       <c r="O23">
-        <v>1.060763890311826</v>
+        <v>4.682918328892754</v>
       </c>
       <c r="P23">
-        <v>0.8762125536164049</v>
+        <v>0.09250993099588101</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9700631177722912</v>
+      </c>
+      <c r="R23">
+        <v>0.9459855602405227</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.1174847497803597</v>
+        <v>0.05713683107170908</v>
       </c>
       <c r="D24">
-        <v>0.05790445965645574</v>
+        <v>0.06819982322447515</v>
       </c>
       <c r="E24">
-        <v>0.05911810286357699</v>
+        <v>0.05550681036043237</v>
       </c>
       <c r="F24">
-        <v>1.544532136329678</v>
+        <v>1.31006689844213</v>
       </c>
       <c r="G24">
-        <v>1.252378345328225</v>
+        <v>1.02950301611817</v>
       </c>
       <c r="H24">
-        <v>0.002604658063526388</v>
+        <v>0.002242265136239041</v>
       </c>
       <c r="I24">
-        <v>0.001827786866730463</v>
+        <v>0.001697185456094985</v>
       </c>
       <c r="J24">
-        <v>0.7993546654722934</v>
+        <v>0.6803789800413256</v>
       </c>
       <c r="K24">
-        <v>1.125823145338202</v>
+        <v>0.8908290971913786</v>
       </c>
       <c r="L24">
-        <v>0.08439609832483796</v>
+        <v>0.3450928550766506</v>
       </c>
       <c r="M24">
-        <v>4.398858316923395</v>
+        <v>0.3271969958869008</v>
       </c>
       <c r="N24">
-        <v>0.06227903051907546</v>
+        <v>0.07282796641730016</v>
       </c>
       <c r="O24">
-        <v>0.9138808990728364</v>
+        <v>4.094242562620877</v>
       </c>
       <c r="P24">
-        <v>0.9216232914664033</v>
+        <v>0.08609974391654163</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8462167701831262</v>
+      </c>
+      <c r="R24">
+        <v>0.9571385772946073</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.09804442504623267</v>
+        <v>0.0473875488773956</v>
       </c>
       <c r="D25">
-        <v>0.04907130490316547</v>
+        <v>0.05740508738528405</v>
       </c>
       <c r="E25">
-        <v>0.05209383653975408</v>
+        <v>0.04937966154697193</v>
       </c>
       <c r="F25">
-        <v>1.401186721865088</v>
+        <v>1.207593356588617</v>
       </c>
       <c r="G25">
-        <v>1.12718844344019</v>
+        <v>0.9354458151593832</v>
       </c>
       <c r="H25">
-        <v>0.006457160151993491</v>
+        <v>0.005380667738245082</v>
       </c>
       <c r="I25">
-        <v>0.00462278379080594</v>
+        <v>0.003455910296266573</v>
       </c>
       <c r="J25">
-        <v>0.749046542599288</v>
+        <v>0.6557046780455664</v>
       </c>
       <c r="K25">
-        <v>1.02062818499784</v>
+        <v>0.8241195681961244</v>
       </c>
       <c r="L25">
-        <v>0.07586769087803447</v>
+        <v>0.3371888198915158</v>
       </c>
       <c r="M25">
-        <v>3.614612681269307</v>
+        <v>0.2832019888030572</v>
       </c>
       <c r="N25">
-        <v>0.057639070539107</v>
+        <v>0.06648694616870543</v>
       </c>
       <c r="O25">
-        <v>0.7559337582440051</v>
+        <v>3.380012173423097</v>
       </c>
       <c r="P25">
-        <v>0.9738522827098244</v>
+        <v>0.07938366548793496</v>
       </c>
       <c r="Q25">
+        <v>0.7027505747348215</v>
+      </c>
+      <c r="R25">
+        <v>0.9893400726152919</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
